--- a/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2_ENG.xlsx
@@ -3589,17 +3589,20 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3609,15 +3612,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3629,12 +3623,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3655,26 +3670,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3682,35 +3682,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="256">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="252">
     <dxf>
       <fill>
         <patternFill>
@@ -8163,6 +8135,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="C58:D58"/>
@@ -8176,11 +8153,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8195,7 +8167,7 @@
   </sheetPr>
   <dimension ref="A2:J266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
@@ -8213,13 +8185,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="54">
         <f>COUNTIF(I12:I266,"&gt;a0")</f>
         <v>52</v>
@@ -8227,11 +8199,11 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="109"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>52</v>
@@ -8239,55 +8211,55 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H266,"Passed")</f>
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H266,"Failed")</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="110" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H128,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="111" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -8545,82 +8517,82 @@
       <c r="J21" s="51"/>
     </row>
     <row r="22" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="97">
         <v>162</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="103" t="s">
         <v>631</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>633</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="96" t="s">
+      <c r="G22" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="105" t="s">
+      <c r="I22" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J22" s="45"/>
     </row>
     <row r="23" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="100"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="33" t="s">
         <v>639</v>
       </c>
       <c r="F23" s="33"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="106"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="100"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="33" t="s">
         <v>636</v>
       </c>
       <c r="F24" s="33"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="106"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="33" t="s">
         <v>637</v>
       </c>
       <c r="F25" s="33"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="106"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="78"/>
     </row>
     <row r="26" spans="2:10" ht="42" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="101"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="33" t="s">
         <v>638</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="107"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="78"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8640,95 +8612,95 @@
       <c r="J27" s="51"/>
     </row>
     <row r="28" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="96">
+      <c r="C28" s="97">
         <v>163</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="103" t="s">
         <v>632</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>633</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="102" t="s">
+      <c r="H28" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="105" t="s">
+      <c r="I28" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J28" s="45"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="100"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="33" t="s">
         <v>641</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="106"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="100"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="33" t="s">
         <v>640</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="106"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="45"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="100"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="33" t="s">
         <v>636</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="106"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="45"/>
     </row>
     <row r="32" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="100"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="104"/>
       <c r="E32" s="33" t="s">
         <v>637</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="106"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="95"/>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="101"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="33" t="s">
         <v>638</v>
       </c>
       <c r="F33" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="98"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="107"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="96"/>
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -8844,56 +8816,56 @@
       <c r="J39" s="51"/>
     </row>
     <row r="40" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="96">
+      <c r="C40" s="97">
         <v>178</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="103" t="s">
         <v>642</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>646</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="96" t="s">
+      <c r="G40" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="102" t="s">
+      <c r="H40" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="105" t="s">
+      <c r="I40" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="100"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="33" t="s">
         <v>644</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="106"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="101"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="105"/>
       <c r="E42" s="33" t="s">
         <v>626</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="107"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8913,88 +8885,88 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="96">
+      <c r="C44" s="97">
         <v>179</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="103" t="s">
         <v>643</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>646</v>
       </c>
       <c r="F44" s="33"/>
-      <c r="G44" s="96" t="s">
+      <c r="G44" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="102" t="s">
+      <c r="H44" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="105" t="s">
+      <c r="I44" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="100"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="33" t="s">
         <v>644</v>
       </c>
       <c r="F45" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="106"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="95"/>
       <c r="J45" s="78"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="33" t="s">
         <v>647</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="106"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="95"/>
       <c r="J46" s="78"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="100"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="33" t="s">
         <v>648</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="106"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="95"/>
       <c r="J47" s="78"/>
     </row>
     <row r="48" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="101"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="33" t="s">
         <v>649</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="107"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="96"/>
       <c r="J48" s="78"/>
     </row>
     <row r="49" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -9014,13 +8986,13 @@
       <c r="J49" s="51"/>
     </row>
     <row r="50" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="96">
+      <c r="C50" s="97">
         <v>180</v>
       </c>
-      <c r="D50" s="99" t="s">
+      <c r="D50" s="103" t="s">
         <v>659</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -9029,30 +9001,30 @@
       <c r="F50" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="G50" s="96" t="s">
+      <c r="G50" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="102" t="s">
+      <c r="H50" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="105" t="s">
+      <c r="I50" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J50" s="45"/>
     </row>
     <row r="51" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B51" s="113"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="100"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="33" t="s">
         <v>660</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="G51" s="97"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="106"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="95"/>
       <c r="J51" s="45"/>
     </row>
     <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
@@ -9102,12 +9074,12 @@
       <c r="J55" s="45"/>
     </row>
     <row r="56" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="119" t="s">
         <v>562</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="61"/>
       <c r="G56" s="61"/>
       <c r="H56" s="61"/>
@@ -9131,403 +9103,403 @@
       <c r="J57" s="51"/>
     </row>
     <row r="58" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="116">
+      <c r="C58" s="109">
         <v>166</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="D58" s="110" t="s">
         <v>664</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>668</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="116" t="s">
+      <c r="G58" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H58" s="118" t="s">
+      <c r="H58" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="115" t="s">
+      <c r="I58" s="112" t="s">
         <v>104</v>
       </c>
       <c r="J58" s="45"/>
     </row>
     <row r="59" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="117"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
       <c r="E59" s="33" t="s">
         <v>677</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="G59" s="116"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="115"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="112"/>
       <c r="J59" s="45"/>
     </row>
     <row r="60" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="117"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="110"/>
       <c r="E60" s="33" t="s">
         <v>647</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="115"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="112"/>
       <c r="J60" s="45"/>
     </row>
     <row r="61" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="117"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="110"/>
       <c r="E61" s="33" t="s">
         <v>648</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="G61" s="116"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="115"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="112"/>
       <c r="J61" s="45"/>
     </row>
     <row r="62" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="117"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="110"/>
       <c r="E62" s="33" t="s">
         <v>649</v>
       </c>
       <c r="F62" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G62" s="116"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="115"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="112"/>
       <c r="J62" s="45"/>
     </row>
     <row r="63" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="117"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
       <c r="E63" s="33" t="s">
         <v>650</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G63" s="116"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="115"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="112"/>
       <c r="J63" s="45"/>
     </row>
     <row r="64" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="116">
+      <c r="C64" s="109">
         <v>167</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="110" t="s">
         <v>665</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>670</v>
       </c>
       <c r="F64" s="33"/>
-      <c r="G64" s="116" t="s">
+      <c r="G64" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="118" t="s">
+      <c r="H64" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="I64" s="115" t="s">
+      <c r="I64" s="112" t="s">
         <v>104</v>
       </c>
       <c r="J64" s="45"/>
     </row>
     <row r="65" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="117"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="110"/>
       <c r="E65" s="33" t="s">
         <v>678</v>
       </c>
       <c r="F65" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="115"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="112"/>
       <c r="J65" s="45"/>
     </row>
     <row r="66" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="116"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="117"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="110"/>
       <c r="E66" s="33" t="s">
         <v>647</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="G66" s="116"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="115"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
       <c r="J66" s="45"/>
     </row>
     <row r="67" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="117"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="110"/>
       <c r="E67" s="33" t="s">
         <v>648</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="G67" s="116"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="115"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="112"/>
       <c r="J67" s="45"/>
     </row>
     <row r="68" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="117"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="110"/>
       <c r="E68" s="33" t="s">
         <v>649</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="118"/>
-      <c r="I68" s="115"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="112"/>
       <c r="J68" s="45"/>
     </row>
     <row r="69" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="110"/>
       <c r="E69" s="33" t="s">
         <v>650</v>
       </c>
       <c r="F69" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G69" s="116"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="115"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="112"/>
       <c r="J69" s="45"/>
     </row>
     <row r="70" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="109">
         <v>168</v>
       </c>
-      <c r="D70" s="117" t="s">
+      <c r="D70" s="110" t="s">
         <v>666</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>671</v>
       </c>
       <c r="F70" s="33"/>
-      <c r="G70" s="116" t="s">
+      <c r="G70" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H70" s="118" t="s">
+      <c r="H70" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="115" t="s">
+      <c r="I70" s="112" t="s">
         <v>104</v>
       </c>
       <c r="J70" s="45"/>
     </row>
     <row r="71" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="116"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="117"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="110"/>
       <c r="E71" s="33" t="s">
         <v>679</v>
       </c>
       <c r="F71" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="G71" s="116"/>
-      <c r="H71" s="118"/>
-      <c r="I71" s="115"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="112"/>
       <c r="J71" s="45"/>
     </row>
     <row r="72" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="116"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="117"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="110"/>
       <c r="E72" s="33" t="s">
         <v>647</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="G72" s="116"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="115"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="112"/>
       <c r="J72" s="45"/>
     </row>
     <row r="73" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="117"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="110"/>
       <c r="E73" s="33" t="s">
         <v>648</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="G73" s="116"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="115"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="112"/>
       <c r="J73" s="45"/>
     </row>
     <row r="74" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="117"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="110"/>
       <c r="E74" s="33" t="s">
         <v>649</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G74" s="116"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="115"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="112"/>
       <c r="J74" s="45"/>
     </row>
     <row r="75" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="116"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="117"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="110"/>
       <c r="E75" s="33" t="s">
         <v>650</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G75" s="116"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="115"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="112"/>
       <c r="J75" s="45"/>
     </row>
     <row r="76" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="109" t="s">
         <v>512</v>
       </c>
-      <c r="C76" s="96">
+      <c r="C76" s="97">
         <v>169</v>
       </c>
-      <c r="D76" s="117" t="s">
+      <c r="D76" s="110" t="s">
         <v>667</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>672</v>
       </c>
       <c r="F76" s="33"/>
-      <c r="G76" s="96" t="s">
+      <c r="G76" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="102" t="s">
+      <c r="H76" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I76" s="115" t="s">
+      <c r="I76" s="112" t="s">
         <v>104</v>
       </c>
       <c r="J76" s="45"/>
     </row>
     <row r="77" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="116"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="110"/>
       <c r="E77" s="33" t="s">
         <v>680</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="G77" s="97"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="115"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="112"/>
       <c r="J77" s="45"/>
     </row>
     <row r="78" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="116"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="117"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="110"/>
       <c r="E78" s="33" t="s">
         <v>647</v>
       </c>
       <c r="F78" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="G78" s="97"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="115"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="112"/>
       <c r="J78" s="45"/>
     </row>
     <row r="79" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="116"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="117"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="110"/>
       <c r="E79" s="33" t="s">
         <v>648</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="G79" s="97"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="115"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="112"/>
       <c r="J79" s="45"/>
     </row>
     <row r="80" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="116"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="117"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="33" t="s">
         <v>649</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G80" s="97"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="115"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="112"/>
       <c r="J80" s="45"/>
     </row>
     <row r="81" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="116"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="117"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="110"/>
       <c r="E81" s="33" t="s">
         <v>650</v>
       </c>
       <c r="F81" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G81" s="97"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="115"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="112"/>
       <c r="J81" s="45"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -9655,12 +9627,12 @@
       <c r="J86" s="45"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="119" t="s">
         <v>550</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
@@ -9792,12 +9764,12 @@
       <c r="J92" s="45"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="119" t="s">
         <v>568</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="119"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
@@ -9848,12 +9820,12 @@
       <c r="J95" s="45"/>
     </row>
     <row r="96" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="119" t="s">
         <v>571</v>
       </c>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="119"/>
+      <c r="E96" s="119"/>
       <c r="F96" s="61"/>
       <c r="G96" s="61"/>
       <c r="H96" s="61"/>
@@ -9904,12 +9876,12 @@
       <c r="J98" s="45"/>
     </row>
     <row r="99" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="120" t="s">
         <v>573</v>
       </c>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
       <c r="F99" s="61"/>
       <c r="G99" s="61"/>
       <c r="H99" s="61"/>
@@ -9933,102 +9905,102 @@
       <c r="J100" s="44"/>
     </row>
     <row r="101" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B101" s="93" t="s">
+      <c r="B101" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="99" t="s">
+      <c r="C101" s="97"/>
+      <c r="D101" s="103" t="s">
         <v>699</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>698</v>
       </c>
       <c r="F101" s="45"/>
-      <c r="G101" s="96" t="s">
+      <c r="G101" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H101" s="102" t="s">
+      <c r="H101" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I101" s="105" t="s">
+      <c r="I101" s="94" t="s">
         <v>16</v>
       </c>
       <c r="J101" s="45"/>
     </row>
     <row r="102" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B102" s="94"/>
-      <c r="C102" s="97"/>
-      <c r="D102" s="100"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="104"/>
       <c r="E102" s="33" t="s">
         <v>703</v>
       </c>
       <c r="F102" s="45"/>
-      <c r="G102" s="97"/>
-      <c r="H102" s="103"/>
-      <c r="I102" s="106"/>
+      <c r="G102" s="98"/>
+      <c r="H102" s="101"/>
+      <c r="I102" s="95"/>
       <c r="J102" s="45"/>
     </row>
     <row r="103" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="94"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="100"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="104"/>
       <c r="E103" s="33" t="s">
         <v>701</v>
       </c>
       <c r="F103" s="45"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="103"/>
-      <c r="I103" s="106"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="101"/>
+      <c r="I103" s="95"/>
       <c r="J103" s="45"/>
     </row>
     <row r="104" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="94"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="100"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="104"/>
       <c r="E104" s="33" t="s">
         <v>702</v>
       </c>
       <c r="F104" s="45"/>
-      <c r="G104" s="97"/>
-      <c r="H104" s="103"/>
-      <c r="I104" s="106"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="95"/>
       <c r="J104" s="45"/>
     </row>
     <row r="105" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B105" s="94"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="100"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="104"/>
       <c r="E105" s="33" t="s">
         <v>704</v>
       </c>
       <c r="F105" s="45"/>
-      <c r="G105" s="97"/>
-      <c r="H105" s="103"/>
-      <c r="I105" s="106"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="95"/>
       <c r="J105" s="45"/>
     </row>
     <row r="106" spans="2:10" ht="37.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B106" s="95"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="101"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="105"/>
       <c r="E106" s="33" t="s">
         <v>705</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="G106" s="98"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="107"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="96"/>
       <c r="J106" s="45"/>
     </row>
     <row r="107" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="92" t="s">
+      <c r="B107" s="119" t="s">
         <v>576</v>
       </c>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="119"/>
       <c r="F107" s="61"/>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
@@ -10052,93 +10024,93 @@
       <c r="J108" s="44"/>
     </row>
     <row r="109" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="96" t="s">
+      <c r="B109" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="99" t="s">
+      <c r="C109" s="97"/>
+      <c r="D109" s="103" t="s">
         <v>707</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>698</v>
       </c>
       <c r="F109" s="33"/>
-      <c r="G109" s="96" t="s">
+      <c r="G109" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H109" s="102" t="s">
+      <c r="H109" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I109" s="105" t="s">
+      <c r="I109" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J109" s="45"/>
     </row>
     <row r="110" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="97"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="100"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="104"/>
       <c r="E110" s="33" t="s">
         <v>703</v>
       </c>
       <c r="F110" s="33"/>
-      <c r="G110" s="97"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="106"/>
+      <c r="G110" s="98"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="95"/>
       <c r="J110" s="45"/>
     </row>
     <row r="111" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="97"/>
-      <c r="C111" s="97"/>
-      <c r="D111" s="100"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="104"/>
       <c r="E111" s="33" t="s">
         <v>710</v>
       </c>
       <c r="F111" s="33"/>
-      <c r="G111" s="97"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="106"/>
+      <c r="G111" s="98"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="95"/>
       <c r="J111" s="45"/>
     </row>
     <row r="112" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="97"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="100"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="104"/>
       <c r="E112" s="33" t="s">
         <v>702</v>
       </c>
       <c r="F112" s="33"/>
-      <c r="G112" s="97"/>
-      <c r="H112" s="103"/>
-      <c r="I112" s="106"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="95"/>
       <c r="J112" s="45"/>
     </row>
     <row r="113" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B113" s="97"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="100"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="104"/>
       <c r="E113" s="33" t="s">
         <v>711</v>
       </c>
       <c r="F113" s="33"/>
-      <c r="G113" s="97"/>
-      <c r="H113" s="103"/>
-      <c r="I113" s="106"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="101"/>
+      <c r="I113" s="95"/>
       <c r="J113" s="45"/>
     </row>
     <row r="114" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B114" s="98"/>
-      <c r="C114" s="98"/>
-      <c r="D114" s="101"/>
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="105"/>
       <c r="E114" s="33" t="s">
         <v>712</v>
       </c>
       <c r="F114" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="G114" s="98"/>
-      <c r="H114" s="104"/>
-      <c r="I114" s="107"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="102"/>
+      <c r="I114" s="96"/>
       <c r="J114" s="45"/>
     </row>
     <row r="115" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -10158,93 +10130,93 @@
       <c r="J115" s="44"/>
     </row>
     <row r="116" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="99" t="s">
+      <c r="C116" s="97"/>
+      <c r="D116" s="103" t="s">
         <v>708</v>
       </c>
       <c r="E116" s="33" t="s">
         <v>698</v>
       </c>
       <c r="F116" s="33"/>
-      <c r="G116" s="96" t="s">
+      <c r="G116" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H116" s="102" t="s">
+      <c r="H116" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I116" s="105" t="s">
+      <c r="I116" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J116" s="45"/>
     </row>
     <row r="117" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="97"/>
-      <c r="C117" s="97"/>
-      <c r="D117" s="100"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="104"/>
       <c r="E117" s="33" t="s">
         <v>703</v>
       </c>
       <c r="F117" s="33"/>
-      <c r="G117" s="97"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="106"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="101"/>
+      <c r="I117" s="95"/>
       <c r="J117" s="45"/>
     </row>
     <row r="118" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="97"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="100"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="104"/>
       <c r="E118" s="33" t="s">
         <v>713</v>
       </c>
       <c r="F118" s="33"/>
-      <c r="G118" s="97"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="106"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="101"/>
+      <c r="I118" s="95"/>
       <c r="J118" s="45"/>
     </row>
     <row r="119" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="97"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="100"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="104"/>
       <c r="E119" s="33" t="s">
         <v>702</v>
       </c>
       <c r="F119" s="33"/>
-      <c r="G119" s="97"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="106"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="101"/>
+      <c r="I119" s="95"/>
       <c r="J119" s="45"/>
     </row>
     <row r="120" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="97"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="100"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="104"/>
       <c r="E120" s="33" t="s">
         <v>711</v>
       </c>
       <c r="F120" s="33"/>
-      <c r="G120" s="97"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="106"/>
+      <c r="G120" s="98"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="95"/>
       <c r="J120" s="45"/>
     </row>
     <row r="121" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="98"/>
-      <c r="C121" s="98"/>
-      <c r="D121" s="101"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="105"/>
       <c r="E121" s="33" t="s">
         <v>712</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="G121" s="98"/>
-      <c r="H121" s="104"/>
-      <c r="I121" s="107"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="96"/>
       <c r="J121" s="45"/>
     </row>
     <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -10264,102 +10236,102 @@
       <c r="J122" s="44"/>
     </row>
     <row r="123" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="96" t="s">
+      <c r="B123" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="C123" s="96"/>
-      <c r="D123" s="99" t="s">
+      <c r="C123" s="97"/>
+      <c r="D123" s="103" t="s">
         <v>709</v>
       </c>
       <c r="E123" s="33" t="s">
         <v>698</v>
       </c>
       <c r="F123" s="33"/>
-      <c r="G123" s="96" t="s">
+      <c r="G123" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H123" s="102" t="s">
+      <c r="H123" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I123" s="105" t="s">
+      <c r="I123" s="94" t="s">
         <v>456</v>
       </c>
       <c r="J123" s="45"/>
     </row>
     <row r="124" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="100"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="104"/>
       <c r="E124" s="33" t="s">
         <v>715</v>
       </c>
       <c r="F124" s="33"/>
-      <c r="G124" s="97"/>
-      <c r="H124" s="103"/>
-      <c r="I124" s="106"/>
+      <c r="G124" s="98"/>
+      <c r="H124" s="101"/>
+      <c r="I124" s="95"/>
       <c r="J124" s="45"/>
     </row>
     <row r="125" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="100"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="104"/>
       <c r="E125" s="33" t="s">
         <v>713</v>
       </c>
       <c r="F125" s="33"/>
-      <c r="G125" s="97"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="106"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="95"/>
       <c r="J125" s="45"/>
     </row>
     <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B126" s="97"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="100"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="104"/>
       <c r="E126" s="33" t="s">
         <v>702</v>
       </c>
       <c r="F126" s="33"/>
-      <c r="G126" s="97"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="106"/>
+      <c r="G126" s="98"/>
+      <c r="H126" s="101"/>
+      <c r="I126" s="95"/>
       <c r="J126" s="45"/>
     </row>
     <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B127" s="97"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="100"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="104"/>
       <c r="E127" s="33" t="s">
         <v>711</v>
       </c>
       <c r="F127" s="33"/>
-      <c r="G127" s="97"/>
-      <c r="H127" s="103"/>
-      <c r="I127" s="106"/>
+      <c r="G127" s="98"/>
+      <c r="H127" s="101"/>
+      <c r="I127" s="95"/>
       <c r="J127" s="45"/>
     </row>
     <row r="128" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="98"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="101"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="105"/>
       <c r="E128" s="33" t="s">
         <v>712</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="G128" s="98"/>
-      <c r="H128" s="104"/>
-      <c r="I128" s="107"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="102"/>
+      <c r="I128" s="96"/>
       <c r="J128" s="45"/>
     </row>
     <row r="129" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="92" t="s">
+      <c r="B129" s="119" t="s">
         <v>793</v>
       </c>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="92"/>
+      <c r="C129" s="119"/>
+      <c r="D129" s="119"/>
+      <c r="E129" s="119"/>
       <c r="F129" s="61"/>
       <c r="G129" s="61"/>
       <c r="H129" s="61"/>
@@ -10383,104 +10355,104 @@
       <c r="J130" s="44"/>
     </row>
     <row r="131" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="96" t="s">
+      <c r="B131" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="96">
+      <c r="C131" s="97">
         <v>176</v>
       </c>
-      <c r="D131" s="99" t="s">
+      <c r="D131" s="103" t="s">
         <v>718</v>
       </c>
       <c r="E131" s="33" t="s">
         <v>698</v>
       </c>
       <c r="F131" s="33"/>
-      <c r="G131" s="96" t="s">
+      <c r="G131" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H131" s="102" t="s">
+      <c r="H131" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I131" s="105" t="s">
+      <c r="I131" s="94" t="s">
         <v>136</v>
       </c>
       <c r="J131" s="45"/>
     </row>
     <row r="132" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="97"/>
-      <c r="C132" s="97"/>
-      <c r="D132" s="100"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="104"/>
       <c r="E132" s="33" t="s">
         <v>715</v>
       </c>
       <c r="F132" s="33"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="106"/>
+      <c r="G132" s="98"/>
+      <c r="H132" s="101"/>
+      <c r="I132" s="95"/>
       <c r="J132" s="45"/>
     </row>
     <row r="133" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="97"/>
-      <c r="C133" s="97"/>
-      <c r="D133" s="100"/>
+      <c r="B133" s="98"/>
+      <c r="C133" s="98"/>
+      <c r="D133" s="104"/>
       <c r="E133" s="33" t="s">
         <v>710</v>
       </c>
       <c r="F133" s="33"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="103"/>
-      <c r="I133" s="106"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="101"/>
+      <c r="I133" s="95"/>
       <c r="J133" s="45"/>
     </row>
     <row r="134" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="97"/>
-      <c r="C134" s="97"/>
-      <c r="D134" s="100"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="98"/>
+      <c r="D134" s="104"/>
       <c r="E134" s="33" t="s">
         <v>702</v>
       </c>
       <c r="F134" s="33"/>
-      <c r="G134" s="97"/>
-      <c r="H134" s="103"/>
-      <c r="I134" s="106"/>
+      <c r="G134" s="98"/>
+      <c r="H134" s="101"/>
+      <c r="I134" s="95"/>
       <c r="J134" s="45"/>
     </row>
     <row r="135" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="97"/>
-      <c r="C135" s="97"/>
-      <c r="D135" s="100"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="104"/>
       <c r="E135" s="33" t="s">
         <v>716</v>
       </c>
       <c r="F135" s="33"/>
-      <c r="G135" s="97"/>
-      <c r="H135" s="103"/>
-      <c r="I135" s="106"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="101"/>
+      <c r="I135" s="95"/>
       <c r="J135" s="45"/>
     </row>
     <row r="136" spans="2:10" ht="50.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="98"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="101"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="105"/>
       <c r="E136" s="33" t="s">
         <v>717</v>
       </c>
       <c r="F136" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G136" s="98"/>
-      <c r="H136" s="104"/>
-      <c r="I136" s="107"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="102"/>
+      <c r="I136" s="96"/>
       <c r="J136" s="45"/>
     </row>
     <row r="137" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B137" s="92" t="s">
+      <c r="B137" s="119" t="s">
         <v>583</v>
       </c>
-      <c r="C137" s="92"/>
-      <c r="D137" s="92"/>
-      <c r="E137" s="92"/>
+      <c r="C137" s="119"/>
+      <c r="D137" s="119"/>
+      <c r="E137" s="119"/>
       <c r="F137" s="61"/>
       <c r="G137" s="61"/>
       <c r="H137" s="61"/>
@@ -10615,11 +10587,11 @@
       <c r="B143" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="119" t="str">
+      <c r="C143" s="92" t="str">
         <f>'Test Objectives'!B37</f>
         <v>Pagination</v>
       </c>
-      <c r="D143" s="120"/>
+      <c r="D143" s="93"/>
       <c r="E143" s="44"/>
       <c r="F143" s="44"/>
       <c r="G143" s="44"/>
@@ -10628,464 +10600,464 @@
       <c r="J143" s="44"/>
     </row>
     <row r="144" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B144" s="93" t="s">
+      <c r="B144" s="106" t="s">
         <v>455</v>
       </c>
-      <c r="C144" s="96">
+      <c r="C144" s="97">
         <v>185</v>
       </c>
-      <c r="D144" s="99" t="s">
+      <c r="D144" s="103" t="s">
         <v>740</v>
       </c>
       <c r="E144" s="33" t="s">
         <v>728</v>
       </c>
       <c r="F144" s="45"/>
-      <c r="G144" s="96" t="s">
+      <c r="G144" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="102" t="s">
+      <c r="H144" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I144" s="105" t="s">
+      <c r="I144" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J144" s="45"/>
     </row>
     <row r="145" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B145" s="94"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="100"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="104"/>
       <c r="E145" s="33" t="s">
         <v>641</v>
       </c>
       <c r="F145" s="45"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="103"/>
-      <c r="I145" s="106"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="101"/>
+      <c r="I145" s="95"/>
       <c r="J145" s="45"/>
     </row>
     <row r="146" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="94"/>
-      <c r="C146" s="97"/>
-      <c r="D146" s="100"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="98"/>
+      <c r="D146" s="104"/>
       <c r="E146" s="33" t="s">
         <v>710</v>
       </c>
       <c r="F146" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="G146" s="97"/>
-      <c r="H146" s="103"/>
-      <c r="I146" s="106"/>
+      <c r="G146" s="98"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="95"/>
       <c r="J146" s="45"/>
     </row>
     <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="94"/>
-      <c r="C147" s="97"/>
-      <c r="D147" s="100"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="98"/>
+      <c r="D147" s="104"/>
       <c r="E147" s="33" t="s">
         <v>651</v>
       </c>
       <c r="F147" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="G147" s="97"/>
-      <c r="H147" s="103"/>
-      <c r="I147" s="106"/>
+      <c r="G147" s="98"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="95"/>
       <c r="J147" s="45"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B148" s="94"/>
-      <c r="C148" s="97"/>
-      <c r="D148" s="100"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="104"/>
       <c r="E148" s="33" t="s">
         <v>652</v>
       </c>
       <c r="F148" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="G148" s="97"/>
-      <c r="H148" s="103"/>
-      <c r="I148" s="106"/>
+      <c r="G148" s="98"/>
+      <c r="H148" s="101"/>
+      <c r="I148" s="95"/>
       <c r="J148" s="45"/>
     </row>
     <row r="149" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B149" s="94"/>
-      <c r="C149" s="97"/>
-      <c r="D149" s="100"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="104"/>
       <c r="E149" s="33" t="s">
         <v>653</v>
       </c>
       <c r="F149" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="G149" s="97"/>
-      <c r="H149" s="103"/>
-      <c r="I149" s="106"/>
+      <c r="G149" s="98"/>
+      <c r="H149" s="101"/>
+      <c r="I149" s="95"/>
       <c r="J149" s="45"/>
     </row>
     <row r="150" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B150" s="95"/>
-      <c r="C150" s="98"/>
-      <c r="D150" s="101"/>
+      <c r="B150" s="108"/>
+      <c r="C150" s="99"/>
+      <c r="D150" s="105"/>
       <c r="E150" s="33" t="s">
         <v>654</v>
       </c>
       <c r="F150" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="G150" s="98"/>
-      <c r="H150" s="104"/>
-      <c r="I150" s="107"/>
+      <c r="G150" s="99"/>
+      <c r="H150" s="102"/>
+      <c r="I150" s="96"/>
       <c r="J150" s="45"/>
     </row>
     <row r="151" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B151" s="93" t="s">
+      <c r="B151" s="106" t="s">
         <v>487</v>
       </c>
-      <c r="C151" s="96">
+      <c r="C151" s="97">
         <v>186</v>
       </c>
-      <c r="D151" s="99" t="s">
+      <c r="D151" s="103" t="s">
         <v>740</v>
       </c>
       <c r="E151" s="33" t="s">
         <v>729</v>
       </c>
       <c r="F151" s="45"/>
-      <c r="G151" s="96" t="s">
+      <c r="G151" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H151" s="102" t="s">
+      <c r="H151" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I151" s="105" t="s">
+      <c r="I151" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J151" s="45"/>
     </row>
     <row r="152" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B152" s="94"/>
-      <c r="C152" s="97"/>
-      <c r="D152" s="100"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="104"/>
       <c r="E152" s="33" t="s">
         <v>641</v>
       </c>
       <c r="F152" s="45"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="103"/>
-      <c r="I152" s="106"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="101"/>
+      <c r="I152" s="95"/>
       <c r="J152" s="45"/>
     </row>
     <row r="153" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B153" s="94"/>
-      <c r="C153" s="97"/>
-      <c r="D153" s="100"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="104"/>
       <c r="E153" s="33" t="s">
         <v>713</v>
       </c>
       <c r="F153" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="G153" s="97"/>
-      <c r="H153" s="103"/>
-      <c r="I153" s="106"/>
+      <c r="G153" s="98"/>
+      <c r="H153" s="101"/>
+      <c r="I153" s="95"/>
       <c r="J153" s="45"/>
     </row>
     <row r="154" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B154" s="94"/>
-      <c r="C154" s="97"/>
-      <c r="D154" s="100"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="104"/>
       <c r="E154" s="33" t="s">
         <v>651</v>
       </c>
       <c r="F154" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="G154" s="97"/>
-      <c r="H154" s="103"/>
-      <c r="I154" s="106"/>
+      <c r="G154" s="98"/>
+      <c r="H154" s="101"/>
+      <c r="I154" s="95"/>
       <c r="J154" s="45"/>
     </row>
     <row r="155" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="94"/>
-      <c r="C155" s="97"/>
-      <c r="D155" s="100"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="104"/>
       <c r="E155" s="33" t="s">
         <v>652</v>
       </c>
       <c r="F155" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="G155" s="97"/>
-      <c r="H155" s="103"/>
-      <c r="I155" s="106"/>
+      <c r="G155" s="98"/>
+      <c r="H155" s="101"/>
+      <c r="I155" s="95"/>
       <c r="J155" s="45"/>
     </row>
     <row r="156" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="94"/>
-      <c r="C156" s="97"/>
-      <c r="D156" s="100"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="98"/>
+      <c r="D156" s="104"/>
       <c r="E156" s="33" t="s">
         <v>653</v>
       </c>
       <c r="F156" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="G156" s="97"/>
-      <c r="H156" s="103"/>
-      <c r="I156" s="106"/>
+      <c r="G156" s="98"/>
+      <c r="H156" s="101"/>
+      <c r="I156" s="95"/>
       <c r="J156" s="45"/>
     </row>
     <row r="157" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B157" s="95"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="101"/>
+      <c r="B157" s="108"/>
+      <c r="C157" s="99"/>
+      <c r="D157" s="105"/>
       <c r="E157" s="33" t="s">
         <v>654</v>
       </c>
       <c r="F157" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="G157" s="98"/>
-      <c r="H157" s="104"/>
-      <c r="I157" s="107"/>
+      <c r="G157" s="99"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="96"/>
       <c r="J157" s="45"/>
     </row>
     <row r="158" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B158" s="93" t="s">
+      <c r="B158" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="C158" s="96">
+      <c r="C158" s="97">
         <v>187</v>
       </c>
-      <c r="D158" s="99" t="s">
+      <c r="D158" s="103" t="s">
         <v>740</v>
       </c>
       <c r="E158" s="33" t="s">
         <v>730</v>
       </c>
       <c r="F158" s="45"/>
-      <c r="G158" s="96" t="s">
+      <c r="G158" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H158" s="102" t="s">
+      <c r="H158" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I158" s="105" t="s">
+      <c r="I158" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J158" s="45"/>
     </row>
     <row r="159" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B159" s="94"/>
-      <c r="C159" s="97"/>
-      <c r="D159" s="100"/>
+      <c r="B159" s="107"/>
+      <c r="C159" s="98"/>
+      <c r="D159" s="104"/>
       <c r="E159" s="33" t="s">
         <v>641</v>
       </c>
       <c r="F159" s="45"/>
-      <c r="G159" s="97"/>
-      <c r="H159" s="103"/>
-      <c r="I159" s="106"/>
+      <c r="G159" s="98"/>
+      <c r="H159" s="101"/>
+      <c r="I159" s="95"/>
       <c r="J159" s="45"/>
     </row>
     <row r="160" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="94"/>
-      <c r="C160" s="97"/>
-      <c r="D160" s="100"/>
+      <c r="B160" s="107"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="104"/>
       <c r="E160" s="33" t="s">
         <v>738</v>
       </c>
       <c r="F160" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="G160" s="97"/>
-      <c r="H160" s="103"/>
-      <c r="I160" s="106"/>
+      <c r="G160" s="98"/>
+      <c r="H160" s="101"/>
+      <c r="I160" s="95"/>
       <c r="J160" s="45"/>
     </row>
     <row r="161" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="94"/>
-      <c r="C161" s="97"/>
-      <c r="D161" s="100"/>
+      <c r="B161" s="107"/>
+      <c r="C161" s="98"/>
+      <c r="D161" s="104"/>
       <c r="E161" s="33" t="s">
         <v>651</v>
       </c>
       <c r="F161" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="G161" s="97"/>
-      <c r="H161" s="103"/>
-      <c r="I161" s="106"/>
+      <c r="G161" s="98"/>
+      <c r="H161" s="101"/>
+      <c r="I161" s="95"/>
       <c r="J161" s="45"/>
     </row>
     <row r="162" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B162" s="94"/>
-      <c r="C162" s="97"/>
-      <c r="D162" s="100"/>
+      <c r="B162" s="107"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="104"/>
       <c r="E162" s="33" t="s">
         <v>652</v>
       </c>
       <c r="F162" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="G162" s="97"/>
-      <c r="H162" s="103"/>
-      <c r="I162" s="106"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="101"/>
+      <c r="I162" s="95"/>
       <c r="J162" s="45"/>
     </row>
     <row r="163" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="94"/>
-      <c r="C163" s="97"/>
-      <c r="D163" s="100"/>
+      <c r="B163" s="107"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="104"/>
       <c r="E163" s="33" t="s">
         <v>653</v>
       </c>
       <c r="F163" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="G163" s="97"/>
-      <c r="H163" s="103"/>
-      <c r="I163" s="106"/>
+      <c r="G163" s="98"/>
+      <c r="H163" s="101"/>
+      <c r="I163" s="95"/>
       <c r="J163" s="45"/>
     </row>
     <row r="164" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="95"/>
-      <c r="C164" s="98"/>
-      <c r="D164" s="101"/>
+      <c r="B164" s="108"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="105"/>
       <c r="E164" s="33" t="s">
         <v>654</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="G164" s="98"/>
-      <c r="H164" s="104"/>
-      <c r="I164" s="107"/>
+      <c r="G164" s="99"/>
+      <c r="H164" s="102"/>
+      <c r="I164" s="96"/>
       <c r="J164" s="45"/>
     </row>
     <row r="165" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B165" s="93" t="s">
+      <c r="B165" s="106" t="s">
         <v>489</v>
       </c>
-      <c r="C165" s="96">
+      <c r="C165" s="97">
         <v>188</v>
       </c>
-      <c r="D165" s="99" t="s">
+      <c r="D165" s="103" t="s">
         <v>740</v>
       </c>
       <c r="E165" s="33" t="s">
         <v>731</v>
       </c>
       <c r="F165" s="45"/>
-      <c r="G165" s="96" t="s">
+      <c r="G165" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H165" s="102" t="s">
+      <c r="H165" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I165" s="105" t="s">
+      <c r="I165" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J165" s="45"/>
     </row>
     <row r="166" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B166" s="94"/>
-      <c r="C166" s="97"/>
-      <c r="D166" s="100"/>
+      <c r="B166" s="107"/>
+      <c r="C166" s="98"/>
+      <c r="D166" s="104"/>
       <c r="E166" s="33" t="s">
         <v>641</v>
       </c>
       <c r="F166" s="45"/>
-      <c r="G166" s="97"/>
-      <c r="H166" s="103"/>
-      <c r="I166" s="106"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="101"/>
+      <c r="I166" s="95"/>
       <c r="J166" s="45"/>
     </row>
     <row r="167" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="94"/>
-      <c r="C167" s="97"/>
-      <c r="D167" s="100"/>
+      <c r="B167" s="107"/>
+      <c r="C167" s="98"/>
+      <c r="D167" s="104"/>
       <c r="E167" s="33" t="s">
         <v>739</v>
       </c>
       <c r="F167" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="G167" s="97"/>
-      <c r="H167" s="103"/>
-      <c r="I167" s="106"/>
+      <c r="G167" s="98"/>
+      <c r="H167" s="101"/>
+      <c r="I167" s="95"/>
       <c r="J167" s="45"/>
     </row>
     <row r="168" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B168" s="94"/>
-      <c r="C168" s="97"/>
-      <c r="D168" s="100"/>
+      <c r="B168" s="107"/>
+      <c r="C168" s="98"/>
+      <c r="D168" s="104"/>
       <c r="E168" s="33" t="s">
         <v>651</v>
       </c>
       <c r="F168" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="G168" s="97"/>
-      <c r="H168" s="103"/>
-      <c r="I168" s="106"/>
+      <c r="G168" s="98"/>
+      <c r="H168" s="101"/>
+      <c r="I168" s="95"/>
       <c r="J168" s="45"/>
     </row>
     <row r="169" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="94"/>
-      <c r="C169" s="97"/>
-      <c r="D169" s="100"/>
+      <c r="B169" s="107"/>
+      <c r="C169" s="98"/>
+      <c r="D169" s="104"/>
       <c r="E169" s="33" t="s">
         <v>652</v>
       </c>
       <c r="F169" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="G169" s="97"/>
-      <c r="H169" s="103"/>
-      <c r="I169" s="106"/>
+      <c r="G169" s="98"/>
+      <c r="H169" s="101"/>
+      <c r="I169" s="95"/>
       <c r="J169" s="45"/>
     </row>
     <row r="170" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="94"/>
-      <c r="C170" s="97"/>
-      <c r="D170" s="100"/>
+      <c r="B170" s="107"/>
+      <c r="C170" s="98"/>
+      <c r="D170" s="104"/>
       <c r="E170" s="33" t="s">
         <v>653</v>
       </c>
       <c r="F170" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="G170" s="97"/>
-      <c r="H170" s="103"/>
-      <c r="I170" s="106"/>
+      <c r="G170" s="98"/>
+      <c r="H170" s="101"/>
+      <c r="I170" s="95"/>
       <c r="J170" s="45"/>
     </row>
     <row r="171" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B171" s="95"/>
-      <c r="C171" s="98"/>
-      <c r="D171" s="101"/>
+      <c r="B171" s="108"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="105"/>
       <c r="E171" s="33" t="s">
         <v>654</v>
       </c>
       <c r="F171" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="G171" s="98"/>
-      <c r="H171" s="104"/>
-      <c r="I171" s="107"/>
+      <c r="G171" s="99"/>
+      <c r="H171" s="102"/>
+      <c r="I171" s="96"/>
       <c r="J171" s="45"/>
     </row>
     <row r="172" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="92" t="s">
+      <c r="B172" s="119" t="s">
         <v>588</v>
       </c>
-      <c r="C172" s="92"/>
-      <c r="D172" s="92"/>
-      <c r="E172" s="92"/>
+      <c r="C172" s="119"/>
+      <c r="D172" s="119"/>
+      <c r="E172" s="119"/>
       <c r="F172" s="61"/>
       <c r="G172" s="61"/>
       <c r="H172" s="61"/>
@@ -11109,99 +11081,99 @@
       <c r="J173" s="44"/>
     </row>
     <row r="174" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B174" s="93" t="s">
+      <c r="B174" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="C174" s="96">
+      <c r="C174" s="97">
         <v>189</v>
       </c>
-      <c r="D174" s="99" t="s">
+      <c r="D174" s="103" t="s">
         <v>759</v>
       </c>
       <c r="E174" s="33" t="s">
         <v>743</v>
       </c>
       <c r="F174" s="45"/>
-      <c r="G174" s="96" t="s">
+      <c r="G174" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H174" s="102" t="s">
+      <c r="H174" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I174" s="105" t="s">
+      <c r="I174" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J174" s="45"/>
     </row>
     <row r="175" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="94"/>
-      <c r="C175" s="97"/>
-      <c r="D175" s="100"/>
+      <c r="B175" s="107"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="104"/>
       <c r="E175" s="45" t="s">
         <v>749</v>
       </c>
       <c r="F175" s="45"/>
-      <c r="G175" s="97"/>
-      <c r="H175" s="103"/>
-      <c r="I175" s="106"/>
+      <c r="G175" s="98"/>
+      <c r="H175" s="101"/>
+      <c r="I175" s="95"/>
       <c r="J175" s="45"/>
     </row>
     <row r="176" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="94"/>
-      <c r="C176" s="97"/>
-      <c r="D176" s="100"/>
+      <c r="B176" s="107"/>
+      <c r="C176" s="98"/>
+      <c r="D176" s="104"/>
       <c r="E176" s="45" t="s">
         <v>744</v>
       </c>
       <c r="F176" s="45"/>
-      <c r="G176" s="97"/>
-      <c r="H176" s="103"/>
-      <c r="I176" s="106"/>
+      <c r="G176" s="98"/>
+      <c r="H176" s="101"/>
+      <c r="I176" s="95"/>
       <c r="J176" s="45"/>
     </row>
     <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="94"/>
-      <c r="C177" s="97"/>
-      <c r="D177" s="100"/>
+      <c r="B177" s="107"/>
+      <c r="C177" s="98"/>
+      <c r="D177" s="104"/>
       <c r="E177" s="45" t="s">
         <v>746</v>
       </c>
       <c r="F177" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G177" s="97"/>
-      <c r="H177" s="103"/>
-      <c r="I177" s="106"/>
+      <c r="G177" s="98"/>
+      <c r="H177" s="101"/>
+      <c r="I177" s="95"/>
       <c r="J177" s="45"/>
     </row>
     <row r="178" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B178" s="94"/>
-      <c r="C178" s="97"/>
-      <c r="D178" s="100"/>
+      <c r="B178" s="107"/>
+      <c r="C178" s="98"/>
+      <c r="D178" s="104"/>
       <c r="E178" s="33" t="s">
         <v>747</v>
       </c>
       <c r="F178" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G178" s="97"/>
-      <c r="H178" s="103"/>
-      <c r="I178" s="106"/>
+      <c r="G178" s="98"/>
+      <c r="H178" s="101"/>
+      <c r="I178" s="95"/>
       <c r="J178" s="45"/>
     </row>
     <row r="179" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B179" s="95"/>
-      <c r="C179" s="98"/>
-      <c r="D179" s="101"/>
+      <c r="B179" s="108"/>
+      <c r="C179" s="99"/>
+      <c r="D179" s="105"/>
       <c r="E179" s="45" t="s">
         <v>745</v>
       </c>
       <c r="F179" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G179" s="98"/>
-      <c r="H179" s="104"/>
-      <c r="I179" s="107"/>
+      <c r="G179" s="99"/>
+      <c r="H179" s="102"/>
+      <c r="I179" s="96"/>
       <c r="J179" s="45"/>
     </row>
     <row r="180" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11221,99 +11193,99 @@
       <c r="J180" s="44"/>
     </row>
     <row r="181" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B181" s="93" t="s">
+      <c r="B181" s="106" t="s">
         <v>517</v>
       </c>
-      <c r="C181" s="96">
+      <c r="C181" s="97">
         <v>190</v>
       </c>
-      <c r="D181" s="99" t="s">
+      <c r="D181" s="103" t="s">
         <v>760</v>
       </c>
       <c r="E181" s="33" t="s">
         <v>743</v>
       </c>
       <c r="F181" s="45"/>
-      <c r="G181" s="96" t="s">
+      <c r="G181" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H181" s="102" t="s">
+      <c r="H181" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I181" s="105" t="s">
+      <c r="I181" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J181" s="45"/>
     </row>
     <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="94"/>
-      <c r="C182" s="97"/>
-      <c r="D182" s="100"/>
+      <c r="B182" s="107"/>
+      <c r="C182" s="98"/>
+      <c r="D182" s="104"/>
       <c r="E182" s="45" t="s">
         <v>750</v>
       </c>
       <c r="F182" s="45"/>
-      <c r="G182" s="97"/>
-      <c r="H182" s="103"/>
-      <c r="I182" s="106"/>
+      <c r="G182" s="98"/>
+      <c r="H182" s="101"/>
+      <c r="I182" s="95"/>
       <c r="J182" s="45"/>
     </row>
     <row r="183" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B183" s="94"/>
-      <c r="C183" s="97"/>
-      <c r="D183" s="100"/>
+      <c r="B183" s="107"/>
+      <c r="C183" s="98"/>
+      <c r="D183" s="104"/>
       <c r="E183" s="45" t="s">
         <v>744</v>
       </c>
       <c r="F183" s="45"/>
-      <c r="G183" s="97"/>
-      <c r="H183" s="103"/>
-      <c r="I183" s="106"/>
+      <c r="G183" s="98"/>
+      <c r="H183" s="101"/>
+      <c r="I183" s="95"/>
       <c r="J183" s="45"/>
     </row>
     <row r="184" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B184" s="94"/>
-      <c r="C184" s="97"/>
-      <c r="D184" s="100"/>
+      <c r="B184" s="107"/>
+      <c r="C184" s="98"/>
+      <c r="D184" s="104"/>
       <c r="E184" s="45" t="s">
         <v>746</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G184" s="97"/>
-      <c r="H184" s="103"/>
-      <c r="I184" s="106"/>
+      <c r="G184" s="98"/>
+      <c r="H184" s="101"/>
+      <c r="I184" s="95"/>
       <c r="J184" s="45"/>
     </row>
     <row r="185" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B185" s="94"/>
-      <c r="C185" s="97"/>
-      <c r="D185" s="100"/>
+      <c r="B185" s="107"/>
+      <c r="C185" s="98"/>
+      <c r="D185" s="104"/>
       <c r="E185" s="33" t="s">
         <v>747</v>
       </c>
       <c r="F185" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G185" s="97"/>
-      <c r="H185" s="103"/>
-      <c r="I185" s="106"/>
+      <c r="G185" s="98"/>
+      <c r="H185" s="101"/>
+      <c r="I185" s="95"/>
       <c r="J185" s="45"/>
     </row>
     <row r="186" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B186" s="95"/>
-      <c r="C186" s="98"/>
-      <c r="D186" s="101"/>
+      <c r="B186" s="108"/>
+      <c r="C186" s="99"/>
+      <c r="D186" s="105"/>
       <c r="E186" s="45" t="s">
         <v>745</v>
       </c>
       <c r="F186" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G186" s="98"/>
-      <c r="H186" s="104"/>
-      <c r="I186" s="107"/>
+      <c r="G186" s="99"/>
+      <c r="H186" s="102"/>
+      <c r="I186" s="96"/>
       <c r="J186" s="45"/>
     </row>
     <row r="187" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11333,99 +11305,99 @@
       <c r="J187" s="44"/>
     </row>
     <row r="188" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="93" t="s">
+      <c r="B188" s="106" t="s">
         <v>518</v>
       </c>
-      <c r="C188" s="96">
+      <c r="C188" s="97">
         <v>191</v>
       </c>
-      <c r="D188" s="99" t="s">
+      <c r="D188" s="103" t="s">
         <v>761</v>
       </c>
       <c r="E188" s="33" t="s">
         <v>743</v>
       </c>
       <c r="F188" s="45"/>
-      <c r="G188" s="96" t="s">
+      <c r="G188" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H188" s="102" t="s">
+      <c r="H188" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I188" s="105" t="s">
+      <c r="I188" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J188" s="45"/>
     </row>
     <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="94"/>
-      <c r="C189" s="97"/>
-      <c r="D189" s="100"/>
+      <c r="B189" s="107"/>
+      <c r="C189" s="98"/>
+      <c r="D189" s="104"/>
       <c r="E189" s="45" t="s">
         <v>748</v>
       </c>
       <c r="F189" s="45"/>
-      <c r="G189" s="97"/>
-      <c r="H189" s="103"/>
-      <c r="I189" s="106"/>
+      <c r="G189" s="98"/>
+      <c r="H189" s="101"/>
+      <c r="I189" s="95"/>
       <c r="J189" s="45"/>
     </row>
     <row r="190" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="94"/>
-      <c r="C190" s="97"/>
-      <c r="D190" s="100"/>
+      <c r="B190" s="107"/>
+      <c r="C190" s="98"/>
+      <c r="D190" s="104"/>
       <c r="E190" s="45" t="s">
         <v>744</v>
       </c>
       <c r="F190" s="45"/>
-      <c r="G190" s="97"/>
-      <c r="H190" s="103"/>
-      <c r="I190" s="106"/>
+      <c r="G190" s="98"/>
+      <c r="H190" s="101"/>
+      <c r="I190" s="95"/>
       <c r="J190" s="45"/>
     </row>
     <row r="191" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B191" s="94"/>
-      <c r="C191" s="97"/>
-      <c r="D191" s="100"/>
+      <c r="B191" s="107"/>
+      <c r="C191" s="98"/>
+      <c r="D191" s="104"/>
       <c r="E191" s="45" t="s">
         <v>746</v>
       </c>
       <c r="F191" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G191" s="97"/>
-      <c r="H191" s="103"/>
-      <c r="I191" s="106"/>
+      <c r="G191" s="98"/>
+      <c r="H191" s="101"/>
+      <c r="I191" s="95"/>
       <c r="J191" s="45"/>
     </row>
     <row r="192" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="94"/>
-      <c r="C192" s="97"/>
-      <c r="D192" s="100"/>
+      <c r="B192" s="107"/>
+      <c r="C192" s="98"/>
+      <c r="D192" s="104"/>
       <c r="E192" s="33" t="s">
         <v>747</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G192" s="97"/>
-      <c r="H192" s="103"/>
-      <c r="I192" s="106"/>
+      <c r="G192" s="98"/>
+      <c r="H192" s="101"/>
+      <c r="I192" s="95"/>
       <c r="J192" s="45"/>
     </row>
     <row r="193" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="95"/>
-      <c r="C193" s="98"/>
-      <c r="D193" s="101"/>
+      <c r="B193" s="108"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="105"/>
       <c r="E193" s="45" t="s">
         <v>745</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G193" s="98"/>
-      <c r="H193" s="104"/>
-      <c r="I193" s="107"/>
+      <c r="G193" s="99"/>
+      <c r="H193" s="102"/>
+      <c r="I193" s="96"/>
       <c r="J193" s="45"/>
     </row>
     <row r="194" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11445,99 +11417,99 @@
       <c r="J194" s="44"/>
     </row>
     <row r="195" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="93" t="s">
+      <c r="B195" s="106" t="s">
         <v>519</v>
       </c>
-      <c r="C195" s="96">
+      <c r="C195" s="97">
         <v>192</v>
       </c>
-      <c r="D195" s="99" t="s">
+      <c r="D195" s="103" t="s">
         <v>762</v>
       </c>
       <c r="E195" s="33" t="s">
         <v>743</v>
       </c>
       <c r="F195" s="45"/>
-      <c r="G195" s="96" t="s">
+      <c r="G195" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H195" s="102" t="s">
+      <c r="H195" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I195" s="105" t="s">
+      <c r="I195" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J195" s="45"/>
     </row>
     <row r="196" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="94"/>
-      <c r="C196" s="97"/>
-      <c r="D196" s="100"/>
+      <c r="B196" s="107"/>
+      <c r="C196" s="98"/>
+      <c r="D196" s="104"/>
       <c r="E196" s="45" t="s">
         <v>680</v>
       </c>
       <c r="F196" s="45"/>
-      <c r="G196" s="97"/>
-      <c r="H196" s="103"/>
-      <c r="I196" s="106"/>
+      <c r="G196" s="98"/>
+      <c r="H196" s="101"/>
+      <c r="I196" s="95"/>
       <c r="J196" s="45"/>
     </row>
     <row r="197" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="94"/>
-      <c r="C197" s="97"/>
-      <c r="D197" s="100"/>
+      <c r="B197" s="107"/>
+      <c r="C197" s="98"/>
+      <c r="D197" s="104"/>
       <c r="E197" s="45" t="s">
         <v>744</v>
       </c>
       <c r="F197" s="45"/>
-      <c r="G197" s="97"/>
-      <c r="H197" s="103"/>
-      <c r="I197" s="106"/>
+      <c r="G197" s="98"/>
+      <c r="H197" s="101"/>
+      <c r="I197" s="95"/>
       <c r="J197" s="45"/>
     </row>
     <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="94"/>
-      <c r="C198" s="97"/>
-      <c r="D198" s="100"/>
+      <c r="B198" s="107"/>
+      <c r="C198" s="98"/>
+      <c r="D198" s="104"/>
       <c r="E198" s="45" t="s">
         <v>746</v>
       </c>
       <c r="F198" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G198" s="97"/>
-      <c r="H198" s="103"/>
-      <c r="I198" s="106"/>
+      <c r="G198" s="98"/>
+      <c r="H198" s="101"/>
+      <c r="I198" s="95"/>
       <c r="J198" s="45"/>
     </row>
     <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="94"/>
-      <c r="C199" s="97"/>
-      <c r="D199" s="100"/>
+      <c r="B199" s="107"/>
+      <c r="C199" s="98"/>
+      <c r="D199" s="104"/>
       <c r="E199" s="33" t="s">
         <v>747</v>
       </c>
       <c r="F199" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G199" s="97"/>
-      <c r="H199" s="103"/>
-      <c r="I199" s="106"/>
+      <c r="G199" s="98"/>
+      <c r="H199" s="101"/>
+      <c r="I199" s="95"/>
       <c r="J199" s="45"/>
     </row>
     <row r="200" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="94"/>
-      <c r="C200" s="97"/>
-      <c r="D200" s="101"/>
+      <c r="B200" s="107"/>
+      <c r="C200" s="98"/>
+      <c r="D200" s="105"/>
       <c r="E200" s="45" t="s">
         <v>745</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G200" s="97"/>
-      <c r="H200" s="103"/>
-      <c r="I200" s="107"/>
+      <c r="G200" s="98"/>
+      <c r="H200" s="101"/>
+      <c r="I200" s="96"/>
       <c r="J200" s="45"/>
     </row>
     <row r="201" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11557,112 +11529,112 @@
       <c r="J201" s="44"/>
     </row>
     <row r="202" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="93" t="s">
+      <c r="B202" s="106" t="s">
         <v>520</v>
       </c>
-      <c r="C202" s="96">
+      <c r="C202" s="97">
         <v>193</v>
       </c>
-      <c r="D202" s="99" t="s">
+      <c r="D202" s="103" t="s">
         <v>763</v>
       </c>
       <c r="E202" s="33" t="s">
         <v>751</v>
       </c>
       <c r="F202" s="45"/>
-      <c r="G202" s="96" t="s">
+      <c r="G202" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H202" s="102" t="s">
+      <c r="H202" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I202" s="105" t="s">
+      <c r="I202" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J202" s="45"/>
     </row>
     <row r="203" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="94"/>
-      <c r="C203" s="97"/>
-      <c r="D203" s="100"/>
+      <c r="B203" s="107"/>
+      <c r="C203" s="98"/>
+      <c r="D203" s="104"/>
       <c r="E203" s="45" t="s">
         <v>641</v>
       </c>
       <c r="F203" s="45"/>
-      <c r="G203" s="97"/>
-      <c r="H203" s="103"/>
-      <c r="I203" s="106"/>
+      <c r="G203" s="98"/>
+      <c r="H203" s="101"/>
+      <c r="I203" s="95"/>
       <c r="J203" s="45"/>
     </row>
     <row r="204" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="94"/>
-      <c r="C204" s="97"/>
-      <c r="D204" s="100"/>
+      <c r="B204" s="107"/>
+      <c r="C204" s="98"/>
+      <c r="D204" s="104"/>
       <c r="E204" s="45" t="s">
         <v>640</v>
       </c>
       <c r="F204" s="45"/>
-      <c r="G204" s="97"/>
-      <c r="H204" s="103"/>
-      <c r="I204" s="106"/>
+      <c r="G204" s="98"/>
+      <c r="H204" s="101"/>
+      <c r="I204" s="95"/>
       <c r="J204" s="45"/>
     </row>
     <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B205" s="94"/>
-      <c r="C205" s="97"/>
-      <c r="D205" s="100"/>
+      <c r="B205" s="107"/>
+      <c r="C205" s="98"/>
+      <c r="D205" s="104"/>
       <c r="E205" s="45" t="s">
         <v>752</v>
       </c>
       <c r="F205" s="45"/>
-      <c r="G205" s="97"/>
-      <c r="H205" s="103"/>
-      <c r="I205" s="106"/>
+      <c r="G205" s="98"/>
+      <c r="H205" s="101"/>
+      <c r="I205" s="95"/>
       <c r="J205" s="45"/>
     </row>
     <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="94"/>
-      <c r="C206" s="97"/>
-      <c r="D206" s="100"/>
+      <c r="B206" s="107"/>
+      <c r="C206" s="98"/>
+      <c r="D206" s="104"/>
       <c r="E206" s="45" t="s">
         <v>753</v>
       </c>
       <c r="F206" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G206" s="97"/>
-      <c r="H206" s="103"/>
-      <c r="I206" s="106"/>
+      <c r="G206" s="98"/>
+      <c r="H206" s="101"/>
+      <c r="I206" s="95"/>
       <c r="J206" s="45"/>
     </row>
     <row r="207" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="94"/>
-      <c r="C207" s="97"/>
-      <c r="D207" s="100"/>
+      <c r="B207" s="107"/>
+      <c r="C207" s="98"/>
+      <c r="D207" s="104"/>
       <c r="E207" s="33" t="s">
         <v>755</v>
       </c>
       <c r="F207" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G207" s="97"/>
-      <c r="H207" s="103"/>
-      <c r="I207" s="106"/>
+      <c r="G207" s="98"/>
+      <c r="H207" s="101"/>
+      <c r="I207" s="95"/>
       <c r="J207" s="45"/>
     </row>
     <row r="208" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B208" s="95"/>
-      <c r="C208" s="98"/>
-      <c r="D208" s="101"/>
+      <c r="B208" s="108"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="105"/>
       <c r="E208" s="45" t="s">
         <v>754</v>
       </c>
       <c r="F208" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G208" s="98"/>
-      <c r="H208" s="104"/>
-      <c r="I208" s="107"/>
+      <c r="G208" s="99"/>
+      <c r="H208" s="102"/>
+      <c r="I208" s="96"/>
       <c r="J208" s="45"/>
     </row>
     <row r="209" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11682,112 +11654,112 @@
       <c r="J209" s="44"/>
     </row>
     <row r="210" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B210" s="93" t="s">
+      <c r="B210" s="106" t="s">
         <v>521</v>
       </c>
-      <c r="C210" s="96">
+      <c r="C210" s="97">
         <v>194</v>
       </c>
-      <c r="D210" s="99" t="s">
+      <c r="D210" s="103" t="s">
         <v>764</v>
       </c>
       <c r="E210" s="33" t="s">
         <v>751</v>
       </c>
       <c r="F210" s="45"/>
-      <c r="G210" s="96" t="s">
+      <c r="G210" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H210" s="102" t="s">
+      <c r="H210" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I210" s="105" t="s">
+      <c r="I210" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J210" s="45"/>
     </row>
     <row r="211" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B211" s="94"/>
-      <c r="C211" s="97"/>
-      <c r="D211" s="100"/>
+      <c r="B211" s="107"/>
+      <c r="C211" s="98"/>
+      <c r="D211" s="104"/>
       <c r="E211" s="45" t="s">
         <v>641</v>
       </c>
       <c r="F211" s="45"/>
-      <c r="G211" s="97"/>
-      <c r="H211" s="103"/>
-      <c r="I211" s="106"/>
+      <c r="G211" s="98"/>
+      <c r="H211" s="101"/>
+      <c r="I211" s="95"/>
       <c r="J211" s="45"/>
     </row>
     <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B212" s="94"/>
-      <c r="C212" s="97"/>
-      <c r="D212" s="100"/>
+      <c r="B212" s="107"/>
+      <c r="C212" s="98"/>
+      <c r="D212" s="104"/>
       <c r="E212" s="45" t="s">
         <v>756</v>
       </c>
       <c r="F212" s="45"/>
-      <c r="G212" s="97"/>
-      <c r="H212" s="103"/>
-      <c r="I212" s="106"/>
+      <c r="G212" s="98"/>
+      <c r="H212" s="101"/>
+      <c r="I212" s="95"/>
       <c r="J212" s="45"/>
     </row>
     <row r="213" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B213" s="94"/>
-      <c r="C213" s="97"/>
-      <c r="D213" s="100"/>
+      <c r="B213" s="107"/>
+      <c r="C213" s="98"/>
+      <c r="D213" s="104"/>
       <c r="E213" s="45" t="s">
         <v>752</v>
       </c>
       <c r="F213" s="45"/>
-      <c r="G213" s="97"/>
-      <c r="H213" s="103"/>
-      <c r="I213" s="106"/>
+      <c r="G213" s="98"/>
+      <c r="H213" s="101"/>
+      <c r="I213" s="95"/>
       <c r="J213" s="45"/>
     </row>
     <row r="214" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B214" s="94"/>
-      <c r="C214" s="97"/>
-      <c r="D214" s="100"/>
+      <c r="B214" s="107"/>
+      <c r="C214" s="98"/>
+      <c r="D214" s="104"/>
       <c r="E214" s="45" t="s">
         <v>753</v>
       </c>
       <c r="F214" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G214" s="97"/>
-      <c r="H214" s="103"/>
-      <c r="I214" s="106"/>
+      <c r="G214" s="98"/>
+      <c r="H214" s="101"/>
+      <c r="I214" s="95"/>
       <c r="J214" s="45"/>
     </row>
     <row r="215" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B215" s="94"/>
-      <c r="C215" s="97"/>
-      <c r="D215" s="100"/>
+      <c r="B215" s="107"/>
+      <c r="C215" s="98"/>
+      <c r="D215" s="104"/>
       <c r="E215" s="33" t="s">
         <v>755</v>
       </c>
       <c r="F215" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G215" s="97"/>
-      <c r="H215" s="103"/>
-      <c r="I215" s="106"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="101"/>
+      <c r="I215" s="95"/>
       <c r="J215" s="45"/>
     </row>
     <row r="216" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B216" s="95"/>
-      <c r="C216" s="98"/>
-      <c r="D216" s="101"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="99"/>
+      <c r="D216" s="105"/>
       <c r="E216" s="45" t="s">
         <v>754</v>
       </c>
       <c r="F216" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G216" s="98"/>
-      <c r="H216" s="104"/>
-      <c r="I216" s="107"/>
+      <c r="G216" s="99"/>
+      <c r="H216" s="102"/>
+      <c r="I216" s="96"/>
       <c r="J216" s="45"/>
     </row>
     <row r="217" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11807,112 +11779,112 @@
       <c r="J217" s="44"/>
     </row>
     <row r="218" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B218" s="93" t="s">
+      <c r="B218" s="106" t="s">
         <v>522</v>
       </c>
-      <c r="C218" s="96">
+      <c r="C218" s="97">
         <v>195</v>
       </c>
-      <c r="D218" s="99" t="s">
+      <c r="D218" s="103" t="s">
         <v>765</v>
       </c>
       <c r="E218" s="33" t="s">
         <v>751</v>
       </c>
       <c r="F218" s="45"/>
-      <c r="G218" s="96" t="s">
+      <c r="G218" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H218" s="102" t="s">
+      <c r="H218" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I218" s="105" t="s">
+      <c r="I218" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J218" s="45"/>
     </row>
     <row r="219" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B219" s="94"/>
-      <c r="C219" s="97"/>
-      <c r="D219" s="100"/>
+      <c r="B219" s="107"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="104"/>
       <c r="E219" s="45" t="s">
         <v>641</v>
       </c>
       <c r="F219" s="45"/>
-      <c r="G219" s="97"/>
-      <c r="H219" s="103"/>
-      <c r="I219" s="106"/>
+      <c r="G219" s="98"/>
+      <c r="H219" s="101"/>
+      <c r="I219" s="95"/>
       <c r="J219" s="45"/>
     </row>
     <row r="220" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B220" s="94"/>
-      <c r="C220" s="97"/>
-      <c r="D220" s="100"/>
+      <c r="B220" s="107"/>
+      <c r="C220" s="98"/>
+      <c r="D220" s="104"/>
       <c r="E220" s="45" t="s">
         <v>757</v>
       </c>
       <c r="F220" s="45"/>
-      <c r="G220" s="97"/>
-      <c r="H220" s="103"/>
-      <c r="I220" s="106"/>
+      <c r="G220" s="98"/>
+      <c r="H220" s="101"/>
+      <c r="I220" s="95"/>
       <c r="J220" s="45"/>
     </row>
     <row r="221" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B221" s="94"/>
-      <c r="C221" s="97"/>
-      <c r="D221" s="100"/>
+      <c r="B221" s="107"/>
+      <c r="C221" s="98"/>
+      <c r="D221" s="104"/>
       <c r="E221" s="45" t="s">
         <v>752</v>
       </c>
       <c r="F221" s="45"/>
-      <c r="G221" s="97"/>
-      <c r="H221" s="103"/>
-      <c r="I221" s="106"/>
+      <c r="G221" s="98"/>
+      <c r="H221" s="101"/>
+      <c r="I221" s="95"/>
       <c r="J221" s="45"/>
     </row>
     <row r="222" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B222" s="94"/>
-      <c r="C222" s="97"/>
-      <c r="D222" s="100"/>
+      <c r="B222" s="107"/>
+      <c r="C222" s="98"/>
+      <c r="D222" s="104"/>
       <c r="E222" s="45" t="s">
         <v>753</v>
       </c>
       <c r="F222" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G222" s="97"/>
-      <c r="H222" s="103"/>
-      <c r="I222" s="106"/>
+      <c r="G222" s="98"/>
+      <c r="H222" s="101"/>
+      <c r="I222" s="95"/>
       <c r="J222" s="45"/>
     </row>
     <row r="223" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B223" s="94"/>
-      <c r="C223" s="97"/>
-      <c r="D223" s="100"/>
+      <c r="B223" s="107"/>
+      <c r="C223" s="98"/>
+      <c r="D223" s="104"/>
       <c r="E223" s="33" t="s">
         <v>755</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G223" s="97"/>
-      <c r="H223" s="103"/>
-      <c r="I223" s="106"/>
+      <c r="G223" s="98"/>
+      <c r="H223" s="101"/>
+      <c r="I223" s="95"/>
       <c r="J223" s="45"/>
     </row>
     <row r="224" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B224" s="95"/>
-      <c r="C224" s="98"/>
-      <c r="D224" s="101"/>
+      <c r="B224" s="108"/>
+      <c r="C224" s="99"/>
+      <c r="D224" s="105"/>
       <c r="E224" s="45" t="s">
         <v>754</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G224" s="98"/>
-      <c r="H224" s="104"/>
-      <c r="I224" s="107"/>
+      <c r="G224" s="99"/>
+      <c r="H224" s="102"/>
+      <c r="I224" s="96"/>
       <c r="J224" s="45"/>
     </row>
     <row r="225" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11932,121 +11904,121 @@
       <c r="J225" s="44"/>
     </row>
     <row r="226" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B226" s="93" t="s">
+      <c r="B226" s="106" t="s">
         <v>523</v>
       </c>
-      <c r="C226" s="96">
+      <c r="C226" s="97">
         <v>196</v>
       </c>
-      <c r="D226" s="99" t="s">
+      <c r="D226" s="103" t="s">
         <v>762</v>
       </c>
       <c r="E226" s="33" t="s">
         <v>751</v>
       </c>
       <c r="F226" s="45"/>
-      <c r="G226" s="96" t="s">
+      <c r="G226" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H226" s="102" t="s">
+      <c r="H226" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I226" s="105" t="s">
+      <c r="I226" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J226" s="45"/>
     </row>
     <row r="227" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B227" s="94"/>
-      <c r="C227" s="97"/>
-      <c r="D227" s="100"/>
+      <c r="B227" s="107"/>
+      <c r="C227" s="98"/>
+      <c r="D227" s="104"/>
       <c r="E227" s="45" t="s">
         <v>641</v>
       </c>
       <c r="F227" s="45"/>
-      <c r="G227" s="97"/>
-      <c r="H227" s="103"/>
-      <c r="I227" s="106"/>
+      <c r="G227" s="98"/>
+      <c r="H227" s="101"/>
+      <c r="I227" s="95"/>
       <c r="J227" s="45"/>
     </row>
     <row r="228" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B228" s="94"/>
-      <c r="C228" s="97"/>
-      <c r="D228" s="100"/>
+      <c r="B228" s="107"/>
+      <c r="C228" s="98"/>
+      <c r="D228" s="104"/>
       <c r="E228" s="45" t="s">
         <v>758</v>
       </c>
       <c r="F228" s="45"/>
-      <c r="G228" s="97"/>
-      <c r="H228" s="103"/>
-      <c r="I228" s="106"/>
+      <c r="G228" s="98"/>
+      <c r="H228" s="101"/>
+      <c r="I228" s="95"/>
       <c r="J228" s="45"/>
     </row>
     <row r="229" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B229" s="94"/>
-      <c r="C229" s="97"/>
-      <c r="D229" s="100"/>
+      <c r="B229" s="107"/>
+      <c r="C229" s="98"/>
+      <c r="D229" s="104"/>
       <c r="E229" s="45" t="s">
         <v>752</v>
       </c>
       <c r="F229" s="45"/>
-      <c r="G229" s="97"/>
-      <c r="H229" s="103"/>
-      <c r="I229" s="106"/>
+      <c r="G229" s="98"/>
+      <c r="H229" s="101"/>
+      <c r="I229" s="95"/>
       <c r="J229" s="45"/>
     </row>
     <row r="230" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B230" s="94"/>
-      <c r="C230" s="97"/>
-      <c r="D230" s="100"/>
+      <c r="B230" s="107"/>
+      <c r="C230" s="98"/>
+      <c r="D230" s="104"/>
       <c r="E230" s="45" t="s">
         <v>753</v>
       </c>
       <c r="F230" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G230" s="97"/>
-      <c r="H230" s="103"/>
-      <c r="I230" s="106"/>
+      <c r="G230" s="98"/>
+      <c r="H230" s="101"/>
+      <c r="I230" s="95"/>
       <c r="J230" s="45"/>
     </row>
     <row r="231" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B231" s="94"/>
-      <c r="C231" s="97"/>
-      <c r="D231" s="100"/>
+      <c r="B231" s="107"/>
+      <c r="C231" s="98"/>
+      <c r="D231" s="104"/>
       <c r="E231" s="33" t="s">
         <v>755</v>
       </c>
       <c r="F231" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="G231" s="97"/>
-      <c r="H231" s="103"/>
-      <c r="I231" s="106"/>
+      <c r="G231" s="98"/>
+      <c r="H231" s="101"/>
+      <c r="I231" s="95"/>
       <c r="J231" s="45"/>
     </row>
     <row r="232" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B232" s="95"/>
-      <c r="C232" s="98"/>
-      <c r="D232" s="101"/>
+      <c r="B232" s="108"/>
+      <c r="C232" s="99"/>
+      <c r="D232" s="105"/>
       <c r="E232" s="45" t="s">
         <v>754</v>
       </c>
       <c r="F232" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="G232" s="98"/>
-      <c r="H232" s="104"/>
-      <c r="I232" s="107"/>
+      <c r="G232" s="99"/>
+      <c r="H232" s="102"/>
+      <c r="I232" s="96"/>
       <c r="J232" s="45"/>
     </row>
     <row r="233" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="92" t="s">
+      <c r="B233" s="119" t="s">
         <v>589</v>
       </c>
-      <c r="C233" s="92"/>
-      <c r="D233" s="92"/>
-      <c r="E233" s="92"/>
+      <c r="C233" s="119"/>
+      <c r="D233" s="119"/>
+      <c r="E233" s="119"/>
       <c r="F233" s="61"/>
       <c r="G233" s="61"/>
       <c r="H233" s="61"/>
@@ -12070,136 +12042,136 @@
       <c r="J234" s="44"/>
     </row>
     <row r="235" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B235" s="93" t="s">
+      <c r="B235" s="106" t="s">
         <v>528</v>
       </c>
-      <c r="C235" s="96"/>
-      <c r="D235" s="99" t="s">
+      <c r="C235" s="97"/>
+      <c r="D235" s="103" t="s">
         <v>776</v>
       </c>
       <c r="E235" s="33" t="s">
         <v>767</v>
       </c>
       <c r="F235" s="45"/>
-      <c r="G235" s="96" t="s">
+      <c r="G235" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H235" s="102" t="s">
+      <c r="H235" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I235" s="105" t="s">
+      <c r="I235" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J235" s="45"/>
     </row>
     <row r="236" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B236" s="94"/>
-      <c r="C236" s="97"/>
-      <c r="D236" s="100"/>
+      <c r="B236" s="107"/>
+      <c r="C236" s="98"/>
+      <c r="D236" s="104"/>
       <c r="E236" s="33" t="s">
         <v>768</v>
       </c>
       <c r="F236" s="45"/>
-      <c r="G236" s="97"/>
-      <c r="H236" s="103"/>
-      <c r="I236" s="106"/>
+      <c r="G236" s="98"/>
+      <c r="H236" s="101"/>
+      <c r="I236" s="95"/>
       <c r="J236" s="45"/>
     </row>
     <row r="237" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B237" s="94"/>
-      <c r="C237" s="97"/>
-      <c r="D237" s="100"/>
+      <c r="B237" s="107"/>
+      <c r="C237" s="98"/>
+      <c r="D237" s="104"/>
       <c r="E237" s="33" t="s">
         <v>769</v>
       </c>
       <c r="F237" s="45"/>
-      <c r="G237" s="97"/>
-      <c r="H237" s="103"/>
-      <c r="I237" s="106"/>
+      <c r="G237" s="98"/>
+      <c r="H237" s="101"/>
+      <c r="I237" s="95"/>
       <c r="J237" s="45"/>
     </row>
     <row r="238" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B238" s="94"/>
-      <c r="C238" s="97"/>
-      <c r="D238" s="100"/>
+      <c r="B238" s="107"/>
+      <c r="C238" s="98"/>
+      <c r="D238" s="104"/>
       <c r="E238" s="33" t="s">
         <v>770</v>
       </c>
       <c r="F238" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="G238" s="97"/>
-      <c r="H238" s="103"/>
-      <c r="I238" s="106"/>
+      <c r="G238" s="98"/>
+      <c r="H238" s="101"/>
+      <c r="I238" s="95"/>
       <c r="J238" s="45"/>
     </row>
     <row r="239" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B239" s="94"/>
-      <c r="C239" s="97"/>
-      <c r="D239" s="100"/>
+      <c r="B239" s="107"/>
+      <c r="C239" s="98"/>
+      <c r="D239" s="104"/>
       <c r="E239" s="33" t="s">
         <v>771</v>
       </c>
       <c r="F239" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="G239" s="97"/>
-      <c r="H239" s="103"/>
-      <c r="I239" s="106"/>
+      <c r="G239" s="98"/>
+      <c r="H239" s="101"/>
+      <c r="I239" s="95"/>
       <c r="J239" s="45"/>
     </row>
     <row r="240" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B240" s="94"/>
-      <c r="C240" s="97"/>
-      <c r="D240" s="100"/>
+      <c r="B240" s="107"/>
+      <c r="C240" s="98"/>
+      <c r="D240" s="104"/>
       <c r="E240" s="45" t="s">
         <v>772</v>
       </c>
       <c r="F240" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="G240" s="97"/>
-      <c r="H240" s="103"/>
-      <c r="I240" s="106"/>
+      <c r="G240" s="98"/>
+      <c r="H240" s="101"/>
+      <c r="I240" s="95"/>
       <c r="J240" s="45"/>
     </row>
     <row r="241" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B241" s="94"/>
-      <c r="C241" s="97"/>
-      <c r="D241" s="100"/>
+      <c r="B241" s="107"/>
+      <c r="C241" s="98"/>
+      <c r="D241" s="104"/>
       <c r="E241" s="45" t="s">
         <v>773</v>
       </c>
       <c r="F241" s="54">
         <v>25</v>
       </c>
-      <c r="G241" s="97"/>
-      <c r="H241" s="103"/>
-      <c r="I241" s="106"/>
+      <c r="G241" s="98"/>
+      <c r="H241" s="101"/>
+      <c r="I241" s="95"/>
       <c r="J241" s="45"/>
     </row>
     <row r="242" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B242" s="95"/>
-      <c r="C242" s="98"/>
-      <c r="D242" s="101"/>
+      <c r="B242" s="108"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="105"/>
       <c r="E242" s="45" t="s">
         <v>774</v>
       </c>
       <c r="F242" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="G242" s="98"/>
-      <c r="H242" s="104"/>
-      <c r="I242" s="107"/>
+      <c r="G242" s="99"/>
+      <c r="H242" s="102"/>
+      <c r="I242" s="96"/>
       <c r="J242" s="45"/>
     </row>
     <row r="243" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B243" s="92" t="s">
+      <c r="B243" s="119" t="s">
         <v>590</v>
       </c>
-      <c r="C243" s="92"/>
-      <c r="D243" s="92"/>
-      <c r="E243" s="92"/>
+      <c r="C243" s="119"/>
+      <c r="D243" s="119"/>
+      <c r="E243" s="119"/>
       <c r="F243" s="61"/>
       <c r="G243" s="61"/>
       <c r="H243" s="61"/>
@@ -12223,54 +12195,54 @@
       <c r="J244" s="44"/>
     </row>
     <row r="245" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B245" s="93" t="s">
+      <c r="B245" s="106" t="s">
         <v>536</v>
       </c>
-      <c r="C245" s="96"/>
-      <c r="D245" s="99" t="s">
+      <c r="C245" s="97"/>
+      <c r="D245" s="103" t="s">
         <v>790</v>
       </c>
       <c r="E245" s="33" t="s">
         <v>767</v>
       </c>
       <c r="F245" s="45"/>
-      <c r="G245" s="96" t="s">
+      <c r="G245" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H245" s="102" t="s">
+      <c r="H245" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="I245" s="105" t="s">
+      <c r="I245" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J245" s="45"/>
     </row>
     <row r="246" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B246" s="94"/>
-      <c r="C246" s="97"/>
-      <c r="D246" s="100"/>
+      <c r="B246" s="107"/>
+      <c r="C246" s="98"/>
+      <c r="D246" s="104"/>
       <c r="E246" s="33" t="s">
         <v>768</v>
       </c>
       <c r="F246" s="45"/>
-      <c r="G246" s="97"/>
-      <c r="H246" s="103"/>
-      <c r="I246" s="106"/>
+      <c r="G246" s="98"/>
+      <c r="H246" s="101"/>
+      <c r="I246" s="95"/>
       <c r="J246" s="45"/>
     </row>
     <row r="247" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B247" s="95"/>
-      <c r="C247" s="98"/>
-      <c r="D247" s="101"/>
+      <c r="B247" s="108"/>
+      <c r="C247" s="99"/>
+      <c r="D247" s="105"/>
       <c r="E247" s="33" t="s">
         <v>791</v>
       </c>
       <c r="F247" s="33" t="s">
         <v>792</v>
       </c>
-      <c r="G247" s="98"/>
-      <c r="H247" s="104"/>
-      <c r="I247" s="107"/>
+      <c r="G247" s="99"/>
+      <c r="H247" s="102"/>
+      <c r="I247" s="96"/>
       <c r="J247" s="45"/>
     </row>
     <row r="248" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -12290,148 +12262,148 @@
       <c r="J248" s="44"/>
     </row>
     <row r="249" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B249" s="93" t="s">
+      <c r="B249" s="106" t="s">
         <v>537</v>
       </c>
-      <c r="C249" s="96"/>
-      <c r="D249" s="93" t="s">
+      <c r="C249" s="97"/>
+      <c r="D249" s="106" t="s">
         <v>783</v>
       </c>
       <c r="E249" s="33" t="s">
         <v>784</v>
       </c>
       <c r="F249" s="45"/>
-      <c r="G249" s="96" t="s">
+      <c r="G249" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H249" s="102" t="s">
+      <c r="H249" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="I249" s="105" t="s">
+      <c r="I249" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J249" s="45"/>
     </row>
     <row r="250" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B250" s="94"/>
-      <c r="C250" s="97"/>
-      <c r="D250" s="94"/>
+      <c r="B250" s="107"/>
+      <c r="C250" s="98"/>
+      <c r="D250" s="107"/>
       <c r="E250" s="33" t="s">
         <v>786</v>
       </c>
       <c r="F250" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="G250" s="97"/>
-      <c r="H250" s="103"/>
-      <c r="I250" s="106"/>
+      <c r="G250" s="98"/>
+      <c r="H250" s="101"/>
+      <c r="I250" s="95"/>
       <c r="J250" s="45"/>
     </row>
     <row r="251" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B251" s="94"/>
-      <c r="C251" s="97"/>
-      <c r="D251" s="94"/>
+      <c r="B251" s="107"/>
+      <c r="C251" s="98"/>
+      <c r="D251" s="107"/>
       <c r="E251" s="33" t="s">
         <v>787</v>
       </c>
       <c r="F251" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="G251" s="97"/>
-      <c r="H251" s="103"/>
-      <c r="I251" s="106"/>
+      <c r="G251" s="98"/>
+      <c r="H251" s="101"/>
+      <c r="I251" s="95"/>
       <c r="J251" s="45"/>
     </row>
     <row r="252" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B252" s="95"/>
-      <c r="C252" s="98"/>
-      <c r="D252" s="95"/>
+      <c r="B252" s="108"/>
+      <c r="C252" s="99"/>
+      <c r="D252" s="108"/>
       <c r="E252" s="45" t="s">
         <v>785</v>
       </c>
       <c r="F252" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="G252" s="98"/>
-      <c r="H252" s="104"/>
-      <c r="I252" s="107"/>
+      <c r="G252" s="99"/>
+      <c r="H252" s="102"/>
+      <c r="I252" s="96"/>
       <c r="J252" s="45"/>
     </row>
     <row r="253" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B253" s="93" t="s">
+      <c r="B253" s="106" t="s">
         <v>538</v>
       </c>
-      <c r="C253" s="96"/>
-      <c r="D253" s="93" t="s">
+      <c r="C253" s="97"/>
+      <c r="D253" s="106" t="s">
         <v>782</v>
       </c>
       <c r="E253" s="33" t="s">
         <v>784</v>
       </c>
       <c r="F253" s="45"/>
-      <c r="G253" s="96" t="s">
+      <c r="G253" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H253" s="102" t="s">
+      <c r="H253" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="I253" s="105" t="s">
+      <c r="I253" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J253" s="45"/>
     </row>
     <row r="254" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B254" s="94"/>
-      <c r="C254" s="97"/>
-      <c r="D254" s="94"/>
+      <c r="B254" s="107"/>
+      <c r="C254" s="98"/>
+      <c r="D254" s="107"/>
       <c r="E254" s="33" t="s">
         <v>786</v>
       </c>
       <c r="F254" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="G254" s="97"/>
-      <c r="H254" s="103"/>
-      <c r="I254" s="106"/>
+      <c r="G254" s="98"/>
+      <c r="H254" s="101"/>
+      <c r="I254" s="95"/>
       <c r="J254" s="45"/>
     </row>
     <row r="255" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B255" s="94"/>
-      <c r="C255" s="97"/>
-      <c r="D255" s="94"/>
+      <c r="B255" s="107"/>
+      <c r="C255" s="98"/>
+      <c r="D255" s="107"/>
       <c r="E255" s="33" t="s">
         <v>787</v>
       </c>
       <c r="F255" s="54">
         <v>123456</v>
       </c>
-      <c r="G255" s="97"/>
-      <c r="H255" s="103"/>
-      <c r="I255" s="106"/>
+      <c r="G255" s="98"/>
+      <c r="H255" s="101"/>
+      <c r="I255" s="95"/>
       <c r="J255" s="45"/>
     </row>
     <row r="256" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B256" s="95"/>
-      <c r="C256" s="98"/>
-      <c r="D256" s="95"/>
+      <c r="B256" s="108"/>
+      <c r="C256" s="99"/>
+      <c r="D256" s="108"/>
       <c r="E256" s="45" t="s">
         <v>785</v>
       </c>
       <c r="F256" s="33" t="s">
         <v>789</v>
       </c>
-      <c r="G256" s="98"/>
-      <c r="H256" s="104"/>
-      <c r="I256" s="107"/>
+      <c r="G256" s="99"/>
+      <c r="H256" s="102"/>
+      <c r="I256" s="96"/>
       <c r="J256" s="45"/>
     </row>
     <row r="257" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B257" s="92" t="s">
+      <c r="B257" s="119" t="s">
         <v>591</v>
       </c>
-      <c r="C257" s="92"/>
-      <c r="D257" s="92"/>
-      <c r="E257" s="92"/>
+      <c r="C257" s="119"/>
+      <c r="D257" s="119"/>
+      <c r="E257" s="119"/>
       <c r="F257" s="61"/>
       <c r="G257" s="61"/>
       <c r="H257" s="61"/>
@@ -12455,177 +12427,270 @@
       <c r="J258" s="44"/>
     </row>
     <row r="259" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B259" s="93" t="s">
+      <c r="B259" s="106" t="s">
         <v>532</v>
       </c>
-      <c r="C259" s="96"/>
-      <c r="D259" s="99" t="s">
+      <c r="C259" s="97"/>
+      <c r="D259" s="103" t="s">
         <v>612</v>
       </c>
       <c r="E259" s="33" t="s">
         <v>767</v>
       </c>
       <c r="F259" s="45"/>
-      <c r="G259" s="96" t="s">
+      <c r="G259" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="H259" s="102" t="s">
+      <c r="H259" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I259" s="105" t="s">
+      <c r="I259" s="94" t="s">
         <v>119</v>
       </c>
       <c r="J259" s="45"/>
     </row>
     <row r="260" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B260" s="94"/>
-      <c r="C260" s="97"/>
-      <c r="D260" s="100"/>
+      <c r="B260" s="107"/>
+      <c r="C260" s="98"/>
+      <c r="D260" s="104"/>
       <c r="E260" s="33" t="s">
         <v>768</v>
       </c>
       <c r="F260" s="45"/>
-      <c r="G260" s="97"/>
-      <c r="H260" s="103"/>
-      <c r="I260" s="106"/>
+      <c r="G260" s="98"/>
+      <c r="H260" s="101"/>
+      <c r="I260" s="95"/>
       <c r="J260" s="45"/>
     </row>
     <row r="261" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B261" s="94"/>
-      <c r="C261" s="97"/>
-      <c r="D261" s="100"/>
+      <c r="B261" s="107"/>
+      <c r="C261" s="98"/>
+      <c r="D261" s="104"/>
       <c r="E261" s="45" t="s">
         <v>777</v>
       </c>
       <c r="F261" s="45"/>
-      <c r="G261" s="97"/>
-      <c r="H261" s="103"/>
-      <c r="I261" s="106"/>
+      <c r="G261" s="98"/>
+      <c r="H261" s="101"/>
+      <c r="I261" s="95"/>
       <c r="J261" s="45"/>
     </row>
     <row r="262" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B262" s="94"/>
-      <c r="C262" s="97"/>
-      <c r="D262" s="100"/>
+      <c r="B262" s="107"/>
+      <c r="C262" s="98"/>
+      <c r="D262" s="104"/>
       <c r="E262" s="45" t="s">
         <v>778</v>
       </c>
       <c r="F262" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="G262" s="97"/>
-      <c r="H262" s="103"/>
-      <c r="I262" s="106"/>
+      <c r="G262" s="98"/>
+      <c r="H262" s="101"/>
+      <c r="I262" s="95"/>
       <c r="J262" s="45"/>
     </row>
     <row r="263" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B263" s="94"/>
-      <c r="C263" s="97"/>
-      <c r="D263" s="100"/>
+      <c r="B263" s="107"/>
+      <c r="C263" s="98"/>
+      <c r="D263" s="104"/>
       <c r="E263" s="45" t="s">
         <v>779</v>
       </c>
       <c r="F263" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="G263" s="97"/>
-      <c r="H263" s="103"/>
-      <c r="I263" s="106"/>
+      <c r="G263" s="98"/>
+      <c r="H263" s="101"/>
+      <c r="I263" s="95"/>
       <c r="J263" s="45"/>
     </row>
     <row r="264" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B264" s="94"/>
-      <c r="C264" s="97"/>
-      <c r="D264" s="100"/>
+      <c r="B264" s="107"/>
+      <c r="C264" s="98"/>
+      <c r="D264" s="104"/>
       <c r="E264" s="45" t="s">
         <v>780</v>
       </c>
       <c r="F264" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="G264" s="97"/>
-      <c r="H264" s="103"/>
-      <c r="I264" s="106"/>
+      <c r="G264" s="98"/>
+      <c r="H264" s="101"/>
+      <c r="I264" s="95"/>
       <c r="J264" s="45"/>
     </row>
     <row r="265" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B265" s="94"/>
-      <c r="C265" s="97"/>
-      <c r="D265" s="100"/>
+      <c r="B265" s="107"/>
+      <c r="C265" s="98"/>
+      <c r="D265" s="104"/>
       <c r="E265" s="45" t="s">
         <v>781</v>
       </c>
       <c r="F265" s="54">
         <v>123456.789</v>
       </c>
-      <c r="G265" s="97"/>
-      <c r="H265" s="103"/>
-      <c r="I265" s="106"/>
+      <c r="G265" s="98"/>
+      <c r="H265" s="101"/>
+      <c r="I265" s="95"/>
       <c r="J265" s="45"/>
     </row>
     <row r="266" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B266" s="95"/>
-      <c r="C266" s="98"/>
-      <c r="D266" s="101"/>
+      <c r="B266" s="108"/>
+      <c r="C266" s="99"/>
+      <c r="D266" s="105"/>
       <c r="E266" s="45" t="s">
         <v>774</v>
       </c>
       <c r="F266" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="G266" s="98"/>
-      <c r="H266" s="104"/>
-      <c r="I266" s="107"/>
+      <c r="G266" s="99"/>
+      <c r="H266" s="102"/>
+      <c r="I266" s="96"/>
       <c r="J266" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J100"/>
   <mergeCells count="207">
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="I158:I164"/>
-    <mergeCell ref="G165:G171"/>
-    <mergeCell ref="H165:H171"/>
-    <mergeCell ref="I165:I171"/>
-    <mergeCell ref="D165:D171"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="D158:D164"/>
-    <mergeCell ref="G158:G164"/>
-    <mergeCell ref="H158:H164"/>
-    <mergeCell ref="G144:G150"/>
-    <mergeCell ref="H144:H150"/>
-    <mergeCell ref="I144:I150"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="D151:D157"/>
-    <mergeCell ref="G151:G157"/>
-    <mergeCell ref="H151:H157"/>
-    <mergeCell ref="I151:I157"/>
-    <mergeCell ref="D144:D150"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="H101:H106"/>
-    <mergeCell ref="I101:I106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="G70:G75"/>
-    <mergeCell ref="H70:H75"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="I76:I81"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B259:B266"/>
+    <mergeCell ref="C259:C266"/>
+    <mergeCell ref="D259:D266"/>
+    <mergeCell ref="G259:G266"/>
+    <mergeCell ref="H259:H266"/>
+    <mergeCell ref="I259:I266"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="D245:D247"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="H245:H247"/>
+    <mergeCell ref="I245:I247"/>
+    <mergeCell ref="G249:G252"/>
+    <mergeCell ref="H249:H252"/>
+    <mergeCell ref="I249:I252"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="D249:D252"/>
+    <mergeCell ref="C249:C252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="C253:C256"/>
+    <mergeCell ref="D253:D256"/>
+    <mergeCell ref="G253:G256"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="D218:D224"/>
+    <mergeCell ref="G218:G224"/>
+    <mergeCell ref="H218:H224"/>
+    <mergeCell ref="I218:I224"/>
+    <mergeCell ref="H253:H256"/>
+    <mergeCell ref="I253:I256"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="D226:D232"/>
+    <mergeCell ref="G226:G232"/>
+    <mergeCell ref="H226:H232"/>
+    <mergeCell ref="I226:I232"/>
+    <mergeCell ref="G235:G242"/>
+    <mergeCell ref="H235:H242"/>
+    <mergeCell ref="I235:I242"/>
+    <mergeCell ref="B235:B242"/>
+    <mergeCell ref="C235:C242"/>
+    <mergeCell ref="D235:D242"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="G202:G208"/>
+    <mergeCell ref="H202:H208"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="G210:G216"/>
+    <mergeCell ref="H210:H216"/>
+    <mergeCell ref="I210:I216"/>
+    <mergeCell ref="D181:D186"/>
+    <mergeCell ref="C181:C186"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="G181:G186"/>
+    <mergeCell ref="H181:H186"/>
+    <mergeCell ref="I181:I186"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="D188:D193"/>
+    <mergeCell ref="G188:G193"/>
+    <mergeCell ref="H188:H193"/>
+    <mergeCell ref="I188:I193"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="I109:I114"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="I174:I179"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="G109:G114"/>
+    <mergeCell ref="H109:H114"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
     <mergeCell ref="I123:I128"/>
     <mergeCell ref="B131:B136"/>
     <mergeCell ref="C131:C136"/>
@@ -12650,638 +12715,545 @@
     <mergeCell ref="I116:I121"/>
     <mergeCell ref="B109:B114"/>
     <mergeCell ref="G101:G106"/>
-    <mergeCell ref="D109:D114"/>
-    <mergeCell ref="G109:G114"/>
-    <mergeCell ref="H109:H114"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="C188:C193"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="D188:D193"/>
-    <mergeCell ref="G188:G193"/>
-    <mergeCell ref="H188:H193"/>
-    <mergeCell ref="I188:I193"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="H123:H128"/>
-    <mergeCell ref="I109:I114"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="I174:I179"/>
-    <mergeCell ref="D181:D186"/>
-    <mergeCell ref="C181:C186"/>
-    <mergeCell ref="B181:B186"/>
-    <mergeCell ref="G181:G186"/>
-    <mergeCell ref="H181:H186"/>
-    <mergeCell ref="I181:I186"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B202:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="D202:D208"/>
-    <mergeCell ref="G202:G208"/>
-    <mergeCell ref="H202:H208"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="G210:G216"/>
-    <mergeCell ref="H210:H216"/>
-    <mergeCell ref="I210:I216"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="D218:D224"/>
-    <mergeCell ref="G218:G224"/>
-    <mergeCell ref="H218:H224"/>
-    <mergeCell ref="I218:I224"/>
-    <mergeCell ref="H253:H256"/>
-    <mergeCell ref="I253:I256"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="D226:D232"/>
-    <mergeCell ref="G226:G232"/>
-    <mergeCell ref="H226:H232"/>
-    <mergeCell ref="I226:I232"/>
-    <mergeCell ref="G235:G242"/>
-    <mergeCell ref="H235:H242"/>
-    <mergeCell ref="I235:I242"/>
-    <mergeCell ref="B235:B242"/>
-    <mergeCell ref="C235:C242"/>
-    <mergeCell ref="D235:D242"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="B259:B266"/>
-    <mergeCell ref="C259:C266"/>
-    <mergeCell ref="D259:D266"/>
-    <mergeCell ref="G259:G266"/>
-    <mergeCell ref="H259:H266"/>
-    <mergeCell ref="I259:I266"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="D245:D247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="H245:H247"/>
-    <mergeCell ref="I245:I247"/>
-    <mergeCell ref="G249:G252"/>
-    <mergeCell ref="H249:H252"/>
-    <mergeCell ref="I249:I252"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="D249:D252"/>
-    <mergeCell ref="C249:C252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="C253:C256"/>
-    <mergeCell ref="D253:D256"/>
-    <mergeCell ref="G253:G256"/>
+    <mergeCell ref="H101:H106"/>
+    <mergeCell ref="I101:I106"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="G70:G75"/>
+    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="I76:I81"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="I158:I164"/>
+    <mergeCell ref="G165:G171"/>
+    <mergeCell ref="H165:H171"/>
+    <mergeCell ref="I165:I171"/>
+    <mergeCell ref="D165:D171"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="D158:D164"/>
+    <mergeCell ref="G158:G164"/>
+    <mergeCell ref="H158:H164"/>
+    <mergeCell ref="G144:G150"/>
+    <mergeCell ref="H144:H150"/>
+    <mergeCell ref="I144:I150"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="D151:D157"/>
+    <mergeCell ref="G151:G157"/>
+    <mergeCell ref="H151:H157"/>
+    <mergeCell ref="I151:I157"/>
+    <mergeCell ref="D144:D150"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="B144:B150"/>
   </mergeCells>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="containsText" dxfId="255" priority="502" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="251" priority="502" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="503" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="250" priority="503" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="504" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="249" priority="504" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="containsText" dxfId="252" priority="501" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="248" priority="501" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H19">
-    <cfRule type="containsText" dxfId="251" priority="486" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="247" priority="486" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="487" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="246" priority="487" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="488" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="245" priority="488" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H19">
-    <cfRule type="containsText" dxfId="248" priority="485" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="244" priority="485" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54 H98 H40 H95 H44 H50">
-    <cfRule type="containsText" dxfId="247" priority="470" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="243" priority="470" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="471" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="242" priority="471" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="472" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="241" priority="472" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54 H98 H40 H95 H44 H50">
-    <cfRule type="containsText" dxfId="244" priority="469" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="240" priority="469" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="containsText" dxfId="243" priority="434" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="239" priority="434" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="435" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="238" priority="435" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="436" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="237" priority="436" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="containsText" dxfId="240" priority="433" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="236" priority="433" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="containsText" dxfId="239" priority="430" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="235" priority="430" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="431" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="234" priority="431" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="432" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="233" priority="432" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108">
-    <cfRule type="containsText" dxfId="236" priority="429" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="232" priority="429" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="235" priority="386" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="231" priority="386" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="387" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="230" priority="387" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="388" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="229" priority="388" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="232" priority="385" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="228" priority="385" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H142 H174 H235 H245 H249:H251 H253">
-    <cfRule type="containsText" dxfId="231" priority="242" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="227" priority="242" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H139)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="243" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="226" priority="243" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H139)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="244" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="225" priority="244" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H142 H174 H235 H245 H249:H251 H253">
-    <cfRule type="containsText" dxfId="228" priority="241" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="224" priority="241" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="containsText" dxfId="227" priority="206" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="223" priority="206" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="207" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="222" priority="207" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="208" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="221" priority="208" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="containsText" dxfId="224" priority="205" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="220" priority="205" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="219" priority="238" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="239" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="218" priority="239" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="240" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="217" priority="240" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="220" priority="237" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="216" priority="237" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="containsText" dxfId="219" priority="234" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="215" priority="234" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="235" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="214" priority="235" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="236" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="213" priority="236" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="containsText" dxfId="216" priority="233" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="212" priority="233" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H173">
-    <cfRule type="containsText" dxfId="215" priority="230" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="211" priority="230" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="231" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="210" priority="231" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H173)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="232" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="209" priority="232" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H173">
-    <cfRule type="containsText" dxfId="212" priority="229" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="208" priority="229" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H234">
-    <cfRule type="containsText" dxfId="211" priority="226" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="207" priority="226" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="227" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="206" priority="227" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="228" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="205" priority="228" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H234">
-    <cfRule type="containsText" dxfId="208" priority="225" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="204" priority="225" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H244">
-    <cfRule type="containsText" dxfId="207" priority="222" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="203" priority="222" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="223" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="202" priority="223" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="224" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="201" priority="224" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H244">
-    <cfRule type="containsText" dxfId="204" priority="221" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="200" priority="221" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="containsText" dxfId="203" priority="214" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="199" priority="214" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="215" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="198" priority="215" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="197" priority="216" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="containsText" dxfId="200" priority="213" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="196" priority="213" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="containsText" dxfId="199" priority="194" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="195" priority="194" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="195" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="194" priority="195" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="196" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="193" priority="196" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H143">
-    <cfRule type="containsText" dxfId="196" priority="193" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="192" priority="193" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="191" priority="198" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="199" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="190" priority="199" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="200" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="189" priority="200" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144">
-    <cfRule type="containsText" dxfId="192" priority="197" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="188" priority="197" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="containsText" dxfId="191" priority="186" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="187" priority="186" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="187" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="188" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="185" priority="188" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="containsText" dxfId="188" priority="185" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="containsText" dxfId="187" priority="178" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="183" priority="178" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="179" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="182" priority="179" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H187)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="180" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="181" priority="180" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="containsText" dxfId="184" priority="177" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="180" priority="177" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195">
-    <cfRule type="containsText" dxfId="183" priority="174" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="179" priority="174" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="175" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="178" priority="175" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="176" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="177" priority="176" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195">
-    <cfRule type="containsText" dxfId="180" priority="173" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="176" priority="173" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194">
-    <cfRule type="containsText" dxfId="179" priority="170" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="175" priority="170" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="171" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="174" priority="171" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H194)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="172" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="173" priority="172" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194">
-    <cfRule type="containsText" dxfId="176" priority="169" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="172" priority="169" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="containsText" dxfId="175" priority="162" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="171" priority="162" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="163" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="170" priority="163" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="164" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="169" priority="164" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201">
-    <cfRule type="containsText" dxfId="172" priority="161" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="168" priority="161" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225">
-    <cfRule type="containsText" dxfId="171" priority="154" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="167" priority="154" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="155" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="166" priority="155" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H225)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="156" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="165" priority="156" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225">
-    <cfRule type="containsText" dxfId="168" priority="153" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="164" priority="153" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209">
-    <cfRule type="containsText" dxfId="167" priority="146" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="163" priority="146" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="147" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="162" priority="147" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="148" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="161" priority="148" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H209">
-    <cfRule type="containsText" dxfId="164" priority="145" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="160" priority="145" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="containsText" dxfId="163" priority="138" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="159" priority="138" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="139" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="158" priority="139" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="140" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="157" priority="140" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217">
-    <cfRule type="containsText" dxfId="160" priority="137" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="156" priority="137" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="159" priority="134" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="155" priority="134" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="135" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="154" priority="135" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="136" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="153" priority="136" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="156" priority="133" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="152" priority="133" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H92">
-    <cfRule type="containsText" dxfId="155" priority="126" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="151" priority="126" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="127" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="150" priority="127" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="128" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="149" priority="128" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89:H92">
-    <cfRule type="containsText" dxfId="152" priority="125" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="148" priority="125" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="151" priority="130" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="147" priority="130" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="131" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="146" priority="131" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="132" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="145" priority="132" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="148" priority="129" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="144" priority="129" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="147" priority="122" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="143" priority="122" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="123" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="142" priority="123" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="124" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="141" priority="124" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="144" priority="121" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="140" priority="121" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="containsText" dxfId="143" priority="114" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="139" priority="114" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="115" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="138" priority="115" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="116" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="137" priority="116" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123">
-    <cfRule type="containsText" dxfId="140" priority="113" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="136" priority="113" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="containsText" dxfId="139" priority="118" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="135" priority="118" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="119" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="134" priority="119" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="120" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="133" priority="120" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="containsText" dxfId="136" priority="117" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="132" priority="117" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="containsText" dxfId="135" priority="94" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="131" priority="94" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="95" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="130" priority="95" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="96" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="129" priority="96" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="containsText" dxfId="132" priority="93" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="128" priority="93" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H131)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13663,13 +13635,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -13679,11 +13651,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="109"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -13693,55 +13665,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="114"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="110" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="111" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>

--- a/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -2269,12 +2269,6 @@
     <t>Allows adjustment information system: Database, Username, password</t>
   </si>
   <si>
-    <t>Testcase failed: 3 (chiếm 6%)</t>
-  </si>
-  <si>
-    <t>Testcase block: 0 (chiếm 0%)</t>
-  </si>
-  <si>
     <t>Testcase passed approximate 94% accordance with the criteria set out in level GOOD (&gt;80%).</t>
   </si>
   <si>
@@ -2922,6 +2916,12 @@
   </si>
   <si>
     <t>TC.31.2</t>
+  </si>
+  <si>
+    <t>Testcase failed: 3 (occupy 6%)</t>
+  </si>
+  <si>
+    <t>Testcase block: 0 (occupy 0%)</t>
   </si>
 </sst>
 </file>
@@ -3568,6 +3568,18 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3578,34 +3590,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3617,22 +3608,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3654,6 +3636,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5479,6 +5479,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5699,7 +5700,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6023,6 +6026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7652,7 +7656,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>525</v>
@@ -7687,7 +7691,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C16" s="84" t="s">
         <v>544</v>
@@ -7864,7 +7868,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B33" s="88"/>
       <c r="C33" s="88"/>
@@ -7907,7 +7911,7 @@
         <v>359</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>571</v>
@@ -8114,11 +8118,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="C58:D58"/>
@@ -8132,6 +8131,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8146,7 +8150,7 @@
   </sheetPr>
   <dimension ref="A2:J265"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D252" sqref="D252:D255"/>
     </sheetView>
   </sheetViews>
@@ -8164,13 +8168,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="54">
         <f>COUNTIF(I12:I265,"&gt;a0")</f>
         <v>51</v>
@@ -8178,11 +8182,11 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="115"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>51</v>
@@ -8190,55 +8194,55 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="116"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H265,"Passed")</f>
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H265,"Failed")</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H127,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -8310,13 +8314,13 @@
         <v>157</v>
       </c>
       <c r="D13" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>603</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>605</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>93</v>
@@ -8366,13 +8370,13 @@
         <v>159</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>609</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>93</v>
@@ -8393,13 +8397,13 @@
         <v>160</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>609</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>93</v>
@@ -8420,13 +8424,13 @@
         <v>161</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>609</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>93</v>
@@ -8441,7 +8445,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="61" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
@@ -8469,82 +8473,82 @@
       <c r="J20" s="51"/>
     </row>
     <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="96">
         <v>162</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="99" t="s">
+        <v>613</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>617</v>
-      </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="105" t="s">
         <v>204</v>
       </c>
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="109"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="103"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="109"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="2:10" ht="42" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25" spans="2:10" ht="42" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="33" t="s">
-        <v>622</v>
-      </c>
       <c r="F25" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="104"/>
+        <v>616</v>
+      </c>
+      <c r="G25" s="98"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="78"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8564,95 +8568,95 @@
       <c r="J26" s="51"/>
     </row>
     <row r="27" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="96">
         <v>163</v>
       </c>
-      <c r="D27" s="108" t="s">
-        <v>616</v>
+      <c r="D27" s="99" t="s">
+        <v>614</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="104"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="107"/>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -8670,7 +8674,7 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C34" s="60" t="str">
         <f>'Test Objectives'!B13</f>
@@ -8686,19 +8690,19 @@
     </row>
     <row r="35" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C35" s="79">
         <v>164</v>
       </c>
       <c r="D35" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>603</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>605</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>93</v>
@@ -8713,19 +8717,19 @@
     </row>
     <row r="36" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C36" s="79">
         <v>165</v>
       </c>
       <c r="D36" s="77" t="s">
+        <v>600</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="F36" s="33" t="s">
         <v>604</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>606</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>93</v>
@@ -8768,56 +8772,56 @@
       <c r="J38" s="51"/>
     </row>
     <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="96">
         <v>178</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="D39" s="99" t="s">
+        <v>624</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="33" t="s">
-        <v>628</v>
-      </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="103"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="106"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="110"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="G41" s="94"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="104"/>
+        <v>627</v>
+      </c>
+      <c r="G41" s="98"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8837,88 +8841,88 @@
       <c r="J42" s="51"/>
     </row>
     <row r="43" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="92">
+      <c r="C43" s="96">
         <v>179</v>
       </c>
-      <c r="D43" s="108" t="s">
-        <v>627</v>
+      <c r="D43" s="99" t="s">
+        <v>625</v>
       </c>
       <c r="E43" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="G44" s="97"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="78"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="G45" s="97"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="78"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="J43" s="45"/>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="F44" s="33" t="s">
+      <c r="F46" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="78"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="33" t="s">
+      <c r="G46" s="97"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="78"/>
+    </row>
+    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F47" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="G45" s="93"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="78"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="G46" s="93"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="78"/>
-    </row>
-    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="104"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="78"/>
     </row>
     <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8938,45 +8942,45 @@
       <c r="J48" s="51"/>
     </row>
     <row r="49" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="92">
+      <c r="C49" s="96">
         <v>180</v>
       </c>
-      <c r="D49" s="108" t="s">
+      <c r="D49" s="99" t="s">
+        <v>641</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="F49" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="G49" s="92" t="s">
+      <c r="G49" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="105" t="s">
+      <c r="H49" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="102" t="s">
+      <c r="I49" s="105" t="s">
         <v>456</v>
       </c>
       <c r="J49" s="45"/>
     </row>
     <row r="50" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="119"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="109"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="106"/>
       <c r="J50" s="45"/>
     </row>
     <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
@@ -9026,12 +9030,12 @@
       <c r="J54" s="45"/>
     </row>
     <row r="55" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="92" t="s">
         <v>546</v>
       </c>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="61"/>
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
@@ -9055,403 +9059,403 @@
       <c r="J56" s="51"/>
     </row>
     <row r="57" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="99" t="s">
+      <c r="B57" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="99">
+      <c r="C57" s="116">
         <v>166</v>
       </c>
-      <c r="D57" s="111" t="s">
+      <c r="D57" s="117" t="s">
+        <v>646</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="F57" s="33"/>
+      <c r="G57" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="45"/>
+    </row>
+    <row r="58" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="G58" s="116"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="45"/>
+    </row>
+    <row r="59" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G59" s="116"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="G60" s="116"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="45"/>
+    </row>
+    <row r="61" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="G61" s="116"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="45"/>
+    </row>
+    <row r="62" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="G62" s="116"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="45"/>
+    </row>
+    <row r="63" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B63" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="116">
+        <v>167</v>
+      </c>
+      <c r="D63" s="117" t="s">
+        <v>647</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" s="33"/>
+      <c r="G63" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" s="45"/>
+    </row>
+    <row r="64" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="G64" s="116"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="45"/>
+    </row>
+    <row r="65" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G65" s="116"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="45"/>
+    </row>
+    <row r="66" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="116"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="G66" s="116"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="45"/>
+    </row>
+    <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="G67" s="116"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="45"/>
+    </row>
+    <row r="68" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="G68" s="116"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="69" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="116" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="116">
+        <v>168</v>
+      </c>
+      <c r="D69" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="99" t="s">
+      <c r="E69" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="112" t="s">
+      <c r="H69" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="98" t="s">
+      <c r="I69" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="J57" s="45"/>
-    </row>
-    <row r="58" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="33" t="s">
+      <c r="J69" s="45"/>
+    </row>
+    <row r="70" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="116"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F70" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="G70" s="116"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="45"/>
+    </row>
+    <row r="71" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="116"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G71" s="116"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="45"/>
+    </row>
+    <row r="72" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="116"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F72" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="45"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="33" t="s">
+      <c r="G72" s="116"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="45"/>
+    </row>
+    <row r="73" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F73" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="45"/>
-    </row>
-    <row r="60" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="33" t="s">
+      <c r="G73" s="116"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="45"/>
+    </row>
+    <row r="74" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="F60" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="45"/>
-    </row>
-    <row r="61" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="45"/>
-    </row>
-    <row r="62" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="45"/>
-    </row>
-    <row r="63" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="99">
-        <v>167</v>
-      </c>
-      <c r="D63" s="111" t="s">
+      <c r="F74" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="G74" s="116"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="45"/>
+    </row>
+    <row r="75" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B75" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="96">
+        <v>169</v>
+      </c>
+      <c r="D75" s="117" t="s">
         <v>649</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E75" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="99" t="s">
+      <c r="F75" s="33"/>
+      <c r="G75" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H63" s="112" t="s">
+      <c r="H75" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="98" t="s">
+      <c r="I75" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="33" t="s">
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="116"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F76" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="G76" s="97"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="45"/>
+    </row>
+    <row r="77" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B77" s="116"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="G77" s="97"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="45"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="116"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F78" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="G64" s="99"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="45"/>
-    </row>
-    <row r="65" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="33" t="s">
+      <c r="G78" s="97"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="116"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F79" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="G65" s="99"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="45"/>
-    </row>
-    <row r="66" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="33" t="s">
+      <c r="G79" s="97"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="116"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="F66" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="45"/>
-    </row>
-    <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="G67" s="99"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="68" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="G68" s="99"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="45"/>
-    </row>
-    <row r="69" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="99" t="s">
-        <v>287</v>
-      </c>
-      <c r="C69" s="99">
-        <v>168</v>
-      </c>
-      <c r="D69" s="111" t="s">
-        <v>650</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="I69" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="J69" s="45"/>
-    </row>
-    <row r="70" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="G70" s="99"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="98"/>
-      <c r="J70" s="45"/>
-    </row>
-    <row r="71" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="G71" s="99"/>
-      <c r="H71" s="112"/>
-      <c r="I71" s="98"/>
-      <c r="J71" s="45"/>
-    </row>
-    <row r="72" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="G72" s="99"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="45"/>
-    </row>
-    <row r="73" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="G73" s="99"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="45"/>
-    </row>
-    <row r="74" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="G74" s="99"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="45"/>
-    </row>
-    <row r="75" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="99" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" s="92">
-        <v>169</v>
-      </c>
-      <c r="D75" s="111" t="s">
-        <v>651</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H75" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I75" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="J75" s="45"/>
-    </row>
-    <row r="76" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="99"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="G76" s="93"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="45"/>
-    </row>
-    <row r="77" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="99"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="G77" s="93"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="45"/>
-    </row>
-    <row r="78" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="99"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="99"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="G79" s="93"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="99"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="33" t="s">
-        <v>634</v>
-      </c>
       <c r="F80" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="98"/>
+        <v>716</v>
+      </c>
+      <c r="G80" s="97"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="115"/>
       <c r="J80" s="45"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -9478,13 +9482,13 @@
         <v>170</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>93</v>
@@ -9505,13 +9509,13 @@
         <v>171</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>93</v>
@@ -9532,13 +9536,13 @@
         <v>172</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E84" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="F84" s="33" t="s">
         <v>667</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>669</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>93</v>
@@ -9559,13 +9563,13 @@
         <v>173</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>93</v>
@@ -9579,12 +9583,12 @@
       <c r="J85" s="45"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="113" t="s">
+      <c r="B86" s="92" t="s">
         <v>534</v>
       </c>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="113"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="61"/>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
@@ -9615,13 +9619,13 @@
         <v>170</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G88" s="45" t="s">
         <v>93</v>
@@ -9636,19 +9640,19 @@
     </row>
     <row r="89" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C89" s="80">
         <v>171</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G89" s="45" t="s">
         <v>93</v>
@@ -9663,19 +9667,19 @@
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="45" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C90" s="80">
         <v>172</v>
       </c>
       <c r="D90" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="F90" s="33" t="s">
         <v>672</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>674</v>
       </c>
       <c r="G90" s="45" t="s">
         <v>93</v>
@@ -9690,19 +9694,19 @@
     </row>
     <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C91" s="80">
         <v>173</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G91" s="45" t="s">
         <v>93</v>
@@ -9716,12 +9720,12 @@
       <c r="J91" s="45"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="113"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="61"/>
       <c r="G92" s="61"/>
       <c r="H92" s="61"/>
@@ -9755,7 +9759,7 @@
         <v>380</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F94" s="33" t="s">
         <v>504</v>
@@ -9772,12 +9776,12 @@
       <c r="J94" s="45"/>
     </row>
     <row r="95" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="113" t="s">
+      <c r="B95" s="92" t="s">
         <v>555</v>
       </c>
-      <c r="C95" s="113"/>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
@@ -9808,13 +9812,13 @@
         <v>175</v>
       </c>
       <c r="D97" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="F97" s="33" t="s">
         <v>679</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>681</v>
       </c>
       <c r="G97" s="45" t="s">
         <v>93</v>
@@ -9828,12 +9832,12 @@
       <c r="J97" s="45"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="120" t="s">
+      <c r="B98" s="114" t="s">
         <v>557</v>
       </c>
-      <c r="C98" s="120"/>
-      <c r="D98" s="120"/>
-      <c r="E98" s="120"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
       <c r="F98" s="61"/>
       <c r="G98" s="61"/>
       <c r="H98" s="61"/>
@@ -9857,102 +9861,102 @@
       <c r="J99" s="44"/>
     </row>
     <row r="100" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="92"/>
-      <c r="D100" s="108" t="s">
+      <c r="C100" s="96"/>
+      <c r="D100" s="99" t="s">
+        <v>681</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H100" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="45"/>
+    </row>
+    <row r="101" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B101" s="94"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F101" s="45"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="45"/>
+    </row>
+    <row r="102" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B102" s="94"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="F102" s="45"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="106"/>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B103" s="94"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="100"/>
+      <c r="E103" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="97"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="45"/>
+    </row>
+    <row r="104" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B104" s="94"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="100"/>
+      <c r="E104" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="F104" s="45"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="45"/>
+    </row>
+    <row r="105" spans="2:10" ht="37.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B105" s="95"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="F105" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="F100" s="45"/>
-      <c r="G100" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H100" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I100" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="45"/>
-    </row>
-    <row r="101" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B101" s="96"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="33" t="s">
-        <v>687</v>
-      </c>
-      <c r="F101" s="45"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="45"/>
-    </row>
-    <row r="102" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B102" s="96"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="106"/>
-      <c r="I102" s="103"/>
-      <c r="J102" s="45"/>
-    </row>
-    <row r="103" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="96"/>
-      <c r="C103" s="93"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="93"/>
-      <c r="H103" s="106"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="45"/>
-    </row>
-    <row r="104" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="96"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="33" t="s">
-        <v>688</v>
-      </c>
-      <c r="F104" s="45"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="106"/>
-      <c r="I104" s="103"/>
-      <c r="J104" s="45"/>
-    </row>
-    <row r="105" spans="2:10" ht="37.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B105" s="97"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="G105" s="94"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="104"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="107"/>
       <c r="J105" s="45"/>
     </row>
     <row r="106" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="113" t="s">
+      <c r="B106" s="92" t="s">
         <v>560</v>
       </c>
-      <c r="C106" s="113"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="113"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
       <c r="F106" s="61"/>
       <c r="G106" s="61"/>
       <c r="H106" s="61"/>
@@ -9976,93 +9980,93 @@
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="108" t="s">
-        <v>691</v>
+      <c r="C108" s="96"/>
+      <c r="D108" s="99" t="s">
+        <v>689</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F108" s="33"/>
-      <c r="G108" s="92" t="s">
+      <c r="G108" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H108" s="105" t="s">
+      <c r="H108" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I108" s="102" t="s">
+      <c r="I108" s="105" t="s">
         <v>456</v>
       </c>
       <c r="J108" s="45"/>
     </row>
     <row r="109" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="93"/>
-      <c r="C109" s="93"/>
-      <c r="D109" s="109"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="100"/>
       <c r="E109" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F109" s="33"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="106"/>
-      <c r="I109" s="103"/>
+      <c r="G109" s="97"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="106"/>
       <c r="J109" s="45"/>
     </row>
     <row r="110" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="93"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="109"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="100"/>
       <c r="E110" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="97"/>
+      <c r="H110" s="103"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="45"/>
+    </row>
+    <row r="111" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="97"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F111" s="33"/>
+      <c r="G111" s="97"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="45"/>
+    </row>
+    <row r="112" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B112" s="97"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="100"/>
+      <c r="E112" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="F112" s="33"/>
+      <c r="G112" s="97"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="45"/>
+    </row>
+    <row r="113" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="93"/>
-      <c r="H110" s="106"/>
-      <c r="I110" s="103"/>
-      <c r="J110" s="45"/>
-    </row>
-    <row r="111" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="93"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="45"/>
-    </row>
-    <row r="112" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="93"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="93"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="103"/>
-      <c r="J112" s="45"/>
-    </row>
-    <row r="113" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B113" s="94"/>
-      <c r="C113" s="94"/>
-      <c r="D113" s="110"/>
-      <c r="E113" s="33" t="s">
-        <v>696</v>
-      </c>
       <c r="F113" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="G113" s="94"/>
-      <c r="H113" s="107"/>
-      <c r="I113" s="104"/>
+        <v>688</v>
+      </c>
+      <c r="G113" s="98"/>
+      <c r="H113" s="104"/>
+      <c r="I113" s="107"/>
       <c r="J113" s="45"/>
     </row>
     <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -10082,93 +10086,93 @@
       <c r="J114" s="44"/>
     </row>
     <row r="115" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="C115" s="92"/>
-      <c r="D115" s="108" t="s">
-        <v>692</v>
+      <c r="C115" s="96"/>
+      <c r="D115" s="99" t="s">
+        <v>690</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F115" s="33"/>
-      <c r="G115" s="92" t="s">
+      <c r="G115" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H115" s="105" t="s">
+      <c r="H115" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="102" t="s">
+      <c r="I115" s="105" t="s">
         <v>456</v>
       </c>
       <c r="J115" s="45"/>
     </row>
     <row r="116" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="109"/>
+      <c r="B116" s="97"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="100"/>
       <c r="E116" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F116" s="33"/>
-      <c r="G116" s="93"/>
-      <c r="H116" s="106"/>
-      <c r="I116" s="103"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="103"/>
+      <c r="I116" s="106"/>
       <c r="J116" s="45"/>
     </row>
     <row r="117" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="109"/>
+      <c r="B117" s="97"/>
+      <c r="C117" s="97"/>
+      <c r="D117" s="100"/>
       <c r="E117" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F117" s="33"/>
-      <c r="G117" s="93"/>
-      <c r="H117" s="106"/>
-      <c r="I117" s="103"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="106"/>
       <c r="J117" s="45"/>
     </row>
     <row r="118" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
-      <c r="D118" s="109"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="100"/>
       <c r="E118" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F118" s="33"/>
-      <c r="G118" s="93"/>
-      <c r="H118" s="106"/>
-      <c r="I118" s="103"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="106"/>
       <c r="J118" s="45"/>
     </row>
     <row r="119" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="93"/>
-      <c r="C119" s="93"/>
-      <c r="D119" s="109"/>
+      <c r="B119" s="97"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="100"/>
       <c r="E119" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F119" s="33"/>
-      <c r="G119" s="93"/>
-      <c r="H119" s="106"/>
-      <c r="I119" s="103"/>
+      <c r="G119" s="97"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="106"/>
       <c r="J119" s="45"/>
     </row>
     <row r="120" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="94"/>
-      <c r="C120" s="94"/>
-      <c r="D120" s="110"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="101"/>
       <c r="E120" s="33" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="G120" s="94"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="104"/>
+        <v>688</v>
+      </c>
+      <c r="G120" s="98"/>
+      <c r="H120" s="104"/>
+      <c r="I120" s="107"/>
       <c r="J120" s="45"/>
     </row>
     <row r="121" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -10188,102 +10192,102 @@
       <c r="J121" s="44"/>
     </row>
     <row r="122" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="92" t="s">
+      <c r="B122" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="C122" s="92"/>
-      <c r="D122" s="108" t="s">
+      <c r="C122" s="96"/>
+      <c r="D122" s="99" t="s">
+        <v>691</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="F122" s="33"/>
+      <c r="G122" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H122" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122" s="105" t="s">
+        <v>456</v>
+      </c>
+      <c r="J122" s="45"/>
+    </row>
+    <row r="123" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="100"/>
+      <c r="E123" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="106"/>
+      <c r="J123" s="45"/>
+    </row>
+    <row r="124" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="97"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="100"/>
+      <c r="E124" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F124" s="33"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="103"/>
+      <c r="I124" s="106"/>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="97"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="100"/>
+      <c r="E125" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F125" s="33"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="45"/>
+    </row>
+    <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B126" s="97"/>
+      <c r="C126" s="97"/>
+      <c r="D126" s="100"/>
+      <c r="E126" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="E122" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H122" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I122" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="J122" s="45"/>
-    </row>
-    <row r="123" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="93"/>
-      <c r="C123" s="93"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="93"/>
-      <c r="H123" s="106"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="45"/>
-    </row>
-    <row r="124" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="93"/>
-      <c r="C124" s="93"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="F124" s="33"/>
-      <c r="G124" s="93"/>
-      <c r="H124" s="106"/>
-      <c r="I124" s="103"/>
-      <c r="J124" s="45"/>
-    </row>
-    <row r="125" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="93"/>
-      <c r="C125" s="93"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="93"/>
-      <c r="H125" s="106"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="45"/>
-    </row>
-    <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B126" s="93"/>
-      <c r="C126" s="93"/>
-      <c r="D126" s="109"/>
-      <c r="E126" s="33" t="s">
-        <v>695</v>
-      </c>
       <c r="F126" s="33"/>
-      <c r="G126" s="93"/>
-      <c r="H126" s="106"/>
-      <c r="I126" s="103"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="106"/>
       <c r="J126" s="45"/>
     </row>
     <row r="127" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B127" s="94"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="110"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="101"/>
       <c r="E127" s="33" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="G127" s="94"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="104"/>
+        <v>688</v>
+      </c>
+      <c r="G127" s="98"/>
+      <c r="H127" s="104"/>
+      <c r="I127" s="107"/>
       <c r="J127" s="45"/>
     </row>
     <row r="128" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="113" t="s">
-        <v>774</v>
-      </c>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="113"/>
+      <c r="B128" s="92" t="s">
+        <v>772</v>
+      </c>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
       <c r="F128" s="61"/>
       <c r="G128" s="61"/>
       <c r="H128" s="61"/>
@@ -10307,104 +10311,104 @@
       <c r="J129" s="44"/>
     </row>
     <row r="130" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="92" t="s">
+      <c r="B130" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="C130" s="92">
+      <c r="C130" s="96">
         <v>176</v>
       </c>
-      <c r="D130" s="108" t="s">
+      <c r="D130" s="99" t="s">
+        <v>774</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="F130" s="33"/>
+      <c r="G130" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H130" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I130" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J130" s="45"/>
+    </row>
+    <row r="131" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B131" s="97"/>
+      <c r="C131" s="97"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="F131" s="33"/>
+      <c r="G131" s="97"/>
+      <c r="H131" s="103"/>
+      <c r="I131" s="106"/>
+      <c r="J131" s="45"/>
+    </row>
+    <row r="132" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B132" s="97"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="100"/>
+      <c r="E132" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="103"/>
+      <c r="I132" s="106"/>
+      <c r="J132" s="45"/>
+    </row>
+    <row r="133" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="97"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="100"/>
+      <c r="E133" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="F133" s="33"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="103"/>
+      <c r="I133" s="106"/>
+      <c r="J133" s="45"/>
+    </row>
+    <row r="134" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B134" s="97"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="100"/>
+      <c r="E134" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F134" s="33"/>
+      <c r="G134" s="97"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="106"/>
+      <c r="J134" s="45"/>
+    </row>
+    <row r="135" spans="2:10" ht="50.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B135" s="98"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="33" t="s">
         <v>776</v>
       </c>
-      <c r="E130" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H130" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I130" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="J130" s="45"/>
-    </row>
-    <row r="131" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="93"/>
-      <c r="C131" s="93"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="93"/>
-      <c r="H131" s="106"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="45"/>
-    </row>
-    <row r="132" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="93"/>
-      <c r="C132" s="93"/>
-      <c r="D132" s="109"/>
-      <c r="E132" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="93"/>
-      <c r="H132" s="106"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="45"/>
-    </row>
-    <row r="133" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="93"/>
-      <c r="C133" s="93"/>
-      <c r="D133" s="109"/>
-      <c r="E133" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F133" s="33"/>
-      <c r="G133" s="93"/>
-      <c r="H133" s="106"/>
-      <c r="I133" s="103"/>
-      <c r="J133" s="45"/>
-    </row>
-    <row r="134" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="93"/>
-      <c r="C134" s="93"/>
-      <c r="D134" s="109"/>
-      <c r="E134" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="93"/>
-      <c r="H134" s="106"/>
-      <c r="I134" s="103"/>
-      <c r="J134" s="45"/>
-    </row>
-    <row r="135" spans="2:10" ht="50.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="94"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="110"/>
-      <c r="E135" s="33" t="s">
-        <v>778</v>
-      </c>
       <c r="F135" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="G135" s="94"/>
-      <c r="H135" s="107"/>
-      <c r="I135" s="104"/>
+        <v>696</v>
+      </c>
+      <c r="G135" s="98"/>
+      <c r="H135" s="104"/>
+      <c r="I135" s="107"/>
       <c r="J135" s="45"/>
     </row>
     <row r="136" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="113" t="s">
+      <c r="B136" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="C136" s="113"/>
-      <c r="D136" s="113"/>
-      <c r="E136" s="113"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
       <c r="F136" s="61"/>
       <c r="G136" s="61"/>
       <c r="H136" s="61"/>
@@ -10435,13 +10439,13 @@
         <v>181</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G138" s="45" t="s">
         <v>93</v>
@@ -10462,13 +10466,13 @@
         <v>182</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G139" s="45" t="s">
         <v>93</v>
@@ -10489,13 +10493,13 @@
         <v>183</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G140" s="45" t="s">
         <v>93</v>
@@ -10510,19 +10514,19 @@
     </row>
     <row r="141" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C141" s="81">
         <v>184</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G141" s="45" t="s">
         <v>93</v>
@@ -10539,11 +10543,11 @@
       <c r="B142" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="C142" s="100" t="str">
+      <c r="C142" s="119" t="str">
         <f>'Test Objectives'!B37</f>
         <v>Pagination</v>
       </c>
-      <c r="D142" s="101"/>
+      <c r="D142" s="120"/>
       <c r="E142" s="44"/>
       <c r="F142" s="44"/>
       <c r="G142" s="44"/>
@@ -10552,464 +10556,464 @@
       <c r="J142" s="44"/>
     </row>
     <row r="143" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="95" t="s">
+      <c r="B143" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="C143" s="92">
+      <c r="C143" s="96">
         <v>185</v>
       </c>
-      <c r="D143" s="108" t="s">
-        <v>721</v>
+      <c r="D143" s="99" t="s">
+        <v>719</v>
       </c>
       <c r="E143" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="F143" s="45"/>
+      <c r="G143" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I143" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="J143" s="45"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B144" s="94"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="100"/>
+      <c r="E144" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F144" s="45"/>
+      <c r="G144" s="97"/>
+      <c r="H144" s="103"/>
+      <c r="I144" s="106"/>
+      <c r="J144" s="45"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B145" s="94"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="100"/>
+      <c r="E145" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G145" s="97"/>
+      <c r="H145" s="103"/>
+      <c r="I145" s="106"/>
+      <c r="J145" s="45"/>
+    </row>
+    <row r="146" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B146" s="94"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G146" s="97"/>
+      <c r="H146" s="103"/>
+      <c r="I146" s="106"/>
+      <c r="J146" s="45"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B147" s="94"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="100"/>
+      <c r="E147" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="G147" s="97"/>
+      <c r="H147" s="103"/>
+      <c r="I147" s="106"/>
+      <c r="J147" s="45"/>
+    </row>
+    <row r="148" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B148" s="94"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="100"/>
+      <c r="E148" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="G148" s="97"/>
+      <c r="H148" s="103"/>
+      <c r="I148" s="106"/>
+      <c r="J148" s="45"/>
+    </row>
+    <row r="149" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B149" s="95"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="G149" s="98"/>
+      <c r="H149" s="104"/>
+      <c r="I149" s="107"/>
+      <c r="J149" s="45"/>
+    </row>
+    <row r="150" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B150" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" s="96">
+        <v>186</v>
+      </c>
+      <c r="D150" s="99" t="s">
+        <v>719</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="F150" s="45"/>
+      <c r="G150" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I150" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="J150" s="45"/>
+    </row>
+    <row r="151" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B151" s="94"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="100"/>
+      <c r="E151" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F151" s="45"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="103"/>
+      <c r="I151" s="106"/>
+      <c r="J151" s="45"/>
+    </row>
+    <row r="152" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B152" s="94"/>
+      <c r="C152" s="97"/>
+      <c r="D152" s="100"/>
+      <c r="E152" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G152" s="97"/>
+      <c r="H152" s="103"/>
+      <c r="I152" s="106"/>
+      <c r="J152" s="45"/>
+    </row>
+    <row r="153" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B153" s="94"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="100"/>
+      <c r="E153" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G153" s="97"/>
+      <c r="H153" s="103"/>
+      <c r="I153" s="106"/>
+      <c r="J153" s="45"/>
+    </row>
+    <row r="154" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B154" s="94"/>
+      <c r="C154" s="97"/>
+      <c r="D154" s="100"/>
+      <c r="E154" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F154" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="G154" s="97"/>
+      <c r="H154" s="103"/>
+      <c r="I154" s="106"/>
+      <c r="J154" s="45"/>
+    </row>
+    <row r="155" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B155" s="94"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="100"/>
+      <c r="E155" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F155" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="G155" s="97"/>
+      <c r="H155" s="103"/>
+      <c r="I155" s="106"/>
+      <c r="J155" s="45"/>
+    </row>
+    <row r="156" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B156" s="95"/>
+      <c r="C156" s="98"/>
+      <c r="D156" s="101"/>
+      <c r="E156" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="F156" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="G156" s="98"/>
+      <c r="H156" s="104"/>
+      <c r="I156" s="107"/>
+      <c r="J156" s="45"/>
+    </row>
+    <row r="157" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B157" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="C157" s="96">
+        <v>187</v>
+      </c>
+      <c r="D157" s="99" t="s">
+        <v>719</v>
+      </c>
+      <c r="E157" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="F143" s="45"/>
-      <c r="G143" s="92" t="s">
+      <c r="F157" s="45"/>
+      <c r="G157" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H143" s="105" t="s">
+      <c r="H157" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I143" s="102" t="s">
+      <c r="I157" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="J143" s="45"/>
-    </row>
-    <row r="144" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B144" s="96"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="109"/>
-      <c r="E144" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="F144" s="45"/>
-      <c r="G144" s="93"/>
-      <c r="H144" s="106"/>
-      <c r="I144" s="103"/>
-      <c r="J144" s="45"/>
-    </row>
-    <row r="145" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B145" s="96"/>
-      <c r="C145" s="93"/>
-      <c r="D145" s="109"/>
-      <c r="E145" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F145" s="33" t="s">
+      <c r="J157" s="45"/>
+    </row>
+    <row r="158" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B158" s="94"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="100"/>
+      <c r="E158" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F158" s="45"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="103"/>
+      <c r="I158" s="106"/>
+      <c r="J158" s="45"/>
+    </row>
+    <row r="159" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B159" s="94"/>
+      <c r="C159" s="97"/>
+      <c r="D159" s="100"/>
+      <c r="E159" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="F159" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G159" s="97"/>
+      <c r="H159" s="103"/>
+      <c r="I159" s="106"/>
+      <c r="J159" s="45"/>
+    </row>
+    <row r="160" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B160" s="94"/>
+      <c r="C160" s="97"/>
+      <c r="D160" s="100"/>
+      <c r="E160" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G160" s="97"/>
+      <c r="H160" s="103"/>
+      <c r="I160" s="106"/>
+      <c r="J160" s="45"/>
+    </row>
+    <row r="161" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B161" s="94"/>
+      <c r="C161" s="97"/>
+      <c r="D161" s="100"/>
+      <c r="E161" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F161" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="G145" s="93"/>
-      <c r="H145" s="106"/>
-      <c r="I145" s="103"/>
-      <c r="J145" s="45"/>
-    </row>
-    <row r="146" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="96"/>
-      <c r="C146" s="93"/>
-      <c r="D146" s="109"/>
-      <c r="E146" s="33" t="s">
+      <c r="G161" s="97"/>
+      <c r="H161" s="103"/>
+      <c r="I161" s="106"/>
+      <c r="J161" s="45"/>
+    </row>
+    <row r="162" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B162" s="94"/>
+      <c r="C162" s="97"/>
+      <c r="D162" s="100"/>
+      <c r="E162" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="F146" s="33" t="s">
+      <c r="F162" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="G162" s="97"/>
+      <c r="H162" s="103"/>
+      <c r="I162" s="106"/>
+      <c r="J162" s="45"/>
+    </row>
+    <row r="163" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B163" s="95"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="101"/>
+      <c r="E163" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="F163" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G146" s="93"/>
-      <c r="H146" s="106"/>
-      <c r="I146" s="103"/>
-      <c r="J146" s="45"/>
-    </row>
-    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="96"/>
-      <c r="C147" s="93"/>
-      <c r="D147" s="109"/>
-      <c r="E147" s="33" t="s">
+      <c r="G163" s="98"/>
+      <c r="H163" s="104"/>
+      <c r="I163" s="107"/>
+      <c r="J163" s="45"/>
+    </row>
+    <row r="164" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B164" s="93" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="96">
+        <v>188</v>
+      </c>
+      <c r="D164" s="99" t="s">
+        <v>719</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="F164" s="45"/>
+      <c r="G164" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H164" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I164" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="J164" s="45"/>
+    </row>
+    <row r="165" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B165" s="94"/>
+      <c r="C165" s="97"/>
+      <c r="D165" s="100"/>
+      <c r="E165" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="F165" s="45"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="103"/>
+      <c r="I165" s="106"/>
+      <c r="J165" s="45"/>
+    </row>
+    <row r="166" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B166" s="94"/>
+      <c r="C166" s="97"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="F166" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G166" s="97"/>
+      <c r="H166" s="103"/>
+      <c r="I166" s="106"/>
+      <c r="J166" s="45"/>
+    </row>
+    <row r="167" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B167" s="94"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="100"/>
+      <c r="E167" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="F167" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G167" s="97"/>
+      <c r="H167" s="103"/>
+      <c r="I167" s="106"/>
+      <c r="J167" s="45"/>
+    </row>
+    <row r="168" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B168" s="94"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="100"/>
+      <c r="E168" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="G168" s="97"/>
+      <c r="H168" s="103"/>
+      <c r="I168" s="106"/>
+      <c r="J168" s="45"/>
+    </row>
+    <row r="169" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B169" s="94"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="100"/>
+      <c r="E169" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="G169" s="97"/>
+      <c r="H169" s="103"/>
+      <c r="I169" s="106"/>
+      <c r="J169" s="45"/>
+    </row>
+    <row r="170" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B170" s="95"/>
+      <c r="C170" s="98"/>
+      <c r="D170" s="101"/>
+      <c r="E170" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="F147" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G147" s="93"/>
-      <c r="H147" s="106"/>
-      <c r="I147" s="103"/>
-      <c r="J147" s="45"/>
-    </row>
-    <row r="148" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B148" s="96"/>
-      <c r="C148" s="93"/>
-      <c r="D148" s="109"/>
-      <c r="E148" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="F148" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="G148" s="93"/>
-      <c r="H148" s="106"/>
-      <c r="I148" s="103"/>
-      <c r="J148" s="45"/>
-    </row>
-    <row r="149" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B149" s="97"/>
-      <c r="C149" s="94"/>
-      <c r="D149" s="110"/>
-      <c r="E149" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="G149" s="94"/>
-      <c r="H149" s="107"/>
-      <c r="I149" s="104"/>
-      <c r="J149" s="45"/>
-    </row>
-    <row r="150" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B150" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="C150" s="92">
-        <v>186</v>
-      </c>
-      <c r="D150" s="108" t="s">
-        <v>721</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="F150" s="45"/>
-      <c r="G150" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H150" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I150" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="J150" s="45"/>
-    </row>
-    <row r="151" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B151" s="96"/>
-      <c r="C151" s="93"/>
-      <c r="D151" s="109"/>
-      <c r="E151" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="F151" s="45"/>
-      <c r="G151" s="93"/>
-      <c r="H151" s="106"/>
-      <c r="I151" s="103"/>
-      <c r="J151" s="45"/>
-    </row>
-    <row r="152" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B152" s="96"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="109"/>
-      <c r="E152" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="G152" s="93"/>
-      <c r="H152" s="106"/>
-      <c r="I152" s="103"/>
-      <c r="J152" s="45"/>
-    </row>
-    <row r="153" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B153" s="96"/>
-      <c r="C153" s="93"/>
-      <c r="D153" s="109"/>
-      <c r="E153" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F153" s="33" t="s">
+      <c r="F170" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G153" s="93"/>
-      <c r="H153" s="106"/>
-      <c r="I153" s="103"/>
-      <c r="J153" s="45"/>
-    </row>
-    <row r="154" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B154" s="96"/>
-      <c r="C154" s="93"/>
-      <c r="D154" s="109"/>
-      <c r="E154" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F154" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G154" s="93"/>
-      <c r="H154" s="106"/>
-      <c r="I154" s="103"/>
-      <c r="J154" s="45"/>
-    </row>
-    <row r="155" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="96"/>
-      <c r="C155" s="93"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="F155" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="G155" s="93"/>
-      <c r="H155" s="106"/>
-      <c r="I155" s="103"/>
-      <c r="J155" s="45"/>
-    </row>
-    <row r="156" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="97"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="110"/>
-      <c r="E156" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="F156" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="G156" s="94"/>
-      <c r="H156" s="107"/>
-      <c r="I156" s="104"/>
-      <c r="J156" s="45"/>
-    </row>
-    <row r="157" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B157" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="C157" s="92">
-        <v>187</v>
-      </c>
-      <c r="D157" s="108" t="s">
-        <v>721</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="F157" s="45"/>
-      <c r="G157" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H157" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I157" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="J157" s="45"/>
-    </row>
-    <row r="158" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B158" s="96"/>
-      <c r="C158" s="93"/>
-      <c r="D158" s="109"/>
-      <c r="E158" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="F158" s="45"/>
-      <c r="G158" s="93"/>
-      <c r="H158" s="106"/>
-      <c r="I158" s="103"/>
-      <c r="J158" s="45"/>
-    </row>
-    <row r="159" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B159" s="96"/>
-      <c r="C159" s="93"/>
-      <c r="D159" s="109"/>
-      <c r="E159" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="F159" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="G159" s="93"/>
-      <c r="H159" s="106"/>
-      <c r="I159" s="103"/>
-      <c r="J159" s="45"/>
-    </row>
-    <row r="160" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="96"/>
-      <c r="C160" s="93"/>
-      <c r="D160" s="109"/>
-      <c r="E160" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F160" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="G160" s="93"/>
-      <c r="H160" s="106"/>
-      <c r="I160" s="103"/>
-      <c r="J160" s="45"/>
-    </row>
-    <row r="161" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="96"/>
-      <c r="C161" s="93"/>
-      <c r="D161" s="109"/>
-      <c r="E161" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F161" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G161" s="93"/>
-      <c r="H161" s="106"/>
-      <c r="I161" s="103"/>
-      <c r="J161" s="45"/>
-    </row>
-    <row r="162" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B162" s="96"/>
-      <c r="C162" s="93"/>
-      <c r="D162" s="109"/>
-      <c r="E162" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="G162" s="93"/>
-      <c r="H162" s="106"/>
-      <c r="I162" s="103"/>
-      <c r="J162" s="45"/>
-    </row>
-    <row r="163" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="97"/>
-      <c r="C163" s="94"/>
-      <c r="D163" s="110"/>
-      <c r="E163" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="F163" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="G163" s="94"/>
-      <c r="H163" s="107"/>
-      <c r="I163" s="104"/>
-      <c r="J163" s="45"/>
-    </row>
-    <row r="164" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="95" t="s">
-        <v>481</v>
-      </c>
-      <c r="C164" s="92">
-        <v>188</v>
-      </c>
-      <c r="D164" s="108" t="s">
-        <v>721</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="F164" s="45"/>
-      <c r="G164" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H164" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I164" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="J164" s="45"/>
-    </row>
-    <row r="165" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B165" s="96"/>
-      <c r="C165" s="93"/>
-      <c r="D165" s="109"/>
-      <c r="E165" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="F165" s="45"/>
-      <c r="G165" s="93"/>
-      <c r="H165" s="106"/>
-      <c r="I165" s="103"/>
-      <c r="J165" s="45"/>
-    </row>
-    <row r="166" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B166" s="96"/>
-      <c r="C166" s="93"/>
-      <c r="D166" s="109"/>
-      <c r="E166" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="F166" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="G166" s="93"/>
-      <c r="H166" s="106"/>
-      <c r="I166" s="103"/>
-      <c r="J166" s="45"/>
-    </row>
-    <row r="167" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="96"/>
-      <c r="C167" s="93"/>
-      <c r="D167" s="109"/>
-      <c r="E167" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F167" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="G167" s="93"/>
-      <c r="H167" s="106"/>
-      <c r="I167" s="103"/>
-      <c r="J167" s="45"/>
-    </row>
-    <row r="168" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B168" s="96"/>
-      <c r="C168" s="93"/>
-      <c r="D168" s="109"/>
-      <c r="E168" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="F168" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G168" s="93"/>
-      <c r="H168" s="106"/>
-      <c r="I168" s="103"/>
-      <c r="J168" s="45"/>
-    </row>
-    <row r="169" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="96"/>
-      <c r="C169" s="93"/>
-      <c r="D169" s="109"/>
-      <c r="E169" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="F169" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="G169" s="93"/>
-      <c r="H169" s="106"/>
-      <c r="I169" s="103"/>
-      <c r="J169" s="45"/>
-    </row>
-    <row r="170" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="97"/>
-      <c r="C170" s="94"/>
-      <c r="D170" s="110"/>
-      <c r="E170" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="F170" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="G170" s="94"/>
-      <c r="H170" s="107"/>
-      <c r="I170" s="104"/>
+      <c r="G170" s="98"/>
+      <c r="H170" s="104"/>
+      <c r="I170" s="107"/>
       <c r="J170" s="45"/>
     </row>
     <row r="171" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="113" t="s">
+      <c r="B171" s="92" t="s">
         <v>572</v>
       </c>
-      <c r="C171" s="113"/>
-      <c r="D171" s="113"/>
-      <c r="E171" s="113"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="92"/>
       <c r="F171" s="61"/>
       <c r="G171" s="61"/>
       <c r="H171" s="61"/>
@@ -11033,99 +11037,99 @@
       <c r="J172" s="44"/>
     </row>
     <row r="173" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B173" s="95" t="s">
+      <c r="B173" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="C173" s="92">
+      <c r="C173" s="96">
         <v>189</v>
       </c>
-      <c r="D173" s="108" t="s">
-        <v>740</v>
+      <c r="D173" s="99" t="s">
+        <v>738</v>
       </c>
       <c r="E173" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="F173" s="45"/>
+      <c r="G173" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H173" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I173" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J173" s="45"/>
+    </row>
+    <row r="174" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B174" s="94"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="100"/>
+      <c r="E174" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="F174" s="45"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="103"/>
+      <c r="I174" s="106"/>
+      <c r="J174" s="45"/>
+    </row>
+    <row r="175" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B175" s="94"/>
+      <c r="C175" s="97"/>
+      <c r="D175" s="100"/>
+      <c r="E175" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="F175" s="45"/>
+      <c r="G175" s="97"/>
+      <c r="H175" s="103"/>
+      <c r="I175" s="106"/>
+      <c r="J175" s="45"/>
+    </row>
+    <row r="176" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B176" s="94"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="100"/>
+      <c r="E176" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G176" s="97"/>
+      <c r="H176" s="103"/>
+      <c r="I176" s="106"/>
+      <c r="J176" s="45"/>
+    </row>
+    <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B177" s="94"/>
+      <c r="C177" s="97"/>
+      <c r="D177" s="100"/>
+      <c r="E177" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G177" s="97"/>
+      <c r="H177" s="103"/>
+      <c r="I177" s="106"/>
+      <c r="J177" s="45"/>
+    </row>
+    <row r="178" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B178" s="95"/>
+      <c r="C178" s="98"/>
+      <c r="D178" s="101"/>
+      <c r="E178" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="F173" s="45"/>
-      <c r="G173" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H173" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I173" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J173" s="45"/>
-    </row>
-    <row r="174" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B174" s="96"/>
-      <c r="C174" s="93"/>
-      <c r="D174" s="109"/>
-      <c r="E174" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="F174" s="45"/>
-      <c r="G174" s="93"/>
-      <c r="H174" s="106"/>
-      <c r="I174" s="103"/>
-      <c r="J174" s="45"/>
-    </row>
-    <row r="175" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="96"/>
-      <c r="C175" s="93"/>
-      <c r="D175" s="109"/>
-      <c r="E175" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="F175" s="45"/>
-      <c r="G175" s="93"/>
-      <c r="H175" s="106"/>
-      <c r="I175" s="103"/>
-      <c r="J175" s="45"/>
-    </row>
-    <row r="176" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="96"/>
-      <c r="C176" s="93"/>
-      <c r="D176" s="109"/>
-      <c r="E176" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F176" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G176" s="93"/>
-      <c r="H176" s="106"/>
-      <c r="I176" s="103"/>
-      <c r="J176" s="45"/>
-    </row>
-    <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="96"/>
-      <c r="C177" s="93"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G177" s="93"/>
-      <c r="H177" s="106"/>
-      <c r="I177" s="103"/>
-      <c r="J177" s="45"/>
-    </row>
-    <row r="178" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B178" s="97"/>
-      <c r="C178" s="94"/>
-      <c r="D178" s="110"/>
-      <c r="E178" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="F178" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G178" s="94"/>
-      <c r="H178" s="107"/>
-      <c r="I178" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G178" s="98"/>
+      <c r="H178" s="104"/>
+      <c r="I178" s="107"/>
       <c r="J178" s="45"/>
     </row>
     <row r="179" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11145,99 +11149,99 @@
       <c r="J179" s="44"/>
     </row>
     <row r="180" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B180" s="95" t="s">
+      <c r="B180" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="C180" s="92">
+      <c r="C180" s="96">
         <v>190</v>
       </c>
-      <c r="D180" s="108" t="s">
-        <v>741</v>
+      <c r="D180" s="99" t="s">
+        <v>739</v>
       </c>
       <c r="E180" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="F180" s="45"/>
+      <c r="G180" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H180" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I180" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J180" s="45"/>
+    </row>
+    <row r="181" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B181" s="94"/>
+      <c r="C181" s="97"/>
+      <c r="D181" s="100"/>
+      <c r="E181" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="F181" s="45"/>
+      <c r="G181" s="97"/>
+      <c r="H181" s="103"/>
+      <c r="I181" s="106"/>
+      <c r="J181" s="45"/>
+    </row>
+    <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B182" s="94"/>
+      <c r="C182" s="97"/>
+      <c r="D182" s="100"/>
+      <c r="E182" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="F182" s="45"/>
+      <c r="G182" s="97"/>
+      <c r="H182" s="103"/>
+      <c r="I182" s="106"/>
+      <c r="J182" s="45"/>
+    </row>
+    <row r="183" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B183" s="94"/>
+      <c r="C183" s="97"/>
+      <c r="D183" s="100"/>
+      <c r="E183" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G183" s="97"/>
+      <c r="H183" s="103"/>
+      <c r="I183" s="106"/>
+      <c r="J183" s="45"/>
+    </row>
+    <row r="184" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B184" s="94"/>
+      <c r="C184" s="97"/>
+      <c r="D184" s="100"/>
+      <c r="E184" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G184" s="97"/>
+      <c r="H184" s="103"/>
+      <c r="I184" s="106"/>
+      <c r="J184" s="45"/>
+    </row>
+    <row r="185" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B185" s="95"/>
+      <c r="C185" s="98"/>
+      <c r="D185" s="101"/>
+      <c r="E185" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="F180" s="45"/>
-      <c r="G180" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H180" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I180" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J180" s="45"/>
-    </row>
-    <row r="181" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B181" s="96"/>
-      <c r="C181" s="93"/>
-      <c r="D181" s="109"/>
-      <c r="E181" s="45" t="s">
-        <v>731</v>
-      </c>
-      <c r="F181" s="45"/>
-      <c r="G181" s="93"/>
-      <c r="H181" s="106"/>
-      <c r="I181" s="103"/>
-      <c r="J181" s="45"/>
-    </row>
-    <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="96"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="109"/>
-      <c r="E182" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="F182" s="45"/>
-      <c r="G182" s="93"/>
-      <c r="H182" s="106"/>
-      <c r="I182" s="103"/>
-      <c r="J182" s="45"/>
-    </row>
-    <row r="183" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B183" s="96"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="109"/>
-      <c r="E183" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G183" s="93"/>
-      <c r="H183" s="106"/>
-      <c r="I183" s="103"/>
-      <c r="J183" s="45"/>
-    </row>
-    <row r="184" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B184" s="96"/>
-      <c r="C184" s="93"/>
-      <c r="D184" s="109"/>
-      <c r="E184" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="F184" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G184" s="93"/>
-      <c r="H184" s="106"/>
-      <c r="I184" s="103"/>
-      <c r="J184" s="45"/>
-    </row>
-    <row r="185" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B185" s="97"/>
-      <c r="C185" s="94"/>
-      <c r="D185" s="110"/>
-      <c r="E185" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="F185" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G185" s="94"/>
-      <c r="H185" s="107"/>
-      <c r="I185" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G185" s="98"/>
+      <c r="H185" s="104"/>
+      <c r="I185" s="107"/>
       <c r="J185" s="45"/>
     </row>
     <row r="186" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11257,99 +11261,99 @@
       <c r="J186" s="44"/>
     </row>
     <row r="187" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B187" s="95" t="s">
+      <c r="B187" s="93" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="92">
+      <c r="C187" s="96">
         <v>191</v>
       </c>
-      <c r="D187" s="108" t="s">
-        <v>742</v>
+      <c r="D187" s="99" t="s">
+        <v>740</v>
       </c>
       <c r="E187" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="F187" s="45"/>
+      <c r="G187" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H187" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I187" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J187" s="45"/>
+    </row>
+    <row r="188" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B188" s="94"/>
+      <c r="C188" s="97"/>
+      <c r="D188" s="100"/>
+      <c r="E188" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="F188" s="45"/>
+      <c r="G188" s="97"/>
+      <c r="H188" s="103"/>
+      <c r="I188" s="106"/>
+      <c r="J188" s="45"/>
+    </row>
+    <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B189" s="94"/>
+      <c r="C189" s="97"/>
+      <c r="D189" s="100"/>
+      <c r="E189" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="F189" s="45"/>
+      <c r="G189" s="97"/>
+      <c r="H189" s="103"/>
+      <c r="I189" s="106"/>
+      <c r="J189" s="45"/>
+    </row>
+    <row r="190" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B190" s="94"/>
+      <c r="C190" s="97"/>
+      <c r="D190" s="100"/>
+      <c r="E190" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G190" s="97"/>
+      <c r="H190" s="103"/>
+      <c r="I190" s="106"/>
+      <c r="J190" s="45"/>
+    </row>
+    <row r="191" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B191" s="94"/>
+      <c r="C191" s="97"/>
+      <c r="D191" s="100"/>
+      <c r="E191" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F191" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G191" s="97"/>
+      <c r="H191" s="103"/>
+      <c r="I191" s="106"/>
+      <c r="J191" s="45"/>
+    </row>
+    <row r="192" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B192" s="95"/>
+      <c r="C192" s="98"/>
+      <c r="D192" s="101"/>
+      <c r="E192" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="F187" s="45"/>
-      <c r="G187" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H187" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I187" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J187" s="45"/>
-    </row>
-    <row r="188" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="96"/>
-      <c r="C188" s="93"/>
-      <c r="D188" s="109"/>
-      <c r="E188" s="45" t="s">
-        <v>729</v>
-      </c>
-      <c r="F188" s="45"/>
-      <c r="G188" s="93"/>
-      <c r="H188" s="106"/>
-      <c r="I188" s="103"/>
-      <c r="J188" s="45"/>
-    </row>
-    <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="96"/>
-      <c r="C189" s="93"/>
-      <c r="D189" s="109"/>
-      <c r="E189" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="F189" s="45"/>
-      <c r="G189" s="93"/>
-      <c r="H189" s="106"/>
-      <c r="I189" s="103"/>
-      <c r="J189" s="45"/>
-    </row>
-    <row r="190" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="96"/>
-      <c r="C190" s="93"/>
-      <c r="D190" s="109"/>
-      <c r="E190" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F190" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G190" s="93"/>
-      <c r="H190" s="106"/>
-      <c r="I190" s="103"/>
-      <c r="J190" s="45"/>
-    </row>
-    <row r="191" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B191" s="96"/>
-      <c r="C191" s="93"/>
-      <c r="D191" s="109"/>
-      <c r="E191" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G191" s="93"/>
-      <c r="H191" s="106"/>
-      <c r="I191" s="103"/>
-      <c r="J191" s="45"/>
-    </row>
-    <row r="192" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="97"/>
-      <c r="C192" s="94"/>
-      <c r="D192" s="110"/>
-      <c r="E192" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="F192" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G192" s="94"/>
-      <c r="H192" s="107"/>
-      <c r="I192" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G192" s="98"/>
+      <c r="H192" s="104"/>
+      <c r="I192" s="107"/>
       <c r="J192" s="45"/>
     </row>
     <row r="193" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11369,99 +11373,99 @@
       <c r="J193" s="44"/>
     </row>
     <row r="194" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="95" t="s">
+      <c r="B194" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="C194" s="92">
+      <c r="C194" s="96">
         <v>192</v>
       </c>
-      <c r="D194" s="108" t="s">
-        <v>743</v>
+      <c r="D194" s="99" t="s">
+        <v>741</v>
       </c>
       <c r="E194" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="F194" s="45"/>
+      <c r="G194" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H194" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I194" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J194" s="45"/>
+    </row>
+    <row r="195" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B195" s="94"/>
+      <c r="C195" s="97"/>
+      <c r="D195" s="100"/>
+      <c r="E195" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="F195" s="45"/>
+      <c r="G195" s="97"/>
+      <c r="H195" s="103"/>
+      <c r="I195" s="106"/>
+      <c r="J195" s="45"/>
+    </row>
+    <row r="196" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B196" s="94"/>
+      <c r="C196" s="97"/>
+      <c r="D196" s="100"/>
+      <c r="E196" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="F196" s="45"/>
+      <c r="G196" s="97"/>
+      <c r="H196" s="103"/>
+      <c r="I196" s="106"/>
+      <c r="J196" s="45"/>
+    </row>
+    <row r="197" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B197" s="94"/>
+      <c r="C197" s="97"/>
+      <c r="D197" s="100"/>
+      <c r="E197" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="F197" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G197" s="97"/>
+      <c r="H197" s="103"/>
+      <c r="I197" s="106"/>
+      <c r="J197" s="45"/>
+    </row>
+    <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B198" s="94"/>
+      <c r="C198" s="97"/>
+      <c r="D198" s="100"/>
+      <c r="E198" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F198" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G198" s="97"/>
+      <c r="H198" s="103"/>
+      <c r="I198" s="106"/>
+      <c r="J198" s="45"/>
+    </row>
+    <row r="199" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B199" s="94"/>
+      <c r="C199" s="97"/>
+      <c r="D199" s="101"/>
+      <c r="E199" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="F194" s="45"/>
-      <c r="G194" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H194" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I194" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J194" s="45"/>
-    </row>
-    <row r="195" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="96"/>
-      <c r="C195" s="93"/>
-      <c r="D195" s="109"/>
-      <c r="E195" s="45" t="s">
-        <v>664</v>
-      </c>
-      <c r="F195" s="45"/>
-      <c r="G195" s="93"/>
-      <c r="H195" s="106"/>
-      <c r="I195" s="103"/>
-      <c r="J195" s="45"/>
-    </row>
-    <row r="196" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="96"/>
-      <c r="C196" s="93"/>
-      <c r="D196" s="109"/>
-      <c r="E196" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="F196" s="45"/>
-      <c r="G196" s="93"/>
-      <c r="H196" s="106"/>
-      <c r="I196" s="103"/>
-      <c r="J196" s="45"/>
-    </row>
-    <row r="197" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="96"/>
-      <c r="C197" s="93"/>
-      <c r="D197" s="109"/>
-      <c r="E197" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G197" s="93"/>
-      <c r="H197" s="106"/>
-      <c r="I197" s="103"/>
-      <c r="J197" s="45"/>
-    </row>
-    <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="96"/>
-      <c r="C198" s="93"/>
-      <c r="D198" s="109"/>
-      <c r="E198" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="F198" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G198" s="93"/>
-      <c r="H198" s="106"/>
-      <c r="I198" s="103"/>
-      <c r="J198" s="45"/>
-    </row>
-    <row r="199" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="96"/>
-      <c r="C199" s="93"/>
-      <c r="D199" s="110"/>
-      <c r="E199" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="F199" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G199" s="93"/>
-      <c r="H199" s="106"/>
-      <c r="I199" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G199" s="97"/>
+      <c r="H199" s="103"/>
+      <c r="I199" s="107"/>
       <c r="J199" s="45"/>
     </row>
     <row r="200" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11481,112 +11485,112 @@
       <c r="J200" s="44"/>
     </row>
     <row r="201" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B201" s="95" t="s">
+      <c r="B201" s="93" t="s">
         <v>455</v>
       </c>
-      <c r="C201" s="92">
+      <c r="C201" s="96">
         <v>193</v>
       </c>
-      <c r="D201" s="108" t="s">
-        <v>744</v>
+      <c r="D201" s="99" t="s">
+        <v>742</v>
       </c>
       <c r="E201" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="F201" s="45"/>
+      <c r="G201" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H201" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I201" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J201" s="45"/>
+    </row>
+    <row r="202" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B202" s="94"/>
+      <c r="C202" s="97"/>
+      <c r="D202" s="100"/>
+      <c r="E202" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F202" s="45"/>
+      <c r="G202" s="97"/>
+      <c r="H202" s="103"/>
+      <c r="I202" s="106"/>
+      <c r="J202" s="45"/>
+    </row>
+    <row r="203" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B203" s="94"/>
+      <c r="C203" s="97"/>
+      <c r="D203" s="100"/>
+      <c r="E203" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="F203" s="45"/>
+      <c r="G203" s="97"/>
+      <c r="H203" s="103"/>
+      <c r="I203" s="106"/>
+      <c r="J203" s="45"/>
+    </row>
+    <row r="204" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B204" s="94"/>
+      <c r="C204" s="97"/>
+      <c r="D204" s="100"/>
+      <c r="E204" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="F204" s="45"/>
+      <c r="G204" s="97"/>
+      <c r="H204" s="103"/>
+      <c r="I204" s="106"/>
+      <c r="J204" s="45"/>
+    </row>
+    <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B205" s="94"/>
+      <c r="C205" s="97"/>
+      <c r="D205" s="100"/>
+      <c r="E205" s="45" t="s">
         <v>732</v>
       </c>
-      <c r="F201" s="45"/>
-      <c r="G201" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H201" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I201" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J201" s="45"/>
-    </row>
-    <row r="202" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="96"/>
-      <c r="C202" s="93"/>
-      <c r="D202" s="109"/>
-      <c r="E202" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="F202" s="45"/>
-      <c r="G202" s="93"/>
-      <c r="H202" s="106"/>
-      <c r="I202" s="103"/>
-      <c r="J202" s="45"/>
-    </row>
-    <row r="203" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="96"/>
-      <c r="C203" s="93"/>
-      <c r="D203" s="109"/>
-      <c r="E203" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="F203" s="45"/>
-      <c r="G203" s="93"/>
-      <c r="H203" s="106"/>
-      <c r="I203" s="103"/>
-      <c r="J203" s="45"/>
-    </row>
-    <row r="204" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="96"/>
-      <c r="C204" s="93"/>
-      <c r="D204" s="109"/>
-      <c r="E204" s="45" t="s">
+      <c r="F205" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G205" s="97"/>
+      <c r="H205" s="103"/>
+      <c r="I205" s="106"/>
+      <c r="J205" s="45"/>
+    </row>
+    <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B206" s="94"/>
+      <c r="C206" s="97"/>
+      <c r="D206" s="100"/>
+      <c r="E206" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="F206" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G206" s="97"/>
+      <c r="H206" s="103"/>
+      <c r="I206" s="106"/>
+      <c r="J206" s="45"/>
+    </row>
+    <row r="207" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B207" s="95"/>
+      <c r="C207" s="98"/>
+      <c r="D207" s="101"/>
+      <c r="E207" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="F204" s="45"/>
-      <c r="G204" s="93"/>
-      <c r="H204" s="106"/>
-      <c r="I204" s="103"/>
-      <c r="J204" s="45"/>
-    </row>
-    <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B205" s="96"/>
-      <c r="C205" s="93"/>
-      <c r="D205" s="109"/>
-      <c r="E205" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="F205" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G205" s="93"/>
-      <c r="H205" s="106"/>
-      <c r="I205" s="103"/>
-      <c r="J205" s="45"/>
-    </row>
-    <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="96"/>
-      <c r="C206" s="93"/>
-      <c r="D206" s="109"/>
-      <c r="E206" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="F206" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G206" s="93"/>
-      <c r="H206" s="106"/>
-      <c r="I206" s="103"/>
-      <c r="J206" s="45"/>
-    </row>
-    <row r="207" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="97"/>
-      <c r="C207" s="94"/>
-      <c r="D207" s="110"/>
-      <c r="E207" s="45" t="s">
-        <v>735</v>
-      </c>
       <c r="F207" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G207" s="94"/>
-      <c r="H207" s="107"/>
-      <c r="I207" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G207" s="98"/>
+      <c r="H207" s="104"/>
+      <c r="I207" s="107"/>
       <c r="J207" s="45"/>
     </row>
     <row r="208" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11606,112 +11610,112 @@
       <c r="J208" s="44"/>
     </row>
     <row r="209" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B209" s="95" t="s">
+      <c r="B209" s="93" t="s">
         <v>498</v>
       </c>
-      <c r="C209" s="92">
+      <c r="C209" s="96">
         <v>194</v>
       </c>
-      <c r="D209" s="108" t="s">
-        <v>745</v>
+      <c r="D209" s="99" t="s">
+        <v>743</v>
       </c>
       <c r="E209" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="F209" s="45"/>
+      <c r="G209" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H209" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I209" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J209" s="45"/>
+    </row>
+    <row r="210" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B210" s="94"/>
+      <c r="C210" s="97"/>
+      <c r="D210" s="100"/>
+      <c r="E210" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F210" s="45"/>
+      <c r="G210" s="97"/>
+      <c r="H210" s="103"/>
+      <c r="I210" s="106"/>
+      <c r="J210" s="45"/>
+    </row>
+    <row r="211" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B211" s="94"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="100"/>
+      <c r="E211" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="F211" s="45"/>
+      <c r="G211" s="97"/>
+      <c r="H211" s="103"/>
+      <c r="I211" s="106"/>
+      <c r="J211" s="45"/>
+    </row>
+    <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B212" s="94"/>
+      <c r="C212" s="97"/>
+      <c r="D212" s="100"/>
+      <c r="E212" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="F212" s="45"/>
+      <c r="G212" s="97"/>
+      <c r="H212" s="103"/>
+      <c r="I212" s="106"/>
+      <c r="J212" s="45"/>
+    </row>
+    <row r="213" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B213" s="94"/>
+      <c r="C213" s="97"/>
+      <c r="D213" s="100"/>
+      <c r="E213" s="45" t="s">
         <v>732</v>
       </c>
-      <c r="F209" s="45"/>
-      <c r="G209" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H209" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I209" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J209" s="45"/>
-    </row>
-    <row r="210" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B210" s="96"/>
-      <c r="C210" s="93"/>
-      <c r="D210" s="109"/>
-      <c r="E210" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="F210" s="45"/>
-      <c r="G210" s="93"/>
-      <c r="H210" s="106"/>
-      <c r="I210" s="103"/>
-      <c r="J210" s="45"/>
-    </row>
-    <row r="211" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B211" s="96"/>
-      <c r="C211" s="93"/>
-      <c r="D211" s="109"/>
-      <c r="E211" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="F211" s="45"/>
-      <c r="G211" s="93"/>
-      <c r="H211" s="106"/>
-      <c r="I211" s="103"/>
-      <c r="J211" s="45"/>
-    </row>
-    <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B212" s="96"/>
-      <c r="C212" s="93"/>
-      <c r="D212" s="109"/>
-      <c r="E212" s="45" t="s">
+      <c r="F213" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G213" s="97"/>
+      <c r="H213" s="103"/>
+      <c r="I213" s="106"/>
+      <c r="J213" s="45"/>
+    </row>
+    <row r="214" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B214" s="94"/>
+      <c r="C214" s="97"/>
+      <c r="D214" s="100"/>
+      <c r="E214" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="F214" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G214" s="97"/>
+      <c r="H214" s="103"/>
+      <c r="I214" s="106"/>
+      <c r="J214" s="45"/>
+    </row>
+    <row r="215" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B215" s="95"/>
+      <c r="C215" s="98"/>
+      <c r="D215" s="101"/>
+      <c r="E215" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="F212" s="45"/>
-      <c r="G212" s="93"/>
-      <c r="H212" s="106"/>
-      <c r="I212" s="103"/>
-      <c r="J212" s="45"/>
-    </row>
-    <row r="213" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B213" s="96"/>
-      <c r="C213" s="93"/>
-      <c r="D213" s="109"/>
-      <c r="E213" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="F213" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G213" s="93"/>
-      <c r="H213" s="106"/>
-      <c r="I213" s="103"/>
-      <c r="J213" s="45"/>
-    </row>
-    <row r="214" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B214" s="96"/>
-      <c r="C214" s="93"/>
-      <c r="D214" s="109"/>
-      <c r="E214" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G214" s="93"/>
-      <c r="H214" s="106"/>
-      <c r="I214" s="103"/>
-      <c r="J214" s="45"/>
-    </row>
-    <row r="215" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B215" s="97"/>
-      <c r="C215" s="94"/>
-      <c r="D215" s="110"/>
-      <c r="E215" s="45" t="s">
-        <v>735</v>
-      </c>
       <c r="F215" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G215" s="94"/>
-      <c r="H215" s="107"/>
-      <c r="I215" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G215" s="98"/>
+      <c r="H215" s="104"/>
+      <c r="I215" s="107"/>
       <c r="J215" s="45"/>
     </row>
     <row r="216" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11731,112 +11735,112 @@
       <c r="J216" s="44"/>
     </row>
     <row r="217" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B217" s="95" t="s">
+      <c r="B217" s="93" t="s">
         <v>511</v>
       </c>
-      <c r="C217" s="92">
+      <c r="C217" s="96">
         <v>195</v>
       </c>
-      <c r="D217" s="108" t="s">
-        <v>746</v>
+      <c r="D217" s="99" t="s">
+        <v>744</v>
       </c>
       <c r="E217" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="F217" s="45"/>
+      <c r="G217" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H217" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I217" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J217" s="45"/>
+    </row>
+    <row r="218" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B218" s="94"/>
+      <c r="C218" s="97"/>
+      <c r="D218" s="100"/>
+      <c r="E218" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F218" s="45"/>
+      <c r="G218" s="97"/>
+      <c r="H218" s="103"/>
+      <c r="I218" s="106"/>
+      <c r="J218" s="45"/>
+    </row>
+    <row r="219" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B219" s="94"/>
+      <c r="C219" s="97"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="F219" s="45"/>
+      <c r="G219" s="97"/>
+      <c r="H219" s="103"/>
+      <c r="I219" s="106"/>
+      <c r="J219" s="45"/>
+    </row>
+    <row r="220" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B220" s="94"/>
+      <c r="C220" s="97"/>
+      <c r="D220" s="100"/>
+      <c r="E220" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="F220" s="45"/>
+      <c r="G220" s="97"/>
+      <c r="H220" s="103"/>
+      <c r="I220" s="106"/>
+      <c r="J220" s="45"/>
+    </row>
+    <row r="221" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B221" s="94"/>
+      <c r="C221" s="97"/>
+      <c r="D221" s="100"/>
+      <c r="E221" s="45" t="s">
         <v>732</v>
       </c>
-      <c r="F217" s="45"/>
-      <c r="G217" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H217" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I217" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J217" s="45"/>
-    </row>
-    <row r="218" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B218" s="96"/>
-      <c r="C218" s="93"/>
-      <c r="D218" s="109"/>
-      <c r="E218" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="F218" s="45"/>
-      <c r="G218" s="93"/>
-      <c r="H218" s="106"/>
-      <c r="I218" s="103"/>
-      <c r="J218" s="45"/>
-    </row>
-    <row r="219" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B219" s="96"/>
-      <c r="C219" s="93"/>
-      <c r="D219" s="109"/>
-      <c r="E219" s="45" t="s">
-        <v>738</v>
-      </c>
-      <c r="F219" s="45"/>
-      <c r="G219" s="93"/>
-      <c r="H219" s="106"/>
-      <c r="I219" s="103"/>
-      <c r="J219" s="45"/>
-    </row>
-    <row r="220" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B220" s="96"/>
-      <c r="C220" s="93"/>
-      <c r="D220" s="109"/>
-      <c r="E220" s="45" t="s">
+      <c r="F221" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G221" s="97"/>
+      <c r="H221" s="103"/>
+      <c r="I221" s="106"/>
+      <c r="J221" s="45"/>
+    </row>
+    <row r="222" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B222" s="94"/>
+      <c r="C222" s="97"/>
+      <c r="D222" s="100"/>
+      <c r="E222" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="F222" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G222" s="97"/>
+      <c r="H222" s="103"/>
+      <c r="I222" s="106"/>
+      <c r="J222" s="45"/>
+    </row>
+    <row r="223" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B223" s="95"/>
+      <c r="C223" s="98"/>
+      <c r="D223" s="101"/>
+      <c r="E223" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="F220" s="45"/>
-      <c r="G220" s="93"/>
-      <c r="H220" s="106"/>
-      <c r="I220" s="103"/>
-      <c r="J220" s="45"/>
-    </row>
-    <row r="221" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B221" s="96"/>
-      <c r="C221" s="93"/>
-      <c r="D221" s="109"/>
-      <c r="E221" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="F221" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G221" s="93"/>
-      <c r="H221" s="106"/>
-      <c r="I221" s="103"/>
-      <c r="J221" s="45"/>
-    </row>
-    <row r="222" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B222" s="96"/>
-      <c r="C222" s="93"/>
-      <c r="D222" s="109"/>
-      <c r="E222" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="F222" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G222" s="93"/>
-      <c r="H222" s="106"/>
-      <c r="I222" s="103"/>
-      <c r="J222" s="45"/>
-    </row>
-    <row r="223" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B223" s="97"/>
-      <c r="C223" s="94"/>
-      <c r="D223" s="110"/>
-      <c r="E223" s="45" t="s">
-        <v>735</v>
-      </c>
       <c r="F223" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G223" s="94"/>
-      <c r="H223" s="107"/>
-      <c r="I223" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G223" s="98"/>
+      <c r="H223" s="104"/>
+      <c r="I223" s="107"/>
       <c r="J223" s="45"/>
     </row>
     <row r="224" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -11856,121 +11860,121 @@
       <c r="J224" s="44"/>
     </row>
     <row r="225" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B225" s="95" t="s">
+      <c r="B225" s="93" t="s">
         <v>512</v>
       </c>
-      <c r="C225" s="92">
+      <c r="C225" s="96">
         <v>196</v>
       </c>
-      <c r="D225" s="108" t="s">
-        <v>743</v>
+      <c r="D225" s="99" t="s">
+        <v>741</v>
       </c>
       <c r="E225" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="F225" s="45"/>
+      <c r="G225" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H225" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I225" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J225" s="45"/>
+    </row>
+    <row r="226" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B226" s="94"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="100"/>
+      <c r="E226" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="F226" s="45"/>
+      <c r="G226" s="97"/>
+      <c r="H226" s="103"/>
+      <c r="I226" s="106"/>
+      <c r="J226" s="45"/>
+    </row>
+    <row r="227" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B227" s="94"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="100"/>
+      <c r="E227" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="F227" s="45"/>
+      <c r="G227" s="97"/>
+      <c r="H227" s="103"/>
+      <c r="I227" s="106"/>
+      <c r="J227" s="45"/>
+    </row>
+    <row r="228" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B228" s="94"/>
+      <c r="C228" s="97"/>
+      <c r="D228" s="100"/>
+      <c r="E228" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="F228" s="45"/>
+      <c r="G228" s="97"/>
+      <c r="H228" s="103"/>
+      <c r="I228" s="106"/>
+      <c r="J228" s="45"/>
+    </row>
+    <row r="229" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B229" s="94"/>
+      <c r="C229" s="97"/>
+      <c r="D229" s="100"/>
+      <c r="E229" s="45" t="s">
         <v>732</v>
       </c>
-      <c r="F225" s="45"/>
-      <c r="G225" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H225" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I225" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J225" s="45"/>
-    </row>
-    <row r="226" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B226" s="96"/>
-      <c r="C226" s="93"/>
-      <c r="D226" s="109"/>
-      <c r="E226" s="45" t="s">
-        <v>625</v>
-      </c>
-      <c r="F226" s="45"/>
-      <c r="G226" s="93"/>
-      <c r="H226" s="106"/>
-      <c r="I226" s="103"/>
-      <c r="J226" s="45"/>
-    </row>
-    <row r="227" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B227" s="96"/>
-      <c r="C227" s="93"/>
-      <c r="D227" s="109"/>
-      <c r="E227" s="45" t="s">
-        <v>739</v>
-      </c>
-      <c r="F227" s="45"/>
-      <c r="G227" s="93"/>
-      <c r="H227" s="106"/>
-      <c r="I227" s="103"/>
-      <c r="J227" s="45"/>
-    </row>
-    <row r="228" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B228" s="96"/>
-      <c r="C228" s="93"/>
-      <c r="D228" s="109"/>
-      <c r="E228" s="45" t="s">
+      <c r="F229" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G229" s="97"/>
+      <c r="H229" s="103"/>
+      <c r="I229" s="106"/>
+      <c r="J229" s="45"/>
+    </row>
+    <row r="230" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B230" s="94"/>
+      <c r="C230" s="97"/>
+      <c r="D230" s="100"/>
+      <c r="E230" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="F230" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G230" s="97"/>
+      <c r="H230" s="103"/>
+      <c r="I230" s="106"/>
+      <c r="J230" s="45"/>
+    </row>
+    <row r="231" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B231" s="95"/>
+      <c r="C231" s="98"/>
+      <c r="D231" s="101"/>
+      <c r="E231" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="F228" s="45"/>
-      <c r="G228" s="93"/>
-      <c r="H228" s="106"/>
-      <c r="I228" s="103"/>
-      <c r="J228" s="45"/>
-    </row>
-    <row r="229" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B229" s="96"/>
-      <c r="C229" s="93"/>
-      <c r="D229" s="109"/>
-      <c r="E229" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="F229" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G229" s="93"/>
-      <c r="H229" s="106"/>
-      <c r="I229" s="103"/>
-      <c r="J229" s="45"/>
-    </row>
-    <row r="230" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B230" s="96"/>
-      <c r="C230" s="93"/>
-      <c r="D230" s="109"/>
-      <c r="E230" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="F230" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G230" s="93"/>
-      <c r="H230" s="106"/>
-      <c r="I230" s="103"/>
-      <c r="J230" s="45"/>
-    </row>
-    <row r="231" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B231" s="97"/>
-      <c r="C231" s="94"/>
-      <c r="D231" s="110"/>
-      <c r="E231" s="45" t="s">
-        <v>735</v>
-      </c>
       <c r="F231" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G231" s="94"/>
-      <c r="H231" s="107"/>
-      <c r="I231" s="104"/>
+        <v>721</v>
+      </c>
+      <c r="G231" s="98"/>
+      <c r="H231" s="104"/>
+      <c r="I231" s="107"/>
       <c r="J231" s="45"/>
     </row>
     <row r="232" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B232" s="113" t="s">
+      <c r="B232" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="C232" s="113"/>
-      <c r="D232" s="113"/>
-      <c r="E232" s="113"/>
+      <c r="C232" s="92"/>
+      <c r="D232" s="92"/>
+      <c r="E232" s="92"/>
       <c r="F232" s="61"/>
       <c r="G232" s="61"/>
       <c r="H232" s="61"/>
@@ -11994,136 +11998,136 @@
       <c r="J233" s="44"/>
     </row>
     <row r="234" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B234" s="95" t="s">
+      <c r="B234" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="C234" s="92"/>
-      <c r="D234" s="108" t="s">
-        <v>757</v>
+      <c r="C234" s="96"/>
+      <c r="D234" s="99" t="s">
+        <v>755</v>
       </c>
       <c r="E234" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="F234" s="45"/>
+      <c r="G234" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H234" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="I234" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J234" s="45"/>
+    </row>
+    <row r="235" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B235" s="94"/>
+      <c r="C235" s="97"/>
+      <c r="D235" s="100"/>
+      <c r="E235" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F235" s="45"/>
+      <c r="G235" s="97"/>
+      <c r="H235" s="103"/>
+      <c r="I235" s="106"/>
+      <c r="J235" s="45"/>
+    </row>
+    <row r="236" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B236" s="94"/>
+      <c r="C236" s="97"/>
+      <c r="D236" s="100"/>
+      <c r="E236" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="F234" s="45"/>
-      <c r="G234" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H234" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="I234" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J234" s="45"/>
-    </row>
-    <row r="235" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B235" s="96"/>
-      <c r="C235" s="93"/>
-      <c r="D235" s="109"/>
-      <c r="E235" s="33" t="s">
+      <c r="F236" s="45"/>
+      <c r="G236" s="97"/>
+      <c r="H236" s="103"/>
+      <c r="I236" s="106"/>
+      <c r="J236" s="45"/>
+    </row>
+    <row r="237" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B237" s="94"/>
+      <c r="C237" s="97"/>
+      <c r="D237" s="100"/>
+      <c r="E237" s="33" t="s">
         <v>749</v>
-      </c>
-      <c r="F235" s="45"/>
-      <c r="G235" s="93"/>
-      <c r="H235" s="106"/>
-      <c r="I235" s="103"/>
-      <c r="J235" s="45"/>
-    </row>
-    <row r="236" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B236" s="96"/>
-      <c r="C236" s="93"/>
-      <c r="D236" s="109"/>
-      <c r="E236" s="33" t="s">
-        <v>750</v>
-      </c>
-      <c r="F236" s="45"/>
-      <c r="G236" s="93"/>
-      <c r="H236" s="106"/>
-      <c r="I236" s="103"/>
-      <c r="J236" s="45"/>
-    </row>
-    <row r="237" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B237" s="96"/>
-      <c r="C237" s="93"/>
-      <c r="D237" s="109"/>
-      <c r="E237" s="33" t="s">
-        <v>751</v>
       </c>
       <c r="F237" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="G237" s="93"/>
-      <c r="H237" s="106"/>
-      <c r="I237" s="103"/>
+      <c r="G237" s="97"/>
+      <c r="H237" s="103"/>
+      <c r="I237" s="106"/>
       <c r="J237" s="45"/>
     </row>
     <row r="238" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B238" s="96"/>
-      <c r="C238" s="93"/>
-      <c r="D238" s="109"/>
+      <c r="B238" s="94"/>
+      <c r="C238" s="97"/>
+      <c r="D238" s="100"/>
       <c r="E238" s="33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F238" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="G238" s="93"/>
-      <c r="H238" s="106"/>
-      <c r="I238" s="103"/>
+      <c r="G238" s="97"/>
+      <c r="H238" s="103"/>
+      <c r="I238" s="106"/>
       <c r="J238" s="45"/>
     </row>
     <row r="239" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B239" s="96"/>
-      <c r="C239" s="93"/>
-      <c r="D239" s="109"/>
+      <c r="B239" s="94"/>
+      <c r="C239" s="97"/>
+      <c r="D239" s="100"/>
       <c r="E239" s="45" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F239" s="45" t="s">
         <v>519</v>
       </c>
-      <c r="G239" s="93"/>
-      <c r="H239" s="106"/>
-      <c r="I239" s="103"/>
+      <c r="G239" s="97"/>
+      <c r="H239" s="103"/>
+      <c r="I239" s="106"/>
       <c r="J239" s="45"/>
     </row>
     <row r="240" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B240" s="96"/>
-      <c r="C240" s="93"/>
-      <c r="D240" s="109"/>
+      <c r="B240" s="94"/>
+      <c r="C240" s="97"/>
+      <c r="D240" s="100"/>
       <c r="E240" s="45" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F240" s="54">
         <v>25</v>
       </c>
-      <c r="G240" s="93"/>
-      <c r="H240" s="106"/>
-      <c r="I240" s="103"/>
+      <c r="G240" s="97"/>
+      <c r="H240" s="103"/>
+      <c r="I240" s="106"/>
       <c r="J240" s="45"/>
     </row>
     <row r="241" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B241" s="97"/>
-      <c r="C241" s="94"/>
-      <c r="D241" s="110"/>
+      <c r="B241" s="95"/>
+      <c r="C241" s="98"/>
+      <c r="D241" s="101"/>
       <c r="E241" s="45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F241" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="G241" s="94"/>
-      <c r="H241" s="107"/>
-      <c r="I241" s="104"/>
+        <v>754</v>
+      </c>
+      <c r="G241" s="98"/>
+      <c r="H241" s="104"/>
+      <c r="I241" s="107"/>
       <c r="J241" s="45"/>
     </row>
     <row r="242" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B242" s="113" t="s">
+      <c r="B242" s="92" t="s">
         <v>574</v>
       </c>
-      <c r="C242" s="113"/>
-      <c r="D242" s="113"/>
-      <c r="E242" s="113"/>
+      <c r="C242" s="92"/>
+      <c r="D242" s="92"/>
+      <c r="E242" s="92"/>
       <c r="F242" s="61"/>
       <c r="G242" s="61"/>
       <c r="H242" s="61"/>
@@ -12147,54 +12151,54 @@
       <c r="J243" s="44"/>
     </row>
     <row r="244" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B244" s="95" t="s">
+      <c r="B244" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="C244" s="92"/>
-      <c r="D244" s="108" t="s">
+      <c r="C244" s="96"/>
+      <c r="D244" s="99" t="s">
+        <v>769</v>
+      </c>
+      <c r="E244" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="F244" s="45"/>
+      <c r="G244" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H244" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="I244" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J244" s="45"/>
+    </row>
+    <row r="245" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B245" s="94"/>
+      <c r="C245" s="97"/>
+      <c r="D245" s="100"/>
+      <c r="E245" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F245" s="45"/>
+      <c r="G245" s="97"/>
+      <c r="H245" s="103"/>
+      <c r="I245" s="106"/>
+      <c r="J245" s="45"/>
+    </row>
+    <row r="246" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B246" s="95"/>
+      <c r="C246" s="98"/>
+      <c r="D246" s="101"/>
+      <c r="E246" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="F246" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="E244" s="33" t="s">
-        <v>748</v>
-      </c>
-      <c r="F244" s="45"/>
-      <c r="G244" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H244" s="105" t="s">
-        <v>466</v>
-      </c>
-      <c r="I244" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J244" s="45"/>
-    </row>
-    <row r="245" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B245" s="96"/>
-      <c r="C245" s="93"/>
-      <c r="D245" s="109"/>
-      <c r="E245" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="F245" s="45"/>
-      <c r="G245" s="93"/>
-      <c r="H245" s="106"/>
-      <c r="I245" s="103"/>
-      <c r="J245" s="45"/>
-    </row>
-    <row r="246" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B246" s="97"/>
-      <c r="C246" s="94"/>
-      <c r="D246" s="110"/>
-      <c r="E246" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="F246" s="33" t="s">
-        <v>773</v>
-      </c>
-      <c r="G246" s="94"/>
-      <c r="H246" s="107"/>
-      <c r="I246" s="104"/>
+      <c r="G246" s="98"/>
+      <c r="H246" s="104"/>
+      <c r="I246" s="107"/>
       <c r="J246" s="45"/>
     </row>
     <row r="247" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12214,148 +12218,148 @@
       <c r="J247" s="44"/>
     </row>
     <row r="248" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B248" s="95" t="s">
+      <c r="B248" s="93" t="s">
         <v>515</v>
       </c>
-      <c r="C248" s="92"/>
-      <c r="D248" s="95" t="s">
-        <v>764</v>
+      <c r="C248" s="96"/>
+      <c r="D248" s="93" t="s">
+        <v>762</v>
       </c>
       <c r="E248" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="F248" s="45"/>
+      <c r="G248" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H248" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="I248" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J248" s="45"/>
+    </row>
+    <row r="249" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B249" s="94"/>
+      <c r="C249" s="97"/>
+      <c r="D249" s="94"/>
+      <c r="E249" s="33" t="s">
         <v>765</v>
-      </c>
-      <c r="F248" s="45"/>
-      <c r="G248" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H248" s="105" t="s">
-        <v>466</v>
-      </c>
-      <c r="I248" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J248" s="45"/>
-    </row>
-    <row r="249" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B249" s="96"/>
-      <c r="C249" s="93"/>
-      <c r="D249" s="96"/>
-      <c r="E249" s="33" t="s">
-        <v>767</v>
       </c>
       <c r="F249" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="G249" s="93"/>
-      <c r="H249" s="106"/>
-      <c r="I249" s="103"/>
+      <c r="G249" s="97"/>
+      <c r="H249" s="103"/>
+      <c r="I249" s="106"/>
       <c r="J249" s="45"/>
     </row>
     <row r="250" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B250" s="96"/>
-      <c r="C250" s="93"/>
-      <c r="D250" s="96"/>
+      <c r="B250" s="94"/>
+      <c r="C250" s="97"/>
+      <c r="D250" s="94"/>
       <c r="E250" s="33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F250" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="G250" s="93"/>
-      <c r="H250" s="106"/>
-      <c r="I250" s="103"/>
+      <c r="G250" s="97"/>
+      <c r="H250" s="103"/>
+      <c r="I250" s="106"/>
       <c r="J250" s="45"/>
     </row>
     <row r="251" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B251" s="97"/>
-      <c r="C251" s="94"/>
-      <c r="D251" s="97"/>
+      <c r="B251" s="95"/>
+      <c r="C251" s="98"/>
+      <c r="D251" s="95"/>
       <c r="E251" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F251" s="45" t="s">
-        <v>769</v>
-      </c>
-      <c r="G251" s="94"/>
-      <c r="H251" s="107"/>
-      <c r="I251" s="104"/>
+        <v>767</v>
+      </c>
+      <c r="G251" s="98"/>
+      <c r="H251" s="104"/>
+      <c r="I251" s="107"/>
       <c r="J251" s="45"/>
     </row>
     <row r="252" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B252" s="95" t="s">
-        <v>786</v>
-      </c>
-      <c r="C252" s="92"/>
-      <c r="D252" s="95" t="s">
+      <c r="B252" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="C252" s="96"/>
+      <c r="D252" s="93" t="s">
+        <v>761</v>
+      </c>
+      <c r="E252" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="E252" s="33" t="s">
+      <c r="F252" s="45"/>
+      <c r="G252" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H252" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="I252" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="J252" s="45"/>
+    </row>
+    <row r="253" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B253" s="94"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="94"/>
+      <c r="E253" s="33" t="s">
         <v>765</v>
-      </c>
-      <c r="F252" s="45"/>
-      <c r="G252" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H252" s="105" t="s">
-        <v>466</v>
-      </c>
-      <c r="I252" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J252" s="45"/>
-    </row>
-    <row r="253" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B253" s="96"/>
-      <c r="C253" s="93"/>
-      <c r="D253" s="96"/>
-      <c r="E253" s="33" t="s">
-        <v>767</v>
       </c>
       <c r="F253" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="G253" s="93"/>
-      <c r="H253" s="106"/>
-      <c r="I253" s="103"/>
+      <c r="G253" s="97"/>
+      <c r="H253" s="103"/>
+      <c r="I253" s="106"/>
       <c r="J253" s="45"/>
     </row>
     <row r="254" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B254" s="96"/>
-      <c r="C254" s="93"/>
-      <c r="D254" s="96"/>
+      <c r="B254" s="94"/>
+      <c r="C254" s="97"/>
+      <c r="D254" s="94"/>
       <c r="E254" s="33" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F254" s="54">
         <v>123456</v>
       </c>
-      <c r="G254" s="93"/>
-      <c r="H254" s="106"/>
-      <c r="I254" s="103"/>
+      <c r="G254" s="97"/>
+      <c r="H254" s="103"/>
+      <c r="I254" s="106"/>
       <c r="J254" s="45"/>
     </row>
     <row r="255" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B255" s="97"/>
-      <c r="C255" s="94"/>
-      <c r="D255" s="97"/>
+      <c r="B255" s="95"/>
+      <c r="C255" s="98"/>
+      <c r="D255" s="95"/>
       <c r="E255" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F255" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="G255" s="94"/>
-      <c r="H255" s="107"/>
-      <c r="I255" s="104"/>
+        <v>768</v>
+      </c>
+      <c r="G255" s="98"/>
+      <c r="H255" s="104"/>
+      <c r="I255" s="107"/>
       <c r="J255" s="45"/>
     </row>
     <row r="256" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B256" s="113" t="s">
+      <c r="B256" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="C256" s="113"/>
-      <c r="D256" s="113"/>
-      <c r="E256" s="113"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="92"/>
+      <c r="E256" s="92"/>
       <c r="F256" s="61"/>
       <c r="G256" s="61"/>
       <c r="H256" s="61"/>
@@ -12379,207 +12383,240 @@
       <c r="J257" s="44"/>
     </row>
     <row r="258" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B258" s="95" t="s">
+      <c r="B258" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="C258" s="92"/>
-      <c r="D258" s="108" t="s">
+      <c r="C258" s="96"/>
+      <c r="D258" s="99" t="s">
         <v>596</v>
       </c>
       <c r="E258" s="33" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F258" s="45"/>
-      <c r="G258" s="92" t="s">
+      <c r="G258" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H258" s="105" t="s">
+      <c r="H258" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I258" s="102" t="s">
+      <c r="I258" s="105" t="s">
         <v>119</v>
       </c>
       <c r="J258" s="45"/>
     </row>
     <row r="259" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B259" s="96"/>
-      <c r="C259" s="93"/>
-      <c r="D259" s="109"/>
+      <c r="B259" s="94"/>
+      <c r="C259" s="97"/>
+      <c r="D259" s="100"/>
       <c r="E259" s="33" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F259" s="45"/>
-      <c r="G259" s="93"/>
-      <c r="H259" s="106"/>
-      <c r="I259" s="103"/>
+      <c r="G259" s="97"/>
+      <c r="H259" s="103"/>
+      <c r="I259" s="106"/>
       <c r="J259" s="45"/>
     </row>
     <row r="260" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B260" s="96"/>
-      <c r="C260" s="93"/>
-      <c r="D260" s="109"/>
+      <c r="B260" s="94"/>
+      <c r="C260" s="97"/>
+      <c r="D260" s="100"/>
       <c r="E260" s="45" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F260" s="45"/>
-      <c r="G260" s="93"/>
-      <c r="H260" s="106"/>
-      <c r="I260" s="103"/>
+      <c r="G260" s="97"/>
+      <c r="H260" s="103"/>
+      <c r="I260" s="106"/>
       <c r="J260" s="45"/>
     </row>
     <row r="261" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B261" s="96"/>
-      <c r="C261" s="93"/>
-      <c r="D261" s="109"/>
+      <c r="B261" s="94"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="100"/>
       <c r="E261" s="45" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F261" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="G261" s="93"/>
-      <c r="H261" s="106"/>
-      <c r="I261" s="103"/>
+      <c r="G261" s="97"/>
+      <c r="H261" s="103"/>
+      <c r="I261" s="106"/>
       <c r="J261" s="45"/>
     </row>
     <row r="262" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B262" s="96"/>
-      <c r="C262" s="93"/>
-      <c r="D262" s="109"/>
+      <c r="B262" s="94"/>
+      <c r="C262" s="97"/>
+      <c r="D262" s="100"/>
       <c r="E262" s="45" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F262" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="G262" s="93"/>
-      <c r="H262" s="106"/>
-      <c r="I262" s="103"/>
+      <c r="G262" s="97"/>
+      <c r="H262" s="103"/>
+      <c r="I262" s="106"/>
       <c r="J262" s="45"/>
     </row>
     <row r="263" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B263" s="96"/>
-      <c r="C263" s="93"/>
-      <c r="D263" s="109"/>
+      <c r="B263" s="94"/>
+      <c r="C263" s="97"/>
+      <c r="D263" s="100"/>
       <c r="E263" s="45" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F263" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="G263" s="93"/>
-      <c r="H263" s="106"/>
-      <c r="I263" s="103"/>
+      <c r="G263" s="97"/>
+      <c r="H263" s="103"/>
+      <c r="I263" s="106"/>
       <c r="J263" s="45"/>
     </row>
     <row r="264" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B264" s="96"/>
-      <c r="C264" s="93"/>
-      <c r="D264" s="109"/>
+      <c r="B264" s="94"/>
+      <c r="C264" s="97"/>
+      <c r="D264" s="100"/>
       <c r="E264" s="45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F264" s="54">
         <v>123456.789</v>
       </c>
-      <c r="G264" s="93"/>
-      <c r="H264" s="106"/>
-      <c r="I264" s="103"/>
+      <c r="G264" s="97"/>
+      <c r="H264" s="103"/>
+      <c r="I264" s="106"/>
       <c r="J264" s="45"/>
     </row>
     <row r="265" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B265" s="97"/>
-      <c r="C265" s="94"/>
-      <c r="D265" s="110"/>
+      <c r="B265" s="95"/>
+      <c r="C265" s="98"/>
+      <c r="D265" s="101"/>
       <c r="E265" s="45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F265" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="G265" s="94"/>
-      <c r="H265" s="107"/>
-      <c r="I265" s="104"/>
+        <v>754</v>
+      </c>
+      <c r="G265" s="98"/>
+      <c r="H265" s="104"/>
+      <c r="I265" s="107"/>
       <c r="J265" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J99"/>
   <mergeCells count="207">
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B258:B265"/>
-    <mergeCell ref="C258:C265"/>
-    <mergeCell ref="D258:D265"/>
-    <mergeCell ref="G258:G265"/>
-    <mergeCell ref="H258:H265"/>
-    <mergeCell ref="I258:I265"/>
-    <mergeCell ref="B244:B246"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="D244:D246"/>
-    <mergeCell ref="G244:G246"/>
-    <mergeCell ref="H244:H246"/>
-    <mergeCell ref="I244:I246"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="H248:H251"/>
-    <mergeCell ref="I248:I251"/>
-    <mergeCell ref="B248:B251"/>
-    <mergeCell ref="D248:D251"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="G252:G255"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="D217:D223"/>
-    <mergeCell ref="G217:G223"/>
-    <mergeCell ref="H217:H223"/>
-    <mergeCell ref="I217:I223"/>
-    <mergeCell ref="H252:H255"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="B225:B231"/>
-    <mergeCell ref="C225:C231"/>
-    <mergeCell ref="D225:D231"/>
-    <mergeCell ref="G225:G231"/>
-    <mergeCell ref="H225:H231"/>
-    <mergeCell ref="I225:I231"/>
-    <mergeCell ref="G234:G241"/>
-    <mergeCell ref="H234:H241"/>
-    <mergeCell ref="I234:I241"/>
-    <mergeCell ref="B234:B241"/>
-    <mergeCell ref="C234:C241"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B201:B207"/>
-    <mergeCell ref="C201:C207"/>
-    <mergeCell ref="D201:D207"/>
-    <mergeCell ref="G201:G207"/>
-    <mergeCell ref="H201:H207"/>
-    <mergeCell ref="I201:I207"/>
-    <mergeCell ref="B209:B215"/>
-    <mergeCell ref="C209:C215"/>
-    <mergeCell ref="D209:D215"/>
-    <mergeCell ref="G209:G215"/>
-    <mergeCell ref="H209:H215"/>
-    <mergeCell ref="I209:I215"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="G180:G185"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="I180:I185"/>
-    <mergeCell ref="G194:G199"/>
-    <mergeCell ref="H194:H199"/>
-    <mergeCell ref="I194:I199"/>
-    <mergeCell ref="D194:D199"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="D187:D192"/>
-    <mergeCell ref="G187:G192"/>
-    <mergeCell ref="H187:H192"/>
-    <mergeCell ref="I187:I192"/>
-    <mergeCell ref="B187:B192"/>
-    <mergeCell ref="C187:C192"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="I75:I80"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="I157:I163"/>
+    <mergeCell ref="G164:G170"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="I164:I170"/>
+    <mergeCell ref="D164:D170"/>
+    <mergeCell ref="B157:B163"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="D157:D163"/>
+    <mergeCell ref="G157:G163"/>
+    <mergeCell ref="H157:H163"/>
+    <mergeCell ref="G143:G149"/>
+    <mergeCell ref="H143:H149"/>
+    <mergeCell ref="I143:I149"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="D150:D156"/>
+    <mergeCell ref="G150:G156"/>
+    <mergeCell ref="H150:H156"/>
+    <mergeCell ref="I150:I156"/>
+    <mergeCell ref="D143:D149"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="G130:G135"/>
+    <mergeCell ref="H130:H135"/>
+    <mergeCell ref="I130:I135"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="G115:G120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="G100:G105"/>
+    <mergeCell ref="H100:H105"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="G108:G113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="D173:D178"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="G173:G178"/>
+    <mergeCell ref="H173:H178"/>
+    <mergeCell ref="I173:I178"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B106:E106"/>
     <mergeCell ref="D43:D47"/>
     <mergeCell ref="B43:B47"/>
     <mergeCell ref="C43:C47"/>
@@ -12604,114 +12641,81 @@
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D173:D178"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="G173:G178"/>
-    <mergeCell ref="H173:H178"/>
-    <mergeCell ref="I173:I178"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="C164:C170"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="G108:G113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="G115:G120"/>
-    <mergeCell ref="H115:H120"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="G100:G105"/>
-    <mergeCell ref="H100:H105"/>
-    <mergeCell ref="I150:I156"/>
-    <mergeCell ref="D143:D149"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="G130:G135"/>
-    <mergeCell ref="H130:H135"/>
-    <mergeCell ref="I130:I135"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="B143:B149"/>
-    <mergeCell ref="I75:I80"/>
-    <mergeCell ref="I69:I74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="I157:I163"/>
-    <mergeCell ref="G164:G170"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="I164:I170"/>
-    <mergeCell ref="D164:D170"/>
-    <mergeCell ref="B157:B163"/>
-    <mergeCell ref="C157:C163"/>
-    <mergeCell ref="D157:D163"/>
-    <mergeCell ref="G157:G163"/>
-    <mergeCell ref="H157:H163"/>
-    <mergeCell ref="G143:G149"/>
-    <mergeCell ref="H143:H149"/>
-    <mergeCell ref="I143:I149"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="C150:C156"/>
-    <mergeCell ref="D150:D156"/>
-    <mergeCell ref="G150:G156"/>
-    <mergeCell ref="H150:H156"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="I180:I185"/>
+    <mergeCell ref="G194:G199"/>
+    <mergeCell ref="H194:H199"/>
+    <mergeCell ref="I194:I199"/>
+    <mergeCell ref="D194:D199"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="D187:D192"/>
+    <mergeCell ref="G187:G192"/>
+    <mergeCell ref="H187:H192"/>
+    <mergeCell ref="I187:I192"/>
+    <mergeCell ref="B187:B192"/>
+    <mergeCell ref="C187:C192"/>
+    <mergeCell ref="B201:B207"/>
+    <mergeCell ref="C201:C207"/>
+    <mergeCell ref="D201:D207"/>
+    <mergeCell ref="G201:G207"/>
+    <mergeCell ref="H201:H207"/>
+    <mergeCell ref="I201:I207"/>
+    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="C209:C215"/>
+    <mergeCell ref="D209:D215"/>
+    <mergeCell ref="G209:G215"/>
+    <mergeCell ref="H209:H215"/>
+    <mergeCell ref="I209:I215"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="D217:D223"/>
+    <mergeCell ref="G217:G223"/>
+    <mergeCell ref="H217:H223"/>
+    <mergeCell ref="I217:I223"/>
+    <mergeCell ref="H252:H255"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="B225:B231"/>
+    <mergeCell ref="C225:C231"/>
+    <mergeCell ref="D225:D231"/>
+    <mergeCell ref="G225:G231"/>
+    <mergeCell ref="H225:H231"/>
+    <mergeCell ref="I225:I231"/>
+    <mergeCell ref="G234:G241"/>
+    <mergeCell ref="H234:H241"/>
+    <mergeCell ref="I234:I241"/>
+    <mergeCell ref="B234:B241"/>
+    <mergeCell ref="C234:C241"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B258:B265"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="D258:D265"/>
+    <mergeCell ref="G258:G265"/>
+    <mergeCell ref="H258:H265"/>
+    <mergeCell ref="I258:I265"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="D244:D246"/>
+    <mergeCell ref="G244:G246"/>
+    <mergeCell ref="H244:H246"/>
+    <mergeCell ref="I244:I246"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="H248:H251"/>
+    <mergeCell ref="I248:I251"/>
+    <mergeCell ref="B248:B251"/>
+    <mergeCell ref="D248:D251"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="G252:G255"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
     <cfRule type="containsText" dxfId="251" priority="502" operator="containsText" text="Not Applicable">
@@ -13587,13 +13591,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -13603,11 +13607,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="115"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -13617,55 +13621,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="116"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -17096,8 +17100,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17107,22 +17111,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>597</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>598</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -17130,7 +17134,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="70" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -17149,7 +17153,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
